--- a/assets/canadianUniversitiesAndColleges.xlsx
+++ b/assets/canadianUniversitiesAndColleges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehonathanshakarghi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehonathanshakarghi/Documents/seedle/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54ADD77-6E62-844E-967B-DD8B5A91F8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7537ABB1-D4B6-D14C-ADE0-459B44E52B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="730">
   <si>
     <t>University</t>
   </si>
@@ -1030,399 +1030,231 @@
     <t>112 28 St SE, Calgary, AB T2A 6J9</t>
   </si>
   <si>
-    <t>−113.9811</t>
-  </si>
-  <si>
     <t>15 University Ave, Wolfville, NS B4P 2R6</t>
   </si>
   <si>
-    <t>−64.3663</t>
-  </si>
-  <si>
     <t>2nd Floor, 666 Burrard St, Vancouver, BC V6C 2X8</t>
   </si>
   <si>
-    <t>−123.1201</t>
-  </si>
-  <si>
     <t>1407 14 Ave NW, Calgary, AB T2N 4R3</t>
   </si>
   <si>
-    <t>−114.0929</t>
-  </si>
-  <si>
     <t>Burnaby, BC</t>
   </si>
   <si>
     <t>4805 Kingsway #101, Burnaby, BC V5H 4T6</t>
   </si>
   <si>
-    <t>−122.9926</t>
-  </si>
-  <si>
     <t>1520 Queen St E, Sault Ste. Marie, ON P6A 2G4</t>
   </si>
   <si>
-    <t>−84.3090</t>
-  </si>
-  <si>
     <t>1385 Woodroffe Ave, Ottawa, ON K2G 1V8</t>
   </si>
   <si>
-    <t>−75.7577</t>
-  </si>
-  <si>
     <t>150 Ambrose Cir SW, Calgary, AB T3H 0L5</t>
   </si>
   <si>
-    <t>−114.1677</t>
-  </si>
-  <si>
     <t>1430 Victoria Ave E, Brandon, MB R7A 2A9</t>
   </si>
   <si>
-    <t>−99.9345</t>
-  </si>
-  <si>
     <t>1 University Dr, Athabasca, AB T9S 3A3</t>
   </si>
   <si>
-    <t>−113.2853</t>
-  </si>
-  <si>
     <t>Fort Smith, NT</t>
   </si>
   <si>
     <t>50 Conibear Cres, Fort Smith, NT X0E 0P0</t>
   </si>
   <si>
-    <t>−111.8889</t>
-  </si>
-  <si>
     <t>3516 26 St NE, Calgary, AB T1Y 4T7</t>
   </si>
   <si>
-    <t>−114.0109</t>
-  </si>
-  <si>
     <t>Hepburn, SK</t>
   </si>
   <si>
     <t>703 2 St E, Hepburn, SK S0K 1Z0</t>
   </si>
   <si>
-    <t>−106.7058</t>
-  </si>
-  <si>
     <t>Bishop’s University</t>
   </si>
   <si>
     <t>2600 College St, Sherbrooke, QC J1M 1Z7</t>
   </si>
   <si>
-    <t>−71.8496</t>
-  </si>
-  <si>
     <t>447 Webb Pl, Winnipeg, MB R3B 2P2</t>
   </si>
   <si>
-    <t>−97.1481</t>
-  </si>
-  <si>
     <t>345 6 Ave SE, Calgary, AB T2G 4V1</t>
   </si>
   <si>
-    <t>−114.0561</t>
-  </si>
-  <si>
     <t>270 18th St, Brandon, MB R7A 6A9</t>
   </si>
   <si>
-    <t>−99.9631</t>
-  </si>
-  <si>
     <t>Caronport, SK</t>
   </si>
   <si>
     <t>510 College Dr, Caronport, SK S0H 0S0</t>
   </si>
   <si>
-    <t>−105.8166</t>
-  </si>
-  <si>
     <t>3700 Willingdon Ave, Burnaby, BC V5G 3H2</t>
   </si>
   <si>
-    <t>−123.0036</t>
-  </si>
-  <si>
     <t>1812 Sir Isaac Brock Way, St. Catharines, ON L2S 3A1</t>
   </si>
   <si>
-    <t>−79.2472</t>
-  </si>
-  <si>
     <t>6730 University Dr, Lacombe, AB T4L 2E5</t>
   </si>
   <si>
-    <t>−113.7289</t>
-  </si>
-  <si>
     <t>602 W Hastings St, Vancouver, BC V6B 1P2</t>
   </si>
   <si>
-    <t>−123.1133</t>
-  </si>
-  <si>
     <t>1400 Barrydowne Rd, Sudbury, ON P3A 3V8</t>
   </si>
   <si>
-    <t>−80.9434</t>
-  </si>
-  <si>
     <t>3100 Foul Bay Rd, Victoria, BC V8P 5J2</t>
   </si>
   <si>
-    <t>−123.3164</t>
-  </si>
-  <si>
     <t>1190 Westmount Rd, Sydney, NS B1R 2J6</t>
   </si>
   <si>
-    <t>−60.2013</t>
-  </si>
-  <si>
     <t>500 Shaftesbury Blvd, Winnipeg, MB R3P 2N2</t>
   </si>
   <si>
-    <t>−97.2467</t>
-  </si>
-  <si>
     <t>North Bay, ON</t>
   </si>
   <si>
     <t>100 College Dr, North Bay, ON P1B 8K9</t>
   </si>
   <si>
-    <t>−79.4572</t>
-  </si>
-  <si>
     <t>1250 Grand Lake Rd, Sydney, NS B1M 1A2</t>
   </si>
   <si>
-    <t>−60.0719</t>
-  </si>
-  <si>
     <t>2055 Purcell Way, North Vancouver, BC V7J 3H5</t>
   </si>
   <si>
-    <t>−123.0228</t>
-  </si>
-  <si>
     <t>1125 Colonel By Dr, Ottawa, ON K1S 5B6</t>
   </si>
   <si>
-    <t>−75.6952</t>
-  </si>
-  <si>
     <t>Humboldt, SK</t>
   </si>
   <si>
     <t>611 17th St, Humboldt, SK S0K 2A1</t>
   </si>
   <si>
-    <t>−105.1237</t>
-  </si>
-  <si>
     <t>941 Progress Ave, Scarborough, ON M1G 3T8</t>
   </si>
   <si>
-    <t>−79.2261</t>
-  </si>
-  <si>
     <t>900 Rue Riverside, Sherbrooke, QC J1H 5C7</t>
   </si>
   <si>
-    <t>−71.8851</t>
-  </si>
-  <si>
     <t>Terrace, BC</t>
   </si>
   <si>
     <t>5331 McConnell Ave, Terrace, BC V8G 4X2</t>
   </si>
   <si>
-    <t>−128.6079</t>
-  </si>
-  <si>
     <t>Gravelbourg, SK</t>
   </si>
   <si>
     <t>539 1 Ave E, Gravelbourg, SK S0H 1X0</t>
   </si>
   <si>
-    <t>−106.5485</t>
-  </si>
-  <si>
     <t>3330 22 Ave, Prince George, BC V2N 1P8</t>
   </si>
   <si>
-    <t>−122.7832</t>
-  </si>
-  <si>
     <t>Stephenville, NL</t>
   </si>
   <si>
     <t>432 Massachusetts Dr, Stephenville, NL A2N 2Z6</t>
   </si>
   <si>
-    <t>−58.5769</t>
-  </si>
-  <si>
     <t>Cranbrook, BC</t>
   </si>
   <si>
     <t>2700 College Way, Cranbrook, BC V1C 5L7</t>
   </si>
   <si>
-    <t>−115.7644</t>
-  </si>
-  <si>
     <t>Lachine, QC</t>
   </si>
   <si>
     <t>1250 Rue Saint-Joseph, Lachine, QC H8S 2M3</t>
   </si>
   <si>
-    <t>−73.6762</t>
-  </si>
-  <si>
     <t>9155 Rue Saint-Hubert, Montreal, QC H2M 1Y8</t>
   </si>
   <si>
-    <t>−73.6375</t>
-  </si>
-  <si>
     <t>1001 Boulevard Crémazie E, Montreal, QC H2M 1M3</t>
   </si>
   <si>
-    <t>−73.6363</t>
-  </si>
-  <si>
     <t>228 Rue Saint-Joseph E, Quebec City, QC G1K 3A9</t>
   </si>
   <si>
-    <t>−71.2160</t>
-  </si>
-  <si>
     <t>21 Lasalle Blvd, Sudbury, ON P3A 6B1</t>
   </si>
   <si>
-    <t>−80.9423</t>
-  </si>
-  <si>
     <t>Montréal, QC</t>
   </si>
   <si>
     <t>1118 Sainte-Catherine St W #403, Montréal, QC H3B 1H5</t>
   </si>
   <si>
-    <t>−73.5715</t>
-  </si>
-  <si>
     <t>Québec City, QC</t>
   </si>
   <si>
     <t>1660 Boulevard de l’Entente, Québec City, QC G1S 4S3</t>
   </si>
   <si>
-    <t>−71.2666</t>
-  </si>
-  <si>
     <t>15615 Boul Gouin O, Montréal, QC H9H 5K8</t>
   </si>
   <si>
-    <t>−73.8586</t>
-  </si>
-  <si>
     <t>4635 Queen-Mary Rd, Montréal, QC H3W 1W3</t>
   </si>
   <si>
-    <t>−73.6258</t>
-  </si>
-  <si>
     <t>5625 Avenue Decelles, Montréal, QC H3T 1W4</t>
   </si>
   <si>
-    <t>−73.6224</t>
-  </si>
-  <si>
     <t>1687 Rue Rodrigue, Trois-Rivières, QC G8Y 4G1</t>
   </si>
   <si>
-    <t>−72.5853</t>
-  </si>
-  <si>
     <t>Sainte-Thérèse, QC</t>
   </si>
   <si>
     <t>100 Rue du Collège, Sainte-Thérèse, QC J7E 3S3</t>
   </si>
   <si>
-    <t>−73.8326</t>
-  </si>
-  <si>
     <t>Laval, QC</t>
   </si>
   <si>
     <t>475 Boulevard de l’Avenir, Laval, QC H7N 5H9</t>
   </si>
   <si>
-    <t>−73.7189</t>
-  </si>
-  <si>
     <t>755 Grande Allée O, Québec City, QC G1S 1C1</t>
   </si>
   <si>
-    <t>−71.2408</t>
-  </si>
-  <si>
     <t>Collège O’Sullivan de Québec</t>
   </si>
   <si>
     <t>840 Rue Saint-Jean, Québec City, QC G1R 1R3</t>
   </si>
   <si>
-    <t>−71.2116</t>
-  </si>
-  <si>
     <t>Shawinigan, QC</t>
   </si>
   <si>
     <t>2263 Avenue du Collège, Shawinigan, QC G9N 6V8</t>
   </si>
   <si>
-    <t>−72.7427</t>
-  </si>
-  <si>
     <t>Outremont, QC</t>
   </si>
   <si>
     <t>780 Boulevard Édouard-Montpetit, Outremont, QC H2V 3H6</t>
   </si>
   <si>
-    <t>−73.6176</t>
-  </si>
-  <si>
     <t>Dieppe, NB</t>
   </si>
   <si>
     <t>505 Rue du Collège, Dieppe, NB E1A 6X2</t>
   </si>
   <si>
-    <t>−64.7325</t>
-  </si>
-  <si>
     <t>Collège d’Alma</t>
   </si>
   <si>
@@ -1432,36 +1264,21 @@
     <t>675 Boulevard Auger O, Alma, QC G8B 1X9</t>
   </si>
   <si>
-    <t>−71.6619</t>
-  </si>
-  <si>
     <t>10555 Avenue de Bois-de-Boulogne, Montréal, QC H4N 1L4</t>
   </si>
   <si>
-    <t>−73.6751</t>
-  </si>
-  <si>
     <t>3800 Rue Sherbrooke E, Montréal, QC H1X 2A2</t>
   </si>
   <si>
-    <t>−73.5549</t>
-  </si>
-  <si>
     <t>6400 16e Avenue, Montréal, QC H1X 2S9</t>
   </si>
   <si>
-    <t>−73.5693</t>
-  </si>
-  <si>
     <t>Salaberry-de-Valleyfield, QC</t>
   </si>
   <si>
     <t>169 Rue Champlain, Salaberry-de-Valleyfield, QC J6T 1X6</t>
   </si>
   <si>
-    <t>−74.1292</t>
-  </si>
-  <si>
     <t>Collège de l’Île</t>
   </si>
   <si>
@@ -1471,294 +1288,183 @@
     <t>48 Mill Rd, Wellington, PE C0B 2E0</t>
   </si>
   <si>
-    <t>−63.7043</t>
-  </si>
-  <si>
     <t>Yellowknife, NT</t>
   </si>
   <si>
     <t>5016 50 Ave, Yellowknife, NT X1A 2N4</t>
   </si>
   <si>
-    <t>−114.3718</t>
-  </si>
-  <si>
     <t>438 Terminal Ave, Vancouver, BC V6A 0C1</t>
   </si>
   <si>
-    <t>−123.0954</t>
-  </si>
-  <si>
     <t>1455 De Maisonneuve Blvd W, Montréal, QC H3G 1M8</t>
   </si>
   <si>
-    <t>−73.5788</t>
-  </si>
-  <si>
     <t>7128 Ada Blvd, Edmonton, AB T5B 4E4</t>
   </si>
   <si>
-    <t>−113.4175</t>
-  </si>
-  <si>
     <t>Kitchener, ON</t>
   </si>
   <si>
     <t>299 Doon Valley Dr, Kitchener, ON N2G 4M4</t>
   </si>
   <si>
-    <t>−80.4033</t>
-  </si>
-  <si>
     <t>Thunder Bay, ON</t>
   </si>
   <si>
     <t>1450 Nakai Pl, Thunder Bay, ON P7C 4W1</t>
   </si>
   <si>
-    <t>−89.2814</t>
-  </si>
-  <si>
     <t>609 W Hastings St, Vancouver, BC V6B 4W4</t>
   </si>
   <si>
-    <t>−123.1123</t>
-  </si>
-  <si>
     <t>333 Gorge Rd, Moncton, NB E1G 3H9</t>
   </si>
   <si>
-    <t>−64.8212</t>
-  </si>
-  <si>
     <t>3211 Boundary Rd, Burnaby, BC V5M 4A3</t>
   </si>
   <si>
-    <t>−123.0238</t>
-  </si>
-  <si>
     <t>Melfort, SK</t>
   </si>
   <si>
     <t>1101 Brunswick St, Melfort, SK S0E 1A0</t>
   </si>
   <si>
-    <t>−104.6169</t>
-  </si>
-  <si>
     <t>1111 Rue Lapierre, Montréal, QC H8N 2J4</t>
   </si>
   <si>
-    <t>−73.6165</t>
-  </si>
-  <si>
     <t>Saint-Georges, QC</t>
   </si>
   <si>
     <t>1055 116e Rue, Saint-Georges, QC G5Y 3G1</t>
   </si>
   <si>
-    <t>−70.6678</t>
-  </si>
-  <si>
     <t>1300 8e Avenue, Québec City, QC G1J 5L5</t>
   </si>
   <si>
-    <t>−71.2225</t>
-  </si>
-  <si>
     <t>7000 Rue Marie-Victorin, Montréal, QC H1G 2J6</t>
   </si>
   <si>
-    <t>−73.6039</t>
-  </si>
-  <si>
     <t>Baie-Comeau, QC</t>
   </si>
   <si>
     <t>537 Boulevard Blanche, Baie-Comeau, QC G5C 2B2</t>
   </si>
   <si>
-    <t>−68.1498</t>
-  </si>
-  <si>
     <t>Saguenay, QC</t>
   </si>
   <si>
     <t>534 Chicoutimi, Saguenay, QC G7H 2S8</t>
   </si>
   <si>
-    <t>−71.0628</t>
-  </si>
-  <si>
     <t>Drummondville, QC</t>
   </si>
   <si>
     <t>960 Rue Saint-Georges, Drummondville, QC J2C 6A2</t>
   </si>
   <si>
-    <t>−72.4803</t>
-  </si>
-  <si>
     <t>Granby, QC</t>
   </si>
   <si>
     <t>235 Rue Saint-Jacques, Granby, QC J2G 8E3</t>
   </si>
   <si>
-    <t>−72.7357</t>
-  </si>
-  <si>
     <t>Jonquière, QC</t>
   </si>
   <si>
     <t>2505 Rue Saint-Hubert, Jonquière, QC G7S 5P1</t>
   </si>
   <si>
-    <t>−71.2481</t>
-  </si>
-  <si>
     <t>La Pocatière, QC</t>
   </si>
   <si>
     <t>140 4e Avenue Painchaud, La Pocatière, QC G0R 1Z0</t>
   </si>
   <si>
-    <t>−70.0393</t>
-  </si>
-  <si>
     <t>Lévis, QC</t>
   </si>
   <si>
     <t>205 Rue Montaigne, Lévis, QC G6V 8X1</t>
   </si>
   <si>
-    <t>−71.1825</t>
-  </si>
-  <si>
     <t>Matane, QC</t>
   </si>
   <si>
     <t>616 Avenue Saint-Rédempteur, Matane, QC G4W 1N9</t>
   </si>
   <si>
-    <t>−67.5207</t>
-  </si>
-  <si>
     <t>Rimouski, QC</t>
   </si>
   <si>
     <t>60 Rue de l’Université, Rimouski, QC G5L 5T3</t>
   </si>
   <si>
-    <t>−68.5246</t>
-  </si>
-  <si>
     <t>Rivière-du-Loup, QC</t>
   </si>
   <si>
     <t>80 Rue Frontenac, Rivière-du-Loup, QC G5R 1R1</t>
   </si>
   <si>
-    <t>−69.5407</t>
-  </si>
-  <si>
     <t>Saint-Félicien, QC</t>
   </si>
   <si>
     <t>1105 Boulevard Hamelin, Saint-Félicien, QC G8K 2R8</t>
   </si>
   <si>
-    <t>−72.4574</t>
-  </si>
-  <si>
     <t>Saint-Hyacinthe, QC</t>
   </si>
   <si>
     <t>3000 Avenue Boullé, Saint-Hyacinthe, QC J2S 1H9</t>
   </si>
   <si>
-    <t>−72.9486</t>
-  </si>
-  <si>
     <t>Saint-Jean-sur-Richelieu, QC</t>
   </si>
   <si>
     <t>30 Boulevard Saint-Luc, Saint-Jean-sur-Richelieu, QC J2W 1E1</t>
   </si>
   <si>
-    <t>−73.2822</t>
-  </si>
-  <si>
     <t>Saint-Jérôme, QC</t>
   </si>
   <si>
     <t>455 Rue du Prévost, Saint-Jérôme, QC J7Z 4W6</t>
   </si>
   <si>
-    <t>−74.0052</t>
-  </si>
-  <si>
     <t>625 Avenue Sainte-Croix, Montréal, QC H4L 3X7</t>
   </si>
   <si>
-    <t>−73.6767</t>
-  </si>
-  <si>
     <t>2410 Chemin Sainte-Foy, Québec City, QC G1V 1T3</t>
   </si>
   <si>
-    <t>−71.2833</t>
-  </si>
-  <si>
     <t>Sept-Îles, QC</t>
   </si>
   <si>
     <t>175 Rue De La Vérendrye, Sept-Îles, QC G4R 5B7</t>
   </si>
   <si>
-    <t>−66.3781</t>
-  </si>
-  <si>
     <t>475 Rue du Cégep, Sherbrooke, QC J1E 4K1</t>
   </si>
   <si>
-    <t>−71.8824</t>
-  </si>
-  <si>
     <t>Sorel-Tracy, QC</t>
   </si>
   <si>
     <t>3000 Boulevard de Tracy, Sorel-Tracy, QC J3R 5B9</t>
   </si>
   <si>
-    <t>−73.1151</t>
-  </si>
-  <si>
     <t>Thetford Mines, QC</t>
   </si>
   <si>
     <t>671 Boulevard Frontenac O, Thetford Mines, QC G6G 1N1</t>
   </si>
   <si>
-    <t>−71.3058</t>
-  </si>
-  <si>
     <t>3500 Rue De Courval, Trois-Rivières, QC G8Z 1V6</t>
   </si>
   <si>
-    <t>−72.5854</t>
-  </si>
-  <si>
     <t>Victoriaville, QC</t>
   </si>
   <si>
     <t>475 Rue Notre-Dame Est, Victoriaville, QC G6P 4B3</t>
   </si>
   <si>
-    <t>−71.9604</t>
-  </si>
-  <si>
     <t>Cégep de l’Abitibi-Témiscamingue</t>
   </si>
   <si>
@@ -1768,9 +1474,6 @@
     <t>425 Boulevard du Collège, Rouyn-Noranda, QC J9X 5E5</t>
   </si>
   <si>
-    <t>−79.0184</t>
-  </si>
-  <si>
     <t>Cégep de l’Outaouais</t>
   </si>
   <si>
@@ -1780,282 +1483,168 @@
     <t>333 Boulevard de la Cité-des-Jeunes, Gatineau, QC J8Y 6M4</t>
   </si>
   <si>
-    <t>−75.7352</t>
-  </si>
-  <si>
     <t>Gaspé, QC</t>
   </si>
   <si>
     <t>96 Rue Jacques-Cartier, Gaspé, QC G4X 1M8</t>
   </si>
   <si>
-    <t>−64.4826</t>
-  </si>
-  <si>
     <t>255 Rue Ontario E, Montréal, QC H2X 1X6</t>
   </si>
   <si>
-    <t>−73.5617</t>
-  </si>
-  <si>
     <t>Joliette, QC</t>
   </si>
   <si>
     <t>20 Rue Saint-Charles-Borromée Sud, Joliette, QC J6E 4T1</t>
   </si>
   <si>
-    <t>−73.4451</t>
-  </si>
-  <si>
     <t>Longueuil, QC</t>
   </si>
   <si>
     <t>945 Chemin de Chambly, Longueuil, QC J4H 3M6</t>
   </si>
   <si>
-    <t>−73.4896</t>
-  </si>
-  <si>
     <t>6299 South St, Halifax, NS B3H 4R2</t>
   </si>
   <si>
-    <t>−63.5918</t>
-  </si>
-  <si>
     <t>3040 Rue Sherbrooke O, Montréal, QC H3Z 1A4</t>
   </si>
   <si>
-    <t>−73.5867</t>
-  </si>
-  <si>
     <t>New Westminster, BC</t>
   </si>
   <si>
     <t>700 Royal Ave, New Westminster, BC V3M 5Z5</t>
   </si>
   <si>
-    <t>−122.9127</t>
-  </si>
-  <si>
     <t>2000 Simcoe St N, Oshawa, ON L1G 0C5</t>
   </si>
   <si>
-    <t>−78.8967</t>
-  </si>
-  <si>
     <t>842 Thurlow St #200, Vancouver, BC V6E 1W2</t>
   </si>
   <si>
-    <t>−123.1249</t>
-  </si>
-  <si>
     <t>520 E 1st Ave, Vancouver, BC V5T 0H2</t>
   </si>
   <si>
-    <t>−123.0872</t>
-  </si>
-  <si>
     <t>Eston, SK</t>
   </si>
   <si>
     <t>220 5 Ave S, Eston, SK S0L 1A0</t>
   </si>
   <si>
-    <t>−108.7544</t>
-  </si>
-  <si>
     <t>333 Terminal Ave, Vancouver, BC V6A 4C1</t>
   </si>
   <si>
-    <t>−123.0975</t>
-  </si>
-  <si>
     <t>1001 Fanshawe College Blvd, London, ON N5Y 5R6</t>
   </si>
   <si>
-    <t>−81.1998</t>
-  </si>
-  <si>
     <t>Kelowna, BC</t>
   </si>
   <si>
     <t>532 Leon Ave #200, Kelowna, BC V1Y 6J6</t>
   </si>
   <si>
-    <t>−119.4920</t>
-  </si>
-  <si>
     <t>Peterborough, ON</t>
   </si>
   <si>
     <t>599 Brealey Dr, Peterborough, ON K9J 7B1</t>
   </si>
   <si>
-    <t>−78.3675</t>
-  </si>
-  <si>
     <t>St. Ann’s, NS</t>
   </si>
   <si>
     <t>51779 Cabot Trail, St. Ann’s, NS B0C 1H0</t>
   </si>
   <si>
-    <t>−60.6271</t>
-  </si>
-  <si>
     <t>200 King St E, Toronto, ON M5A 3W8</t>
   </si>
   <si>
-    <t>−79.3707</t>
-  </si>
-  <si>
     <t>Barrie, ON</t>
   </si>
   <si>
     <t>1 Georgian Dr, Barrie, ON L4M 3X9</t>
   </si>
   <si>
-    <t>−79.6669</t>
-  </si>
-  <si>
     <t>Swift Current, SK</t>
   </si>
   <si>
     <t>129 2 Ave NE, Swift Current, SK S9H 2C6</t>
   </si>
   <si>
-    <t>−107.7950</t>
-  </si>
-  <si>
     <t>325 Boulevard de la Cité-des-Jeunes, Gatineau, QC J8Y 6T3</t>
   </si>
   <si>
-    <t>−75.7342</t>
-  </si>
-  <si>
     <t>1616 Boulevard René-Lévesque O, Montréal, QC H3H 1P8</t>
   </si>
   <si>
-    <t>−73.5805</t>
-  </si>
-  <si>
     <t>140 Weymouth St, Charlottetown, PE C1A 4Z1</t>
   </si>
   <si>
-    <t>−63.1289</t>
-  </si>
-  <si>
     <t>Saskatoon, SK</t>
   </si>
   <si>
     <t>604 Webster St, Saskatoon, SK S7N 3P9</t>
   </si>
   <si>
-    <t>−106.6212</t>
-  </si>
-  <si>
     <t>205 Humber College Blvd, Toronto, ON M9W 5L7</t>
   </si>
   <si>
-    <t>−79.6066</t>
-  </si>
-  <si>
     <t>1001 Boulevard Crémazie E, Montréal, QC H2M 1M3</t>
   </si>
   <si>
     <t>490 Rue de la Couronne, Québec City, QC G1K 9A9</t>
   </si>
   <si>
-    <t>−71.2191</t>
-  </si>
-  <si>
     <t>Sainte-Anne-de-Bellevue, QC</t>
   </si>
   <si>
     <t>21275 Rue Lakeshore, Sainte-Anne-de-Bellevue, QC H9X 3L9</t>
   </si>
   <si>
-    <t>−73.9442</t>
-  </si>
-  <si>
     <t>Fort McMurray, AB</t>
   </si>
   <si>
     <t>8115 Franklin Ave, Fort McMurray, AB T9H 2H7</t>
   </si>
   <si>
-    <t>−111.3805</t>
-  </si>
-  <si>
     <t>26 College St, Sussex, NB E4E 1L7</t>
   </si>
   <si>
-    <t>−65.5118</t>
-  </si>
-  <si>
     <t>12666 72 Ave, Surrey, BC V3W 2M8</t>
   </si>
   <si>
-    <t>−122.8759</t>
-  </si>
-  <si>
     <t>801 Aviation Pkwy, Ottawa, ON K1K 4R3</t>
   </si>
   <si>
-    <t>−75.6324</t>
-  </si>
-  <si>
     <t>2000 Rue Sainte-Catherine O, Montréal, QC H3H 2T3</t>
   </si>
   <si>
-    <t>−73.5824</t>
-  </si>
-  <si>
     <t>955 Oliver Rd, Thunder Bay, ON P7B 5E1</t>
   </si>
   <si>
-    <t>−89.2619</t>
-  </si>
-  <si>
     <t>Vermilion, AB</t>
   </si>
   <si>
     <t>5707 College Dr, Vermilion, AB T9X 1K5</t>
   </si>
   <si>
-    <t>−110.8582</t>
-  </si>
-  <si>
     <t>Lloydminster, SK</t>
   </si>
   <si>
     <t>2602 59 Ave, Lloydminster, SK S9V 1Z3</t>
   </si>
   <si>
-    <t>−110.0171</t>
-  </si>
-  <si>
     <t>Sarnia, ON</t>
   </si>
   <si>
     <t>1457 London Rd, Sarnia, ON N7S 6K4</t>
   </si>
   <si>
-    <t>−82.3533</t>
-  </si>
-  <si>
     <t>100 W 49th Ave, Vancouver, BC V5Y 2Z6</t>
   </si>
   <si>
-    <t>−123.1061</t>
-  </si>
-  <si>
     <t>935 Ramsey Lake Rd, Sudbury, ON P3E 2C6</t>
   </si>
   <si>
-    <t>−80.9728</t>
-  </si>
-  <si>
     <t>Lethbridge Polytechnic (Lethbridge College)</t>
   </si>
   <si>
@@ -2065,498 +1654,288 @@
     <t>3000 College Dr S, Lethbridge, AB T1K 1L6</t>
   </si>
   <si>
-    <t>−112.8355</t>
-  </si>
-  <si>
     <t>Belleville, ON</t>
   </si>
   <si>
     <t>376 Wallbridge Loyalist Rd, Belleville, ON K8N 5B9</t>
   </si>
   <si>
-    <t>−77.4067</t>
-  </si>
-  <si>
     <t>340 Rue Sainte-Croix, Montréal, QC H4N 3K8</t>
   </si>
   <si>
-    <t>−73.6720</t>
-  </si>
-  <si>
     <t>9611 34 Ave NW, Edmonton, AB T6E 5T4</t>
   </si>
   <si>
-    <t>−113.4746</t>
-  </si>
-  <si>
     <t>10700 104 Ave NW, Edmonton, AB T5J 4S2</t>
   </si>
   <si>
-    <t>−113.5048</t>
-  </si>
-  <si>
     <t>130 Henlow Bay, Winnipeg, MB R3Y 1G4</t>
   </si>
   <si>
-    <t>−97.1834</t>
-  </si>
-  <si>
     <t>4873 Avenue Westmount, Montréal, QC H3Y 1X9</t>
   </si>
   <si>
-    <t>−73.6098</t>
-  </si>
-  <si>
     <t>1350 Regent St, Fredericton, NB E3C 2G6</t>
   </si>
   <si>
-    <t>−66.6564</t>
-  </si>
-  <si>
     <t>Montréal, Ste-Anne-de-Bellevue, QC</t>
   </si>
   <si>
     <t>845 Sherbrooke St W, Montréal, QC H3A 0G4</t>
   </si>
   <si>
-    <t>−73.5791</t>
-  </si>
-  <si>
     <t>100 Cameron St, Moncton, NB E1C 5Y6</t>
   </si>
   <si>
-    <t>−64.7776</t>
-  </si>
-  <si>
     <t>1280 Main St W, Hamilton, ON L8S 4L8</t>
   </si>
   <si>
-    <t>−79.9180</t>
-  </si>
-  <si>
     <t>Medicine Hat, AB</t>
   </si>
   <si>
     <t>299 College Dr SE, Medicine Hat, AB T1A 3Y6</t>
   </si>
   <si>
-    <t>−110.6626</t>
-  </si>
-  <si>
     <t>St. John’s, Corner Brook, NL</t>
   </si>
   <si>
     <t>230 Elizabeth Ave, St. John’s, NL A1C 5S7</t>
   </si>
   <si>
-    <t>−52.7343</t>
-  </si>
-  <si>
     <t>520 Portage Ave, Winnipeg, MB R3C 0G2</t>
   </si>
   <si>
-    <t>−97.1528</t>
-  </si>
-  <si>
     <t>135 Fennell Ave W, Hamilton, ON L9C 0E5</t>
   </si>
   <si>
-    <t>−79.8883</t>
-  </si>
-  <si>
     <t>62 York St, Sackville, NB E4L 1E2</t>
   </si>
   <si>
-    <t>−64.3683</t>
-  </si>
-  <si>
     <t>4825 Mt Royal Gate SW, Calgary, AB T3E 6K6</t>
   </si>
   <si>
-    <t>−114.1335</t>
-  </si>
-  <si>
     <t>166 Bedford Hwy, Halifax, NS B3M 2J6</t>
   </si>
   <si>
-    <t>−63.6422</t>
-  </si>
-  <si>
     <t>5163 Duke St, Halifax, NS B3J 3J6</t>
   </si>
   <si>
-    <t>−63.5737</t>
-  </si>
-  <si>
     <t>8181 Avenue du Cirque, Montréal, QC H1Z 4N9</t>
   </si>
   <si>
-    <t>−73.6063</t>
-  </si>
-  <si>
     <t>191 Pioneer Ave, Winnipeg, MB R3C 0N1</t>
   </si>
   <si>
-    <t>−97.1379</t>
-  </si>
-  <si>
     <t>457 Queen St, Fredericton, NB E3B 1B7</t>
   </si>
   <si>
-    <t>−66.6427</t>
-  </si>
-  <si>
     <t>26 Duffie Dr, Fredericton, NB E3B 0R6</t>
   </si>
   <si>
-    <t>−66.6672</t>
-  </si>
-  <si>
     <t>Welland, ON</t>
   </si>
   <si>
     <t>100 Niagara College Blvd, Welland, ON L3C 7L3</t>
   </si>
   <si>
-    <t>−79.2402</t>
-  </si>
-  <si>
     <t>Nipawin, SK</t>
   </si>
   <si>
     <t>1600 8th Ave E, Nipawin, SK S0E 1E0</t>
   </si>
   <si>
-    <t>−104.0001</t>
-  </si>
-  <si>
     <t>100 College Dr, North Bay, ON P1B 8L7</t>
   </si>
   <si>
-    <t>−79.4608</t>
-  </si>
-  <si>
     <t>10215 108 St NW, Edmonton, AB T5J 1L6</t>
   </si>
   <si>
-    <t>−113.5015</t>
-  </si>
-  <si>
     <t>Courtenay, BC</t>
   </si>
   <si>
     <t>2300 Ryan Rd, Courtenay, BC V9N 8N6</t>
   </si>
   <si>
-    <t>−124.9929</t>
-  </si>
-  <si>
     <t>The Battlefords, SK</t>
   </si>
   <si>
     <t>10702 Diefenbaker Dr, North Battleford, SK S9A 2X6</t>
   </si>
   <si>
-    <t>−108.3138</t>
-  </si>
-  <si>
     <t>11762 106 St NW, Edmonton, AB T5G 2R1</t>
   </si>
   <si>
-    <t>−113.5066</t>
-  </si>
-  <si>
     <t>Timmins, ON</t>
   </si>
   <si>
     <t>4715 Highway 101 E, South Porcupine, ON P0N 1H0</t>
   </si>
   <si>
-    <t>−81.3243</t>
-  </si>
-  <si>
     <t>Slave Lake, AB</t>
   </si>
   <si>
     <t>1201 Main St SE, Slave Lake, AB T0G 2A3</t>
   </si>
   <si>
-    <t>−114.7687</t>
-  </si>
-  <si>
     <t>Dawson Creek, BC</t>
   </si>
   <si>
     <t>11401 8 St, Dawson Creek, BC V1G 4G2</t>
   </si>
   <si>
-    <t>−120.2382</t>
-  </si>
-  <si>
     <t>La Ronge, SK</t>
   </si>
   <si>
     <t>118 Avens Rd, La Ronge, SK S0J 1L0</t>
   </si>
   <si>
-    <t>−105.2927</t>
-  </si>
-  <si>
     <t>Grande Prairie, AB</t>
   </si>
   <si>
     <t>10726 106 Ave, Grande Prairie, AB T8V 4C4</t>
   </si>
   <si>
-    <t>−118.8003</t>
-  </si>
-  <si>
     <t>5685 Leeds St, Halifax, NS B3K 2T3</t>
   </si>
   <si>
-    <t>−63.5971</t>
-  </si>
-  <si>
     <t>Iqaluit, NU</t>
   </si>
   <si>
     <t>600 Nunavut Dr, Iqaluit, NU X0A 0H0</t>
   </si>
   <si>
-    <t>−68.5170</t>
-  </si>
-  <si>
     <t>1191 Rue de la Montagne, Montréal, QC H3G 1Z2</t>
   </si>
   <si>
-    <t>−73.5733</t>
-  </si>
-  <si>
     <t>100 McCaul St, Toronto, ON M5T 1W1</t>
   </si>
   <si>
-    <t>−79.3915</t>
-  </si>
-  <si>
     <t>1000 KLO Rd, Kelowna, BC V1Y 4X8</t>
   </si>
   <si>
-    <t>−119.4772</t>
-  </si>
-  <si>
     <t>Olds, AB</t>
   </si>
   <si>
     <t>4500 50 St, Olds, AB T4H 1R6</t>
   </si>
   <si>
-    <t>−114.1039</t>
-  </si>
-  <si>
     <t>4 Flanders Ct, Moncton, NB E1C 0K6</t>
   </si>
   <si>
-    <t>−64.7763</t>
-  </si>
-  <si>
     <t>4755 Cherry Creek Rd, Port Alberni, BC V9Y 8E9</t>
   </si>
   <si>
-    <t>−124.8345</t>
-  </si>
-  <si>
     <t>Yorkton, SK</t>
   </si>
   <si>
     <t>200 Prystai Way, Yorkton, SK S3N 4G4</t>
   </si>
   <si>
-    <t>−102.4717</t>
-  </si>
-  <si>
     <t>Lac La Biche, AB</t>
   </si>
   <si>
     <t>9531 94 Ave, Lac la Biche, AB T0A 2C0</t>
   </si>
   <si>
-    <t>−111.9668</t>
-  </si>
-  <si>
     <t>Three Hills, AB</t>
   </si>
   <si>
     <t>350 5 Ave N, Three Hills, AB T0M 2N0</t>
   </si>
   <si>
-    <t>−113.2694</t>
-  </si>
-  <si>
     <t>10 College Crescent, Otterburne, MB R0A 1G0</t>
   </si>
   <si>
-    <t>−97.0513</t>
-  </si>
-  <si>
     <t>99 University Ave, Kingston, ON K7L 3N6</t>
   </si>
   <si>
-    <t>−76.4951</t>
-  </si>
-  <si>
     <t>Cardston, AB</t>
   </si>
   <si>
     <t>190 Levern Main Rd, Cardston, AB T0K 0K0</t>
   </si>
   <si>
-    <t>−113.3118</t>
-  </si>
-  <si>
     <t>Red Deer, AB</t>
   </si>
   <si>
     <t>100 College Blvd, Red Deer, AB T4N 5H5</t>
   </si>
   <si>
-    <t>−113.8252</t>
-  </si>
-  <si>
     <t>2055 Notre Dame Ave, Winnipeg, MB R3H 0J9</t>
   </si>
   <si>
-    <t>−97.2006</t>
-  </si>
-  <si>
     <t>777 Garner Rd E, Hamilton, ON L9K 1J4</t>
   </si>
   <si>
-    <t>−79.9378</t>
-  </si>
-  <si>
     <t>1500 14 St SW, Calgary, AB T3C 1C9</t>
   </si>
   <si>
-    <t>−114.0933</t>
-  </si>
-  <si>
     <t>160 Quarry Park Blvd SE #300, Calgary, AB T2C 3G3</t>
   </si>
   <si>
-    <t>−114.0042</t>
-  </si>
-  <si>
     <t>265 Notre Dame Ave, Winnipeg, MB R3B 1N9</t>
   </si>
   <si>
-    <t>−97.1446</t>
-  </si>
-  <si>
     <t>13 General Crerar Crescent, Kingston, ON K7K 7B4</t>
   </si>
   <si>
-    <t>−76.4630</t>
-  </si>
-  <si>
     <t>2005 Sooke Rd, Victoria, BC V9B 5Y2</t>
   </si>
   <si>
-    <t>−123.4911</t>
-  </si>
-  <si>
     <t>Bathurst, NB</t>
   </si>
   <si>
     <t>2095 Rue Rough Waters, Bathurst, NB E2A 4K6</t>
   </si>
   <si>
-    <t>−65.6472</t>
-  </si>
-  <si>
     <t>4130 University Ave, Antigonish, NS B2G 2W5</t>
   </si>
   <si>
-    <t>−61.9940</t>
-  </si>
-  <si>
     <t>923 Robie St, Halifax, NS B3H 3C3</t>
   </si>
   <si>
-    <t>−63.5792</t>
-  </si>
-  <si>
     <t>118 20 St W, Saskatoon, SK S7M 0W6</t>
   </si>
   <si>
-    <t>−106.6748</t>
-  </si>
-  <si>
     <t>1130 Idylwyld Dr N, Saskatoon, SK S7K 3R5</t>
   </si>
   <si>
-    <t>−106.6706</t>
-  </si>
-  <si>
     <t>Sault Ste. Marie, ON</t>
   </si>
   <si>
     <t>443 Northern Ave E, Sault Ste. Marie, ON P6B 4J3</t>
   </si>
   <si>
-    <t>−84.2939</t>
-  </si>
-  <si>
     <t>Castlegar, BC</t>
   </si>
   <si>
     <t>301 Frank Beinder Way, Castlegar, BC V1N 4L3</t>
   </si>
   <si>
-    <t>−117.6677</t>
-  </si>
-  <si>
     <t>1750 Finch Ave E, Toronto, ON M2J 2X5</t>
   </si>
   <si>
-    <t>−79.3473</t>
-  </si>
-  <si>
     <t>Oakville, ON</t>
   </si>
   <si>
     <t>1430 Trafalgar Rd, Oakville, ON L6H 2L1</t>
   </si>
   <si>
-    <t>−79.6877</t>
-  </si>
-  <si>
     <t>8888 University Dr, Burnaby, BC V5A 1S6</t>
   </si>
   <si>
-    <t>−122.9144</t>
-  </si>
-  <si>
     <t>Weyburn, SK</t>
   </si>
   <si>
     <t>633 King St, Weyburn, SK S4H 2S5</t>
   </si>
   <si>
-    <t>−103.8504</t>
-  </si>
-  <si>
     <t>1301 16 Ave NW, Calgary, AB T2M 0L4</t>
   </si>
   <si>
-    <t>−114.0843</t>
-  </si>
-  <si>
     <t>541 Seymour St, Vancouver, BC V6B 3H6</t>
   </si>
   <si>
-    <t>−123.1162</t>
-  </si>
-  <si>
     <t>St. Peter's College</t>
   </si>
   <si>
@@ -2566,180 +1945,96 @@
     <t>1 Main St, Muenster, SK S0K 2Y0</t>
   </si>
   <si>
-    <t>−104.9007</t>
-  </si>
-  <si>
     <t>29 Dysart Rd, Winnipeg, MB R3T 2M7</t>
   </si>
   <si>
-    <t>−97.1360</t>
-  </si>
-  <si>
     <t>2000 Talbot Rd W, Windsor, ON N9A 6S4</t>
   </si>
   <si>
-    <t>−83.0496</t>
-  </si>
-  <si>
     <t>92 Dysart Rd, Winnipeg, MB R3T 2M5</t>
   </si>
   <si>
-    <t>−97.1370</t>
-  </si>
-  <si>
     <t>100 Portsmouth Ave, Kingston, ON K7L 5A6</t>
   </si>
   <si>
-    <t>−76.5274</t>
-  </si>
-  <si>
     <t>14500 Bannister Rd SE, Calgary, AB T2X 1Z4</t>
   </si>
   <si>
-    <t>−114.0712</t>
-  </si>
-  <si>
     <t>70 Dysart Rd, Winnipeg, MB R3T 2M6</t>
   </si>
   <si>
-    <t>−97.1365</t>
-  </si>
-  <si>
     <t>8 Main St, St. Stephen, NB E3L 3E2</t>
   </si>
   <si>
-    <t>−67.2797</t>
-  </si>
-  <si>
     <t>51 Dineen Dr, Fredericton, NB E3B 5G3</t>
   </si>
   <si>
-    <t>−66.6428</t>
-  </si>
-  <si>
     <t>Steinbach, MB</t>
   </si>
   <si>
     <t>50 PTH 12 N, Steinbach, MB R5G 1T4</t>
   </si>
   <si>
-    <t>−96.6851</t>
-  </si>
-  <si>
     <t>310 10 St NW, Calgary, AB T2N 1V8</t>
   </si>
   <si>
-    <t>−114.0889</t>
-  </si>
-  <si>
     <t>294 Portage Ave, Winnipeg, MB R3C 0B9</t>
   </si>
   <si>
-    <t>−97.1449</t>
-  </si>
-  <si>
     <t>195 Rue Marquette, Sherbrooke, QC J1H 1M4</t>
   </si>
   <si>
-    <t>−71.8967</t>
-  </si>
-  <si>
     <t>6333 Decarie Blvd, Montréal, QC H3W 3E1</t>
   </si>
   <si>
-    <t>−73.6384</t>
-  </si>
-  <si>
     <t>The King’s University</t>
   </si>
   <si>
     <t>9125 50 St NW, Edmonton, AB T6B 2H3</t>
   </si>
   <si>
-    <t>−113.4076</t>
-  </si>
-  <si>
     <t>805 TRU Way, Kamloops, BC V2C 0C8</t>
   </si>
   <si>
-    <t>−120.3689</t>
-  </si>
-  <si>
     <t>350 Victoria St, Toronto, ON M5B 2K3</t>
   </si>
   <si>
-    <t>−79.3788</t>
-  </si>
-  <si>
     <t>550 Rue Sherbrooke O, Montréal, QC H3A 1B9</t>
   </si>
   <si>
-    <t>−73.5756</t>
-  </si>
-  <si>
     <t>1600 W Bank Dr, Peterborough, ON K9L 0G2</t>
   </si>
   <si>
-    <t>−78.2897</t>
-  </si>
-  <si>
     <t>7600 Glover Rd, Langley, BC V2Y 1Y1</t>
   </si>
   <si>
-    <t>−122.6383</t>
-  </si>
-  <si>
     <t>3377 Bayview Ave, Toronto, ON M2M 3S4</t>
   </si>
   <si>
-    <t>−79.4014</t>
-  </si>
-  <si>
     <t>1461 Granville St, Vancouver, BC V6Z 0E5</t>
   </si>
   <si>
-    <t>−123.1288</t>
-  </si>
-  <si>
     <t>436 7 St E, The Pas, MB R9A 1M7</t>
   </si>
   <si>
-    <t>−101.2447</t>
-  </si>
-  <si>
     <t>116 St &amp; 85 Ave, Edmonton, AB T6G 2R3</t>
   </si>
   <si>
-    <t>−113.5263</t>
-  </si>
-  <si>
     <t>2329 W Mall, Vancouver, BC V6T 1Z4</t>
   </si>
   <si>
-    <t>−123.2460</t>
-  </si>
-  <si>
     <t>2500 University Dr NW, Calgary, AB T2N 1N4</t>
   </si>
   <si>
-    <t>−114.1339</t>
-  </si>
-  <si>
     <t>40 Alison Blvd, Fredericton, NB E3C 0A9</t>
   </si>
   <si>
-    <t>−66.6653</t>
-  </si>
-  <si>
     <t>Guelph, ON</t>
   </si>
   <si>
     <t>50 Stone Rd E, Guelph, ON N1G 2W1</t>
   </si>
   <si>
-    <t>−80.2260</t>
-  </si>
-  <si>
     <t>207 Humber College Blvd, Toronto, ON M9W 5L7</t>
   </si>
   <si>
@@ -2749,288 +2044,162 @@
     <t>6350 Coburg Rd, Halifax, NS B3H 2A1</t>
   </si>
   <si>
-    <t>−63.5940</t>
-  </si>
-  <si>
     <t>4401 University Dr W, Lethbridge, AB T1K 3M4</t>
   </si>
   <si>
-    <t>−112.8627</t>
-  </si>
-  <si>
     <t>66 Chancellors Cir, Winnipeg, MB R3T 2N2</t>
   </si>
   <si>
-    <t>−97.1331</t>
-  </si>
-  <si>
     <t>3 Bailey Dr, Fredericton, NB E3B 5A3</t>
   </si>
   <si>
-    <t>−66.6412</t>
-  </si>
-  <si>
     <t>5685 Falls Ave, Niagara Falls, ON L2E 6W7</t>
   </si>
   <si>
-    <t>−79.0710</t>
-  </si>
-  <si>
     <t>3333 University Way, Prince George, BC V2N 4Z9</t>
   </si>
   <si>
-    <t>−122.7688</t>
-  </si>
-  <si>
     <t>75 Laurier Ave E, Ottawa, ON K1N 6N5</t>
   </si>
   <si>
-    <t>−75.6831</t>
-  </si>
-  <si>
     <t>550 University Ave, Charlottetown, PE C1A 4P3</t>
   </si>
   <si>
-    <t>−63.1325</t>
-  </si>
-  <si>
     <t>3737 Wascana Pkwy, Regina, SK S4S 0A2</t>
   </si>
   <si>
-    <t>−104.5886</t>
-  </si>
-  <si>
     <t>105 Administration Pl, Saskatoon, SK S7N 5A2</t>
   </si>
   <si>
-    <t>−106.6339</t>
-  </si>
-  <si>
     <t>27 King’s College Cir, Toronto, ON M5S 1A1</t>
   </si>
   <si>
-    <t>−79.3957</t>
-  </si>
-  <si>
     <t>3800 Finnerty Rd, Victoria, BC V8P 5C2</t>
   </si>
   <si>
-    <t>−123.3107</t>
-  </si>
-  <si>
     <t>Waterloo, ON</t>
   </si>
   <si>
     <t>200 University Ave W, Waterloo, ON N2L 3G1</t>
   </si>
   <si>
-    <t>−80.5449</t>
-  </si>
-  <si>
     <t>401 Sunset Ave, Windsor, ON N9B 3P4</t>
   </si>
   <si>
-    <t>−83.0680</t>
-  </si>
-  <si>
     <t>515 Portage Ave, Winnipeg, MB R3B 2E9</t>
   </si>
   <si>
-    <t>−97.1507</t>
-  </si>
-  <si>
     <t>Abbotsford, BC</t>
   </si>
   <si>
     <t>33844 King Rd, Abbotsford, BC V2S 7M8</t>
   </si>
   <si>
-    <t>−122.2852</t>
-  </si>
-  <si>
     <t>2325 Rue de l’Université, Québec, QC G1V 0A6</t>
   </si>
   <si>
-    <t>−71.2754</t>
-  </si>
-  <si>
     <t>Pointe-de-l’Église, NS</t>
   </si>
   <si>
     <t>1695 Route 1, Pointe-de-l'Église, NS B0W 1M0</t>
   </si>
   <si>
-    <t>−66.1036</t>
-  </si>
-  <si>
     <t>5800 Rue Saint-Denis, Montréal, QC H2S 3L5</t>
   </si>
   <si>
-    <t>−73.6073</t>
-  </si>
-  <si>
     <t>60 9th St, Hearst, ON P0L 1N0</t>
   </si>
   <si>
-    <t>−83.6660</t>
-  </si>
-  <si>
     <t>18 Antonine-Maillet Ave, Moncton, NB E1A 3E9</t>
   </si>
   <si>
-    <t>−64.7820</t>
-  </si>
-  <si>
     <t>2900 Edouard Montpetit Blvd, Montréal, QC H3T 1J4</t>
   </si>
   <si>
-    <t>−73.6132</t>
-  </si>
-  <si>
     <t>200 Ave de la Cathedrale, Winnipeg, MB R2H 0H7</t>
   </si>
   <si>
-    <t>−97.1206</t>
-  </si>
-  <si>
     <t>2500 Boulevard de l’Université, Sherbrooke, QC J1K 2R1</t>
   </si>
   <si>
-    <t>−71.9331</t>
-  </si>
-  <si>
     <t>Université de l’Ontario français</t>
   </si>
   <si>
     <t>9 Lower Jarvis St, Toronto, ON M5E 1R5</t>
   </si>
   <si>
-    <t>−79.3708</t>
-  </si>
-  <si>
     <t>445 Boulevard de l’Université, Rouyn-Noranda, QC J9X 5E4</t>
   </si>
   <si>
     <t>283 Boulevard Alexandre-Taché, Gatineau, QC J9A 1L8</t>
   </si>
   <si>
-    <t>−75.7408</t>
-  </si>
-  <si>
     <t>555 Boulevard de l’Université, Chicoutimi, QC G7H 2B1</t>
   </si>
   <si>
-    <t>−71.0597</t>
-  </si>
-  <si>
     <t>Université du Québec à Montréal (UQAM)</t>
   </si>
   <si>
     <t>405 Rue Sainte-Catherine E, Montréal, QC H2L 2C4</t>
   </si>
   <si>
-    <t>−73.5618</t>
-  </si>
-  <si>
     <t>300 Allée des Ursulines, Rimouski, QC G5L 3A1</t>
   </si>
   <si>
-    <t>−68.5235</t>
-  </si>
-  <si>
     <t>3351 Boulevard des Forges, Trois-Rivières, QC G8Z 4M3</t>
   </si>
   <si>
-    <t>−72.5786</t>
-  </si>
-  <si>
     <t>250 W Pender St, Vancouver, BC V6B 1S9</t>
   </si>
   <si>
-    <t>−123.1090</t>
-  </si>
-  <si>
     <t>333 Terminal Ave #600, Vancouver, BC V6A 4C1</t>
   </si>
   <si>
     <t>900 Fifth St, Nanaimo, BC V9R 5S5</t>
   </si>
   <si>
-    <t>−123.9653</t>
-  </si>
-  <si>
     <t>821 Avenue Sainte-Croix, Montréal, QC H4L 3X9</t>
   </si>
   <si>
     <t>403 33rd St W, Saskatoon, SK S7L 0V5</t>
   </si>
   <si>
-    <t>−106.6813</t>
-  </si>
-  <si>
     <t>1151 Richmond St, London, ON N6A 3K7</t>
   </si>
   <si>
-    <t>−81.2737</t>
-  </si>
-  <si>
     <t>75 University Ave W, Waterloo, ON N2L 3C5</t>
   </si>
   <si>
-    <t>−80.5306</t>
-  </si>
-  <si>
     <t>480 Madison St, Winnipeg, MB R3J 1J1</t>
   </si>
   <si>
-    <t>−97.2043</t>
-  </si>
-  <si>
     <t>4700 Keele St, Toronto, ON M3J 1P3</t>
   </si>
   <si>
-    <t>−79.5019</t>
-  </si>
-  <si>
     <t>100 Woodside Ln, Fredericton, NB E3C 2R9</t>
   </si>
   <si>
-    <t>−66.6708</t>
-  </si>
-  <si>
     <t>Dawson City, YT</t>
   </si>
   <si>
     <t>994 3rd Ave, Dawson City, YT Y0B 1G0</t>
   </si>
   <si>
-    <t>−139.4300</t>
-  </si>
-  <si>
     <t>500 College Dr, Whitehorse, YT Y1A 5K4</t>
   </si>
   <si>
-    <t>−135.0780</t>
-  </si>
-  <si>
     <t>École de musique Vincent d’Indy</t>
   </si>
   <si>
     <t>628 Chemin de la Côte-Sainte-Catherine, Montréal, QC H2V 2C5</t>
   </si>
   <si>
-    <t>−73.6078</t>
-  </si>
-  <si>
     <t>École de technologie supérieure (ÉTS)</t>
   </si>
   <si>
     <t>1100 Notre-Dame St W, Montréal, QC H3C 1K3</t>
   </si>
   <si>
-    <t>−73.5633</t>
-  </si>
-  <si>
     <t>École nationale d’administration publique (ENAP)</t>
   </si>
   <si>
@@ -3038,9 +2207,6 @@
   </si>
   <si>
     <t>555 Boulevard Charest E, Québec, QC G1K 9E5</t>
-  </si>
-  <si>
-    <t>−71.2145</t>
   </si>
   <si>
     <t>200 Avenue de la Cathédrale, Winnipeg, MB R2H 0H7</t>
@@ -3102,12 +2268,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3414,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="F293" sqref="F293"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3438,7 +2603,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -3450,705 +2615,705 @@
       <c r="D2">
         <v>51.050899999999999</v>
       </c>
-      <c r="E2" t="s">
-        <v>336</v>
+      <c r="E2">
+        <v>-113.9811</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3">
         <v>45.088999999999999</v>
       </c>
-      <c r="E3" t="s">
-        <v>338</v>
+      <c r="E3">
+        <v>-64.366299999999995</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D4">
         <v>49.285600000000002</v>
       </c>
-      <c r="E4" t="s">
-        <v>340</v>
+      <c r="E4">
+        <v>-123.12009999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D5">
         <v>51.063200000000002</v>
       </c>
-      <c r="E5" t="s">
-        <v>342</v>
+      <c r="E5">
+        <v>-114.0929</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D6">
         <v>49.230499999999999</v>
       </c>
-      <c r="E6" t="s">
-        <v>345</v>
+      <c r="E6">
+        <v>-122.9926</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D7">
         <v>46.512999999999998</v>
       </c>
-      <c r="E7" t="s">
-        <v>347</v>
+      <c r="E7">
+        <v>-84.308999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D8">
         <v>45.348300000000002</v>
       </c>
-      <c r="E8" t="s">
-        <v>349</v>
+      <c r="E8">
+        <v>-75.7577</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D9">
         <v>51.015900000000002</v>
       </c>
-      <c r="E9" t="s">
-        <v>351</v>
+      <c r="E9">
+        <v>-114.1677</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D10">
         <v>49.845300000000002</v>
       </c>
-      <c r="E10" t="s">
-        <v>353</v>
+      <c r="E10">
+        <v>-99.9345</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D11">
         <v>54.7179</v>
       </c>
-      <c r="E11" t="s">
-        <v>355</v>
+      <c r="E11">
+        <v>-113.28530000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D12">
         <v>60.006399999999999</v>
       </c>
-      <c r="E12" t="s">
-        <v>358</v>
+      <c r="E12">
+        <v>-111.88890000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D13">
         <v>51.0869</v>
       </c>
-      <c r="E13" t="s">
-        <v>360</v>
+      <c r="E13">
+        <v>-114.01090000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D14">
         <v>52.751800000000003</v>
       </c>
-      <c r="E14" t="s">
-        <v>363</v>
+      <c r="E14">
+        <v>-106.7058</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>364</v>
+      <c r="A15" t="s">
+        <v>351</v>
       </c>
       <c r="B15" t="s">
         <v>278</v>
       </c>
       <c r="C15" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D15">
         <v>45.366799999999998</v>
       </c>
-      <c r="E15" t="s">
-        <v>366</v>
+      <c r="E15">
+        <v>-71.849599999999995</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D16">
         <v>49.896700000000003</v>
       </c>
-      <c r="E16" t="s">
-        <v>368</v>
+      <c r="E16">
+        <v>-97.148099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>275</v>
       </c>
       <c r="C17" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D17">
         <v>51.045299999999997</v>
       </c>
-      <c r="E17" t="s">
-        <v>370</v>
+      <c r="E17">
+        <v>-114.0561</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>280</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D18">
         <v>49.843899999999998</v>
       </c>
-      <c r="E18" t="s">
-        <v>372</v>
+      <c r="E18">
+        <v>-99.963099999999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D19">
         <v>50.436799999999998</v>
       </c>
-      <c r="E19" t="s">
-        <v>375</v>
+      <c r="E19">
+        <v>-105.81659999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C20" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D20">
         <v>49.253700000000002</v>
       </c>
-      <c r="E20" t="s">
-        <v>377</v>
+      <c r="E20">
+        <v>-123.00360000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>281</v>
       </c>
       <c r="C21" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D21">
         <v>43.118299999999998</v>
       </c>
-      <c r="E21" t="s">
-        <v>379</v>
+      <c r="E21">
+        <v>-79.247200000000007</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>282</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D22">
         <v>52.468400000000003</v>
       </c>
-      <c r="E22" t="s">
-        <v>381</v>
+      <c r="E22">
+        <v>-113.7289</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>290</v>
       </c>
       <c r="C23" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D23">
         <v>49.283200000000001</v>
       </c>
-      <c r="E23" t="s">
-        <v>383</v>
+      <c r="E23">
+        <v>-123.1133</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>323</v>
       </c>
       <c r="C24" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="D24">
         <v>46.529000000000003</v>
       </c>
-      <c r="E24" t="s">
-        <v>385</v>
+      <c r="E24">
+        <v>-80.943399999999997</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>303</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="D25">
         <v>48.451999999999998</v>
       </c>
-      <c r="E25" t="s">
-        <v>387</v>
+      <c r="E25">
+        <v>-123.3164</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>283</v>
       </c>
       <c r="C26" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D26">
         <v>46.123699999999999</v>
       </c>
-      <c r="E26" t="s">
-        <v>389</v>
+      <c r="E26">
+        <v>-60.201300000000003</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>279</v>
       </c>
       <c r="C27" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="D27">
         <v>49.857799999999997</v>
       </c>
-      <c r="E27" t="s">
-        <v>391</v>
+      <c r="E27">
+        <v>-97.246700000000004</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="C28" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="D28">
         <v>46.313499999999998</v>
       </c>
-      <c r="E28" t="s">
-        <v>394</v>
+      <c r="E28">
+        <v>-79.4572</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>283</v>
       </c>
       <c r="C29" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="D29">
         <v>46.084400000000002</v>
       </c>
-      <c r="E29" t="s">
-        <v>396</v>
+      <c r="E29">
+        <v>-60.071899999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
         <v>284</v>
       </c>
       <c r="C30" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="D30">
         <v>49.333199999999998</v>
       </c>
-      <c r="E30" t="s">
-        <v>398</v>
+      <c r="E30">
+        <v>-123.0228</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>285</v>
       </c>
       <c r="C31" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="D31">
         <v>45.386000000000003</v>
       </c>
-      <c r="E31" t="s">
-        <v>400</v>
+      <c r="E31">
+        <v>-75.6952</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="D32">
         <v>52.202599999999997</v>
       </c>
-      <c r="E32" t="s">
-        <v>403</v>
+      <c r="E32">
+        <v>-105.1237</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>298</v>
       </c>
       <c r="C33" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="D33">
         <v>43.784500000000001</v>
       </c>
-      <c r="E33" t="s">
-        <v>405</v>
+      <c r="E33">
+        <v>-79.226100000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>278</v>
       </c>
       <c r="C34" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="D34">
         <v>45.397199999999998</v>
       </c>
-      <c r="E34" t="s">
-        <v>407</v>
+      <c r="E34">
+        <v>-71.885099999999994</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="C35" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="D35">
         <v>54.5184</v>
       </c>
-      <c r="E35" t="s">
-        <v>410</v>
+      <c r="E35">
+        <v>-128.6079</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="C36" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="D36">
         <v>49.877699999999997</v>
       </c>
-      <c r="E36" t="s">
-        <v>413</v>
+      <c r="E36">
+        <v>-106.5485</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>316</v>
       </c>
       <c r="C37" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="D37">
         <v>53.903399999999998</v>
       </c>
-      <c r="E37" t="s">
-        <v>415</v>
+      <c r="E37">
+        <v>-122.78319999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="C38" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="D38">
         <v>48.547600000000003</v>
       </c>
-      <c r="E38" t="s">
-        <v>418</v>
+      <c r="E38">
+        <v>-58.576900000000002</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="C39" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="D39">
         <v>49.519500000000001</v>
       </c>
-      <c r="E39" t="s">
-        <v>421</v>
+      <c r="E39">
+        <v>-115.76439999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="C40" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="D40">
         <v>45.431899999999999</v>
       </c>
-      <c r="E40" t="s">
-        <v>424</v>
+      <c r="E40">
+        <v>-73.676199999999994</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>286</v>
       </c>
       <c r="C41" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="D41">
         <v>45.549700000000001</v>
       </c>
-      <c r="E41" t="s">
-        <v>426</v>
+      <c r="E41">
+        <v>-73.637500000000003</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>286</v>
       </c>
       <c r="C42" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="D42">
         <v>45.5503</v>
       </c>
-      <c r="E42" t="s">
-        <v>428</v>
+      <c r="E42">
+        <v>-73.636300000000006</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>321</v>
       </c>
       <c r="C43" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="D43">
         <v>46.810600000000001</v>
       </c>
-      <c r="E43" t="s">
-        <v>430</v>
+      <c r="E43">
+        <v>-71.215999999999994</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4159,13 +3324,13 @@
         <v>323</v>
       </c>
       <c r="C44" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="D44">
         <v>46.5167</v>
       </c>
-      <c r="E44" t="s">
-        <v>432</v>
+      <c r="E44">
+        <v>-80.942300000000003</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4173,16 +3338,16 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C45" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="D45">
         <v>45.502299999999998</v>
       </c>
-      <c r="E45" t="s">
-        <v>435</v>
+      <c r="E45">
+        <v>-73.5715</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -4190,16 +3355,16 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="C46" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="D46">
         <v>46.7926</v>
       </c>
-      <c r="E46" t="s">
-        <v>438</v>
+      <c r="E46">
+        <v>-71.266599999999997</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -4207,16 +3372,16 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C47" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="D47">
         <v>45.493400000000001</v>
       </c>
-      <c r="E47" t="s">
-        <v>440</v>
+      <c r="E47">
+        <v>-73.858599999999996</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -4224,16 +3389,16 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C48" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="D48">
         <v>45.490699999999997</v>
       </c>
-      <c r="E48" t="s">
-        <v>442</v>
+      <c r="E48">
+        <v>-73.625799999999998</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -4241,16 +3406,16 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C49" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="D49">
         <v>45.503799999999998</v>
       </c>
-      <c r="E49" t="s">
-        <v>444</v>
+      <c r="E49">
+        <v>-73.622399999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4261,13 +3426,13 @@
         <v>328</v>
       </c>
       <c r="C50" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="D50">
         <v>46.341299999999997</v>
       </c>
-      <c r="E50" t="s">
-        <v>446</v>
+      <c r="E50">
+        <v>-72.585300000000004</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -4275,16 +3440,16 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="C51" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="D51">
         <v>45.641300000000001</v>
       </c>
-      <c r="E51" t="s">
-        <v>449</v>
+      <c r="E51">
+        <v>-73.832599999999999</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -4292,16 +3457,16 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C52" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="D52">
         <v>45.575299999999999</v>
       </c>
-      <c r="E52" t="s">
-        <v>452</v>
+      <c r="E52">
+        <v>-73.718900000000005</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -4309,33 +3474,33 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="C53" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="D53">
         <v>46.799199999999999</v>
       </c>
-      <c r="E53" t="s">
-        <v>454</v>
+      <c r="E53">
+        <v>-71.240799999999993</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="C54" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="D54">
         <v>46.813899999999997</v>
       </c>
-      <c r="E54" t="s">
-        <v>457</v>
+      <c r="E54">
+        <v>-71.211600000000004</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -4343,16 +3508,16 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="C55" t="s">
-        <v>459</v>
+        <v>406</v>
       </c>
       <c r="D55">
         <v>46.566299999999998</v>
       </c>
-      <c r="E55" t="s">
-        <v>460</v>
+      <c r="E55">
+        <v>-72.742699999999999</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -4360,16 +3525,16 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
       <c r="C56" t="s">
-        <v>462</v>
+        <v>408</v>
       </c>
       <c r="D56">
         <v>45.514699999999998</v>
       </c>
-      <c r="E56" t="s">
-        <v>463</v>
+      <c r="E56">
+        <v>-73.617599999999996</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -4377,33 +3542,33 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="C57" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="D57">
         <v>46.097700000000003</v>
       </c>
-      <c r="E57" t="s">
-        <v>466</v>
+      <c r="E57">
+        <v>-64.732500000000002</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="C58" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="D58">
         <v>48.554699999999997</v>
       </c>
-      <c r="E58" t="s">
-        <v>470</v>
+      <c r="E58">
+        <v>-71.661900000000003</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -4411,16 +3576,16 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C59" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="D59">
         <v>45.536499999999997</v>
       </c>
-      <c r="E59" t="s">
-        <v>472</v>
+      <c r="E59">
+        <v>-73.6751</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -4428,16 +3593,16 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C60" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
       <c r="D60">
         <v>45.554699999999997</v>
       </c>
-      <c r="E60" t="s">
-        <v>474</v>
+      <c r="E60">
+        <v>-73.554900000000004</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -4445,16 +3610,16 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C61" t="s">
-        <v>475</v>
+        <v>416</v>
       </c>
       <c r="D61">
         <v>45.559600000000003</v>
       </c>
-      <c r="E61" t="s">
-        <v>476</v>
+      <c r="E61">
+        <v>-73.569299999999998</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -4462,33 +3627,33 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="C62" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="D62">
         <v>45.257199999999997</v>
       </c>
-      <c r="E62" t="s">
-        <v>479</v>
+      <c r="E62">
+        <v>-74.129199999999997</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="C63" t="s">
-        <v>482</v>
+        <v>421</v>
       </c>
       <c r="D63">
         <v>46.448900000000002</v>
       </c>
-      <c r="E63" t="s">
-        <v>483</v>
+      <c r="E63">
+        <v>-63.704300000000003</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -4496,16 +3661,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>484</v>
+        <v>422</v>
       </c>
       <c r="C64" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="D64">
         <v>62.453899999999997</v>
       </c>
-      <c r="E64" t="s">
-        <v>486</v>
+      <c r="E64">
+        <v>-114.37179999999999</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -4516,13 +3681,13 @@
         <v>290</v>
       </c>
       <c r="C65" t="s">
-        <v>487</v>
+        <v>424</v>
       </c>
       <c r="D65">
         <v>49.273400000000002</v>
       </c>
-      <c r="E65" t="s">
-        <v>488</v>
+      <c r="E65">
+        <v>-123.0954</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -4530,16 +3695,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C66" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="D66">
         <v>45.497199999999999</v>
       </c>
-      <c r="E66" t="s">
-        <v>490</v>
+      <c r="E66">
+        <v>-73.578800000000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -4550,13 +3715,13 @@
         <v>287</v>
       </c>
       <c r="C67" t="s">
-        <v>491</v>
+        <v>426</v>
       </c>
       <c r="D67">
         <v>53.570799999999998</v>
       </c>
-      <c r="E67" t="s">
-        <v>492</v>
+      <c r="E67">
+        <v>-113.4175</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -4564,16 +3729,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
       <c r="C68" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
       <c r="D68">
         <v>43.389899999999997</v>
       </c>
-      <c r="E68" t="s">
-        <v>495</v>
+      <c r="E68">
+        <v>-80.403300000000002</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -4581,16 +3746,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
       <c r="C69" t="s">
-        <v>497</v>
+        <v>430</v>
       </c>
       <c r="D69">
         <v>48.380899999999997</v>
       </c>
-      <c r="E69" t="s">
-        <v>498</v>
+      <c r="E69">
+        <v>-89.281400000000005</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -4601,13 +3766,13 @@
         <v>290</v>
       </c>
       <c r="C70" t="s">
-        <v>499</v>
+        <v>431</v>
       </c>
       <c r="D70">
         <v>49.284799999999997</v>
       </c>
-      <c r="E70" t="s">
-        <v>500</v>
+      <c r="E70">
+        <v>-123.1123</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -4618,13 +3783,13 @@
         <v>288</v>
       </c>
       <c r="C71" t="s">
-        <v>501</v>
+        <v>432</v>
       </c>
       <c r="D71">
         <v>46.110900000000001</v>
       </c>
-      <c r="E71" t="s">
-        <v>502</v>
+      <c r="E71">
+        <v>-64.821200000000005</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -4632,16 +3797,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C72" t="s">
-        <v>503</v>
+        <v>433</v>
       </c>
       <c r="D72">
         <v>49.2605</v>
       </c>
-      <c r="E72" t="s">
-        <v>504</v>
+      <c r="E72">
+        <v>-123.02379999999999</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -4649,16 +3814,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>505</v>
+        <v>434</v>
       </c>
       <c r="C73" t="s">
-        <v>506</v>
+        <v>435</v>
       </c>
       <c r="D73">
         <v>52.860500000000002</v>
       </c>
-      <c r="E73" t="s">
-        <v>507</v>
+      <c r="E73">
+        <v>-104.6169</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -4666,16 +3831,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C74" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
       <c r="D74">
         <v>45.431199999999997</v>
       </c>
-      <c r="E74" t="s">
-        <v>509</v>
+      <c r="E74">
+        <v>-73.616500000000002</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -4683,16 +3848,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="C75" t="s">
-        <v>511</v>
+        <v>438</v>
       </c>
       <c r="D75">
         <v>46.118600000000001</v>
       </c>
-      <c r="E75" t="s">
-        <v>512</v>
+      <c r="E75">
+        <v>-70.6678</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4700,16 +3865,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="C76" t="s">
-        <v>513</v>
+        <v>439</v>
       </c>
       <c r="D76">
         <v>46.830199999999998</v>
       </c>
-      <c r="E76" t="s">
-        <v>514</v>
+      <c r="E76">
+        <v>-71.222499999999997</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -4717,16 +3882,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C77" t="s">
-        <v>515</v>
+        <v>440</v>
       </c>
       <c r="D77">
         <v>45.592500000000001</v>
       </c>
-      <c r="E77" t="s">
-        <v>516</v>
+      <c r="E77">
+        <v>-73.603899999999996</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4734,16 +3899,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="C78" t="s">
-        <v>518</v>
+        <v>442</v>
       </c>
       <c r="D78">
         <v>49.224400000000003</v>
       </c>
-      <c r="E78" t="s">
-        <v>519</v>
+      <c r="E78">
+        <v>-68.149799999999999</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -4751,16 +3916,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>520</v>
+        <v>443</v>
       </c>
       <c r="C79" t="s">
-        <v>521</v>
+        <v>444</v>
       </c>
       <c r="D79">
         <v>48.428600000000003</v>
       </c>
-      <c r="E79" t="s">
-        <v>522</v>
+      <c r="E79">
+        <v>-71.062799999999996</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -4768,16 +3933,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>523</v>
+        <v>445</v>
       </c>
       <c r="C80" t="s">
-        <v>524</v>
+        <v>446</v>
       </c>
       <c r="D80">
         <v>45.8825</v>
       </c>
-      <c r="E80" t="s">
-        <v>525</v>
+      <c r="E80">
+        <v>-72.4803</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4785,16 +3950,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>526</v>
+        <v>447</v>
       </c>
       <c r="C81" t="s">
-        <v>527</v>
+        <v>448</v>
       </c>
       <c r="D81">
         <v>45.403100000000002</v>
       </c>
-      <c r="E81" t="s">
-        <v>528</v>
+      <c r="E81">
+        <v>-72.735699999999994</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -4802,16 +3967,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>529</v>
+        <v>449</v>
       </c>
       <c r="C82" t="s">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="D82">
         <v>48.417499999999997</v>
       </c>
-      <c r="E82" t="s">
-        <v>531</v>
+      <c r="E82">
+        <v>-71.248099999999994</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4819,16 +3984,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>532</v>
+        <v>451</v>
       </c>
       <c r="C83" t="s">
-        <v>533</v>
+        <v>452</v>
       </c>
       <c r="D83">
         <v>47.365299999999998</v>
       </c>
-      <c r="E83" t="s">
-        <v>534</v>
+      <c r="E83">
+        <v>-70.039299999999997</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4836,16 +4001,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>535</v>
+        <v>453</v>
       </c>
       <c r="C84" t="s">
-        <v>536</v>
+        <v>454</v>
       </c>
       <c r="D84">
         <v>46.793700000000001</v>
       </c>
-      <c r="E84" t="s">
-        <v>537</v>
+      <c r="E84">
+        <v>-71.182500000000005</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4853,16 +4018,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>538</v>
+        <v>455</v>
       </c>
       <c r="C85" t="s">
-        <v>539</v>
+        <v>456</v>
       </c>
       <c r="D85">
         <v>48.848599999999998</v>
       </c>
-      <c r="E85" t="s">
-        <v>540</v>
+      <c r="E85">
+        <v>-67.520700000000005</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4870,16 +4035,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>541</v>
+        <v>457</v>
       </c>
       <c r="C86" t="s">
-        <v>542</v>
+        <v>458</v>
       </c>
       <c r="D86">
         <v>48.460799999999999</v>
       </c>
-      <c r="E86" t="s">
-        <v>543</v>
+      <c r="E86">
+        <v>-68.524600000000007</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4887,16 +4052,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>544</v>
+        <v>459</v>
       </c>
       <c r="C87" t="s">
-        <v>545</v>
+        <v>460</v>
       </c>
       <c r="D87">
         <v>47.837400000000002</v>
       </c>
-      <c r="E87" t="s">
-        <v>546</v>
+      <c r="E87">
+        <v>-69.540700000000001</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4904,16 +4069,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>547</v>
+        <v>461</v>
       </c>
       <c r="C88" t="s">
-        <v>548</v>
+        <v>462</v>
       </c>
       <c r="D88">
         <v>48.648899999999998</v>
       </c>
-      <c r="E88" t="s">
-        <v>549</v>
+      <c r="E88">
+        <v>-72.457400000000007</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4921,16 +4086,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>550</v>
+        <v>463</v>
       </c>
       <c r="C89" t="s">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="D89">
         <v>45.633000000000003</v>
       </c>
-      <c r="E89" t="s">
-        <v>552</v>
+      <c r="E89">
+        <v>-72.948599999999999</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4938,16 +4103,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>553</v>
+        <v>465</v>
       </c>
       <c r="C90" t="s">
-        <v>554</v>
+        <v>466</v>
       </c>
       <c r="D90">
         <v>45.3292</v>
       </c>
-      <c r="E90" t="s">
-        <v>555</v>
+      <c r="E90">
+        <v>-73.282200000000003</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4955,16 +4120,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="C91" t="s">
-        <v>557</v>
+        <v>468</v>
       </c>
       <c r="D91">
         <v>45.780299999999997</v>
       </c>
-      <c r="E91" t="s">
-        <v>558</v>
+      <c r="E91">
+        <v>-74.005200000000002</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4972,16 +4137,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C92" t="s">
-        <v>559</v>
+        <v>469</v>
       </c>
       <c r="D92">
         <v>45.520699999999998</v>
       </c>
-      <c r="E92" t="s">
-        <v>560</v>
+      <c r="E92">
+        <v>-73.676699999999997</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4989,16 +4154,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="C93" t="s">
-        <v>561</v>
+        <v>470</v>
       </c>
       <c r="D93">
         <v>46.777200000000001</v>
       </c>
-      <c r="E93" t="s">
-        <v>562</v>
+      <c r="E93">
+        <v>-71.283299999999997</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -5006,16 +4171,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>563</v>
+        <v>471</v>
       </c>
       <c r="C94" t="s">
-        <v>564</v>
+        <v>472</v>
       </c>
       <c r="D94">
         <v>50.221200000000003</v>
       </c>
-      <c r="E94" t="s">
-        <v>565</v>
+      <c r="E94">
+        <v>-66.378100000000003</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -5026,13 +4191,13 @@
         <v>278</v>
       </c>
       <c r="C95" t="s">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="D95">
         <v>45.403199999999998</v>
       </c>
-      <c r="E95" t="s">
-        <v>567</v>
+      <c r="E95">
+        <v>-71.882400000000004</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -5040,16 +4205,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>568</v>
+        <v>474</v>
       </c>
       <c r="C96" t="s">
-        <v>569</v>
+        <v>475</v>
       </c>
       <c r="D96">
         <v>46.019599999999997</v>
       </c>
-      <c r="E96" t="s">
-        <v>570</v>
+      <c r="E96">
+        <v>-73.115099999999998</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -5057,16 +4222,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
       <c r="C97" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
       <c r="D97">
         <v>46.098399999999998</v>
       </c>
-      <c r="E97" t="s">
-        <v>573</v>
+      <c r="E97">
+        <v>-71.305800000000005</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -5077,13 +4242,13 @@
         <v>328</v>
       </c>
       <c r="C98" t="s">
-        <v>574</v>
+        <v>478</v>
       </c>
       <c r="D98">
         <v>46.353099999999998</v>
       </c>
-      <c r="E98" t="s">
-        <v>575</v>
+      <c r="E98">
+        <v>-72.585400000000007</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -5091,50 +4256,50 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>576</v>
+        <v>479</v>
       </c>
       <c r="C99" t="s">
-        <v>577</v>
+        <v>480</v>
       </c>
       <c r="D99">
         <v>46.056699999999999</v>
       </c>
-      <c r="E99" t="s">
-        <v>578</v>
+      <c r="E99">
+        <v>-71.960400000000007</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>579</v>
+        <v>481</v>
       </c>
       <c r="B100" t="s">
-        <v>580</v>
+        <v>482</v>
       </c>
       <c r="C100" t="s">
-        <v>581</v>
+        <v>483</v>
       </c>
       <c r="D100">
         <v>48.232399999999998</v>
       </c>
-      <c r="E100" t="s">
-        <v>582</v>
+      <c r="E100">
+        <v>-79.0184</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>583</v>
+        <v>484</v>
       </c>
       <c r="B101" t="s">
-        <v>584</v>
+        <v>485</v>
       </c>
       <c r="C101" t="s">
-        <v>585</v>
+        <v>486</v>
       </c>
       <c r="D101">
         <v>45.475900000000003</v>
       </c>
-      <c r="E101" t="s">
-        <v>586</v>
+      <c r="E101">
+        <v>-75.735200000000006</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -5142,16 +4307,16 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>587</v>
+        <v>487</v>
       </c>
       <c r="C102" t="s">
-        <v>588</v>
+        <v>488</v>
       </c>
       <c r="D102">
         <v>48.831800000000001</v>
       </c>
-      <c r="E102" t="s">
-        <v>589</v>
+      <c r="E102">
+        <v>-64.482600000000005</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -5159,16 +4324,16 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C103" t="s">
-        <v>590</v>
+        <v>489</v>
       </c>
       <c r="D103">
         <v>45.515000000000001</v>
       </c>
-      <c r="E103" t="s">
-        <v>591</v>
+      <c r="E103">
+        <v>-73.561700000000002</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -5176,16 +4341,16 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>592</v>
+        <v>490</v>
       </c>
       <c r="C104" t="s">
-        <v>593</v>
+        <v>491</v>
       </c>
       <c r="D104">
         <v>46.018300000000004</v>
       </c>
-      <c r="E104" t="s">
-        <v>594</v>
+      <c r="E104">
+        <v>-73.445099999999996</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -5193,16 +4358,16 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>595</v>
+        <v>492</v>
       </c>
       <c r="C105" t="s">
-        <v>596</v>
+        <v>493</v>
       </c>
       <c r="D105">
         <v>45.526600000000002</v>
       </c>
-      <c r="E105" t="s">
-        <v>597</v>
+      <c r="E105">
+        <v>-73.489599999999996</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -5213,13 +4378,13 @@
         <v>289</v>
       </c>
       <c r="C106" t="s">
-        <v>598</v>
+        <v>494</v>
       </c>
       <c r="D106">
         <v>44.636600000000001</v>
       </c>
-      <c r="E106" t="s">
-        <v>599</v>
+      <c r="E106">
+        <v>-63.591799999999999</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -5227,16 +4392,16 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C107" t="s">
-        <v>600</v>
+        <v>495</v>
       </c>
       <c r="D107">
         <v>45.488599999999998</v>
       </c>
-      <c r="E107" t="s">
-        <v>601</v>
+      <c r="E107">
+        <v>-73.586699999999993</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -5244,16 +4409,16 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>602</v>
+        <v>496</v>
       </c>
       <c r="C108" t="s">
-        <v>603</v>
+        <v>497</v>
       </c>
       <c r="D108">
         <v>49.204500000000003</v>
       </c>
-      <c r="E108" t="s">
-        <v>604</v>
+      <c r="E108">
+        <v>-122.9127</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -5264,13 +4429,13 @@
         <v>299</v>
       </c>
       <c r="C109" t="s">
-        <v>605</v>
+        <v>498</v>
       </c>
       <c r="D109">
         <v>43.944400000000002</v>
       </c>
-      <c r="E109" t="s">
-        <v>606</v>
+      <c r="E109">
+        <v>-78.896699999999996</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -5281,13 +4446,13 @@
         <v>290</v>
       </c>
       <c r="C110" t="s">
-        <v>607</v>
+        <v>499</v>
       </c>
       <c r="D110">
         <v>49.284500000000001</v>
       </c>
-      <c r="E110" t="s">
-        <v>608</v>
+      <c r="E110">
+        <v>-123.1249</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -5298,13 +4463,13 @@
         <v>290</v>
       </c>
       <c r="C111" t="s">
-        <v>609</v>
+        <v>500</v>
       </c>
       <c r="D111">
         <v>49.2699</v>
       </c>
-      <c r="E111" t="s">
-        <v>610</v>
+      <c r="E111">
+        <v>-123.0872</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -5312,16 +4477,16 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>611</v>
+        <v>501</v>
       </c>
       <c r="C112" t="s">
-        <v>612</v>
+        <v>502</v>
       </c>
       <c r="D112">
         <v>51.150100000000002</v>
       </c>
-      <c r="E112" t="s">
-        <v>613</v>
+      <c r="E112">
+        <v>-108.7544</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -5332,13 +4497,13 @@
         <v>290</v>
       </c>
       <c r="C113" t="s">
-        <v>614</v>
+        <v>503</v>
       </c>
       <c r="D113">
         <v>49.273699999999998</v>
       </c>
-      <c r="E113" t="s">
-        <v>615</v>
+      <c r="E113">
+        <v>-123.0975</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -5349,13 +4514,13 @@
         <v>330</v>
       </c>
       <c r="C114" t="s">
-        <v>616</v>
+        <v>504</v>
       </c>
       <c r="D114">
         <v>43.011800000000001</v>
       </c>
-      <c r="E114" t="s">
-        <v>617</v>
+      <c r="E114">
+        <v>-81.199799999999996</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -5363,16 +4528,16 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>618</v>
+        <v>505</v>
       </c>
       <c r="C115" t="s">
-        <v>619</v>
+        <v>506</v>
       </c>
       <c r="D115">
         <v>49.8857</v>
       </c>
-      <c r="E115" t="s">
-        <v>620</v>
+      <c r="E115">
+        <v>-119.492</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -5380,16 +4545,16 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>621</v>
+        <v>507</v>
       </c>
       <c r="C116" t="s">
-        <v>622</v>
+        <v>508</v>
       </c>
       <c r="D116">
         <v>44.281100000000002</v>
       </c>
-      <c r="E116" t="s">
-        <v>623</v>
+      <c r="E116">
+        <v>-78.367500000000007</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -5397,16 +4562,16 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>624</v>
+        <v>509</v>
       </c>
       <c r="C117" t="s">
-        <v>625</v>
+        <v>510</v>
       </c>
       <c r="D117">
         <v>46.253399999999999</v>
       </c>
-      <c r="E117" t="s">
-        <v>626</v>
+      <c r="E117">
+        <v>-60.627099999999999</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -5417,13 +4582,13 @@
         <v>298</v>
       </c>
       <c r="C118" t="s">
-        <v>627</v>
+        <v>511</v>
       </c>
       <c r="D118">
         <v>43.650100000000002</v>
       </c>
-      <c r="E118" t="s">
-        <v>628</v>
+      <c r="E118">
+        <v>-79.370699999999999</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -5431,16 +4596,16 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>629</v>
+        <v>512</v>
       </c>
       <c r="C119" t="s">
-        <v>630</v>
+        <v>513</v>
       </c>
       <c r="D119">
         <v>44.400100000000002</v>
       </c>
-      <c r="E119" t="s">
-        <v>631</v>
+      <c r="E119">
+        <v>-79.666899999999998</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -5448,16 +4613,16 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>632</v>
+        <v>514</v>
       </c>
       <c r="C120" t="s">
-        <v>633</v>
+        <v>515</v>
       </c>
       <c r="D120">
         <v>50.287100000000002</v>
       </c>
-      <c r="E120" t="s">
-        <v>634</v>
+      <c r="E120">
+        <v>-107.795</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -5465,16 +4630,16 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>584</v>
+        <v>485</v>
       </c>
       <c r="C121" t="s">
-        <v>635</v>
+        <v>516</v>
       </c>
       <c r="D121">
         <v>45.478400000000001</v>
       </c>
-      <c r="E121" t="s">
-        <v>636</v>
+      <c r="E121">
+        <v>-75.734200000000001</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -5482,16 +4647,16 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C122" t="s">
-        <v>637</v>
+        <v>517</v>
       </c>
       <c r="D122">
         <v>45.493899999999996</v>
       </c>
-      <c r="E122" t="s">
-        <v>638</v>
+      <c r="E122">
+        <v>-73.580500000000001</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -5502,13 +4667,13 @@
         <v>317</v>
       </c>
       <c r="C123" t="s">
-        <v>639</v>
+        <v>518</v>
       </c>
       <c r="D123">
         <v>46.236800000000002</v>
       </c>
-      <c r="E123" t="s">
-        <v>640</v>
+      <c r="E123">
+        <v>-63.128900000000002</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -5516,16 +4681,16 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>641</v>
+        <v>519</v>
       </c>
       <c r="C124" t="s">
-        <v>642</v>
+        <v>520</v>
       </c>
       <c r="D124">
         <v>52.1374</v>
       </c>
-      <c r="E124" t="s">
-        <v>643</v>
+      <c r="E124">
+        <v>-106.6212</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -5536,13 +4701,13 @@
         <v>298</v>
       </c>
       <c r="C125" t="s">
-        <v>644</v>
+        <v>521</v>
       </c>
       <c r="D125">
         <v>43.729300000000002</v>
       </c>
-      <c r="E125" t="s">
-        <v>645</v>
+      <c r="E125">
+        <v>-79.6066</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -5550,16 +4715,16 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C126" t="s">
-        <v>646</v>
+        <v>522</v>
       </c>
       <c r="D126">
         <v>45.5503</v>
       </c>
-      <c r="E126" t="s">
-        <v>428</v>
+      <c r="E126">
+        <v>-73.636300000000006</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -5570,13 +4735,13 @@
         <v>291</v>
       </c>
       <c r="C127" t="s">
-        <v>647</v>
+        <v>523</v>
       </c>
       <c r="D127">
         <v>46.8123</v>
       </c>
-      <c r="E127" t="s">
-        <v>648</v>
+      <c r="E127">
+        <v>-71.219099999999997</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -5584,16 +4749,16 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>649</v>
+        <v>524</v>
       </c>
       <c r="C128" t="s">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="D128">
         <v>45.405500000000004</v>
       </c>
-      <c r="E128" t="s">
-        <v>651</v>
+      <c r="E128">
+        <v>-73.944199999999995</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -5601,16 +4766,16 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>652</v>
+        <v>526</v>
       </c>
       <c r="C129" t="s">
-        <v>653</v>
+        <v>527</v>
       </c>
       <c r="D129">
         <v>56.726599999999998</v>
       </c>
-      <c r="E129" t="s">
-        <v>654</v>
+      <c r="E129">
+        <v>-111.3805</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -5621,13 +4786,13 @@
         <v>292</v>
       </c>
       <c r="C130" t="s">
-        <v>655</v>
+        <v>528</v>
       </c>
       <c r="D130">
         <v>45.718200000000003</v>
       </c>
-      <c r="E130" t="s">
-        <v>656</v>
+      <c r="E130">
+        <v>-65.511799999999994</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -5638,13 +4803,13 @@
         <v>293</v>
       </c>
       <c r="C131" t="s">
-        <v>657</v>
+        <v>529</v>
       </c>
       <c r="D131">
         <v>49.1325</v>
       </c>
-      <c r="E131" t="s">
-        <v>658</v>
+      <c r="E131">
+        <v>-122.8759</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -5655,13 +4820,13 @@
         <v>285</v>
       </c>
       <c r="C132" t="s">
-        <v>659</v>
+        <v>530</v>
       </c>
       <c r="D132">
         <v>45.437800000000003</v>
       </c>
-      <c r="E132" t="s">
-        <v>660</v>
+      <c r="E132">
+        <v>-75.632400000000004</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -5669,16 +4834,16 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C133" t="s">
-        <v>661</v>
+        <v>531</v>
       </c>
       <c r="D133">
         <v>45.493099999999998</v>
       </c>
-      <c r="E133" t="s">
-        <v>662</v>
+      <c r="E133">
+        <v>-73.582400000000007</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -5689,13 +4854,13 @@
         <v>294</v>
       </c>
       <c r="C134" t="s">
-        <v>663</v>
+        <v>532</v>
       </c>
       <c r="D134">
         <v>48.422499999999999</v>
       </c>
-      <c r="E134" t="s">
-        <v>664</v>
+      <c r="E134">
+        <v>-89.261899999999997</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -5703,16 +4868,16 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>665</v>
+        <v>533</v>
       </c>
       <c r="C135" t="s">
-        <v>666</v>
+        <v>534</v>
       </c>
       <c r="D135">
         <v>53.3598</v>
       </c>
-      <c r="E135" t="s">
-        <v>667</v>
+      <c r="E135">
+        <v>-110.8582</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -5720,16 +4885,16 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>668</v>
+        <v>535</v>
       </c>
       <c r="C136" t="s">
-        <v>669</v>
+        <v>536</v>
       </c>
       <c r="D136">
         <v>53.274299999999997</v>
       </c>
-      <c r="E136" t="s">
-        <v>670</v>
+      <c r="E136">
+        <v>-110.0171</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -5737,16 +4902,16 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>671</v>
+        <v>537</v>
       </c>
       <c r="C137" t="s">
-        <v>672</v>
+        <v>538</v>
       </c>
       <c r="D137">
         <v>42.984400000000001</v>
       </c>
-      <c r="E137" t="s">
-        <v>673</v>
+      <c r="E137">
+        <v>-82.353300000000004</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -5757,13 +4922,13 @@
         <v>290</v>
       </c>
       <c r="C138" t="s">
-        <v>674</v>
+        <v>539</v>
       </c>
       <c r="D138">
         <v>49.224800000000002</v>
       </c>
-      <c r="E138" t="s">
-        <v>675</v>
+      <c r="E138">
+        <v>-123.1061</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -5774,30 +4939,30 @@
         <v>323</v>
       </c>
       <c r="C139" t="s">
-        <v>676</v>
+        <v>540</v>
       </c>
       <c r="D139">
         <v>46.474899999999998</v>
       </c>
-      <c r="E139" t="s">
-        <v>677</v>
+      <c r="E139">
+        <v>-80.972800000000007</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>678</v>
+        <v>541</v>
       </c>
       <c r="B140" t="s">
-        <v>679</v>
+        <v>542</v>
       </c>
       <c r="C140" t="s">
-        <v>680</v>
+        <v>543</v>
       </c>
       <c r="D140">
         <v>49.661299999999997</v>
       </c>
-      <c r="E140" t="s">
-        <v>681</v>
+      <c r="E140">
+        <v>-112.8355</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -5805,16 +4970,16 @@
         <v>136</v>
       </c>
       <c r="B141" t="s">
-        <v>682</v>
+        <v>544</v>
       </c>
       <c r="C141" t="s">
-        <v>683</v>
+        <v>545</v>
       </c>
       <c r="D141">
         <v>44.174500000000002</v>
       </c>
-      <c r="E141" t="s">
-        <v>684</v>
+      <c r="E141">
+        <v>-77.406700000000001</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -5822,16 +4987,16 @@
         <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C142" t="s">
-        <v>685</v>
+        <v>546</v>
       </c>
       <c r="D142">
         <v>45.5182</v>
       </c>
-      <c r="E142" t="s">
-        <v>686</v>
+      <c r="E142">
+        <v>-73.671999999999997</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -5842,13 +5007,13 @@
         <v>287</v>
       </c>
       <c r="C143" t="s">
-        <v>687</v>
+        <v>547</v>
       </c>
       <c r="D143">
         <v>53.476599999999998</v>
       </c>
-      <c r="E143" t="s">
-        <v>688</v>
+      <c r="E143">
+        <v>-113.4746</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -5859,13 +5024,13 @@
         <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>689</v>
+        <v>548</v>
       </c>
       <c r="D144">
         <v>53.546500000000002</v>
       </c>
-      <c r="E144" t="s">
-        <v>690</v>
+      <c r="E144">
+        <v>-113.5048</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -5876,13 +5041,13 @@
         <v>279</v>
       </c>
       <c r="C145" t="s">
-        <v>691</v>
+        <v>549</v>
       </c>
       <c r="D145">
         <v>49.819899999999997</v>
       </c>
-      <c r="E145" t="s">
-        <v>692</v>
+      <c r="E145">
+        <v>-97.183400000000006</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -5890,16 +5055,16 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C146" t="s">
-        <v>693</v>
+        <v>550</v>
       </c>
       <c r="D146">
         <v>45.482500000000002</v>
       </c>
-      <c r="E146" t="s">
-        <v>694</v>
+      <c r="E146">
+        <v>-73.609800000000007</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -5910,13 +5075,13 @@
         <v>307</v>
       </c>
       <c r="C147" t="s">
-        <v>695</v>
+        <v>551</v>
       </c>
       <c r="D147">
         <v>45.930700000000002</v>
       </c>
-      <c r="E147" t="s">
-        <v>696</v>
+      <c r="E147">
+        <v>-66.656400000000005</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -5924,16 +5089,16 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>697</v>
+        <v>552</v>
       </c>
       <c r="C148" t="s">
-        <v>698</v>
+        <v>553</v>
       </c>
       <c r="D148">
         <v>45.506900000000002</v>
       </c>
-      <c r="E148" t="s">
-        <v>699</v>
+      <c r="E148">
+        <v>-73.579099999999997</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -5944,13 +5109,13 @@
         <v>288</v>
       </c>
       <c r="C149" t="s">
-        <v>700</v>
+        <v>554</v>
       </c>
       <c r="D149">
         <v>46.086100000000002</v>
       </c>
-      <c r="E149" t="s">
-        <v>701</v>
+      <c r="E149">
+        <v>-64.777600000000007</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -5961,13 +5126,13 @@
         <v>295</v>
       </c>
       <c r="C150" t="s">
-        <v>702</v>
+        <v>555</v>
       </c>
       <c r="D150">
         <v>43.2639</v>
       </c>
-      <c r="E150" t="s">
-        <v>703</v>
+      <c r="E150">
+        <v>-79.918000000000006</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -5975,16 +5140,16 @@
         <v>146</v>
       </c>
       <c r="B151" t="s">
-        <v>704</v>
+        <v>556</v>
       </c>
       <c r="C151" t="s">
-        <v>705</v>
+        <v>557</v>
       </c>
       <c r="D151">
         <v>50.010800000000003</v>
       </c>
-      <c r="E151" t="s">
-        <v>706</v>
+      <c r="E151">
+        <v>-110.6626</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -5992,16 +5157,16 @@
         <v>147</v>
       </c>
       <c r="B152" t="s">
-        <v>707</v>
+        <v>558</v>
       </c>
       <c r="C152" t="s">
-        <v>708</v>
+        <v>559</v>
       </c>
       <c r="D152">
         <v>47.573599999999999</v>
       </c>
-      <c r="E152" t="s">
-        <v>709</v>
+      <c r="E152">
+        <v>-52.734299999999998</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -6012,13 +5177,13 @@
         <v>279</v>
       </c>
       <c r="C153" t="s">
-        <v>710</v>
+        <v>560</v>
       </c>
       <c r="D153">
         <v>49.8919</v>
       </c>
-      <c r="E153" t="s">
-        <v>711</v>
+      <c r="E153">
+        <v>-97.152799999999999</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -6029,13 +5194,13 @@
         <v>295</v>
       </c>
       <c r="C154" t="s">
-        <v>712</v>
+        <v>561</v>
       </c>
       <c r="D154">
         <v>43.238</v>
       </c>
-      <c r="E154" t="s">
-        <v>713</v>
+      <c r="E154">
+        <v>-79.888300000000001</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -6046,13 +5211,13 @@
         <v>296</v>
       </c>
       <c r="C155" t="s">
-        <v>714</v>
+        <v>562</v>
       </c>
       <c r="D155">
         <v>45.898400000000002</v>
       </c>
-      <c r="E155" t="s">
-        <v>715</v>
+      <c r="E155">
+        <v>-64.368300000000005</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -6063,13 +5228,13 @@
         <v>275</v>
       </c>
       <c r="C156" t="s">
-        <v>716</v>
+        <v>563</v>
       </c>
       <c r="D156">
         <v>51.010800000000003</v>
       </c>
-      <c r="E156" t="s">
-        <v>717</v>
+      <c r="E156">
+        <v>-114.1335</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -6080,13 +5245,13 @@
         <v>297</v>
       </c>
       <c r="C157" t="s">
-        <v>718</v>
+        <v>564</v>
       </c>
       <c r="D157">
         <v>44.676099999999998</v>
       </c>
-      <c r="E157" t="s">
-        <v>719</v>
+      <c r="E157">
+        <v>-63.642200000000003</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -6097,13 +5262,13 @@
         <v>297</v>
       </c>
       <c r="C158" t="s">
-        <v>720</v>
+        <v>565</v>
       </c>
       <c r="D158">
         <v>44.648800000000001</v>
       </c>
-      <c r="E158" t="s">
-        <v>721</v>
+      <c r="E158">
+        <v>-63.573700000000002</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -6111,16 +5276,16 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C159" t="s">
-        <v>722</v>
+        <v>566</v>
       </c>
       <c r="D159">
         <v>45.562899999999999</v>
       </c>
-      <c r="E159" t="s">
-        <v>723</v>
+      <c r="E159">
+        <v>-73.606300000000005</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -6131,13 +5296,13 @@
         <v>279</v>
       </c>
       <c r="C160" t="s">
-        <v>724</v>
+        <v>567</v>
       </c>
       <c r="D160">
         <v>49.889499999999998</v>
       </c>
-      <c r="E160" t="s">
-        <v>725</v>
+      <c r="E160">
+        <v>-97.137900000000002</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -6148,13 +5313,13 @@
         <v>307</v>
       </c>
       <c r="C161" t="s">
-        <v>726</v>
+        <v>568</v>
       </c>
       <c r="D161">
         <v>45.9621</v>
       </c>
-      <c r="E161" t="s">
-        <v>727</v>
+      <c r="E161">
+        <v>-66.642700000000005</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -6165,13 +5330,13 @@
         <v>307</v>
       </c>
       <c r="C162" t="s">
-        <v>728</v>
+        <v>569</v>
       </c>
       <c r="D162">
         <v>45.927500000000002</v>
       </c>
-      <c r="E162" t="s">
-        <v>729</v>
+      <c r="E162">
+        <v>-66.667199999999994</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -6179,16 +5344,16 @@
         <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>730</v>
+        <v>570</v>
       </c>
       <c r="C163" t="s">
-        <v>731</v>
+        <v>571</v>
       </c>
       <c r="D163">
         <v>43.000700000000002</v>
       </c>
-      <c r="E163" t="s">
-        <v>732</v>
+      <c r="E163">
+        <v>-79.240200000000002</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -6196,16 +5361,16 @@
         <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>733</v>
+        <v>572</v>
       </c>
       <c r="C164" t="s">
-        <v>734</v>
+        <v>573</v>
       </c>
       <c r="D164">
         <v>53.3596</v>
       </c>
-      <c r="E164" t="s">
-        <v>735</v>
+      <c r="E164">
+        <v>-104.0001</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -6213,16 +5378,16 @@
         <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="C165" t="s">
-        <v>736</v>
+        <v>574</v>
       </c>
       <c r="D165">
         <v>46.311500000000002</v>
       </c>
-      <c r="E165" t="s">
-        <v>737</v>
+      <c r="E165">
+        <v>-79.460800000000006</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -6233,13 +5398,13 @@
         <v>287</v>
       </c>
       <c r="C166" t="s">
-        <v>738</v>
+        <v>575</v>
       </c>
       <c r="D166">
         <v>53.546900000000001</v>
       </c>
-      <c r="E166" t="s">
-        <v>739</v>
+      <c r="E166">
+        <v>-113.50149999999999</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -6247,16 +5412,16 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>740</v>
+        <v>576</v>
       </c>
       <c r="C167" t="s">
-        <v>741</v>
+        <v>577</v>
       </c>
       <c r="D167">
         <v>49.692799999999998</v>
       </c>
-      <c r="E167" t="s">
-        <v>742</v>
+      <c r="E167">
+        <v>-124.99290000000001</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -6264,16 +5429,16 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>743</v>
+        <v>578</v>
       </c>
       <c r="C168" t="s">
-        <v>744</v>
+        <v>579</v>
       </c>
       <c r="D168">
         <v>52.773699999999998</v>
       </c>
-      <c r="E168" t="s">
-        <v>745</v>
+      <c r="E168">
+        <v>-108.3138</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -6284,13 +5449,13 @@
         <v>287</v>
       </c>
       <c r="C169" t="s">
-        <v>746</v>
+        <v>580</v>
       </c>
       <c r="D169">
         <v>53.568100000000001</v>
       </c>
-      <c r="E169" t="s">
-        <v>747</v>
+      <c r="E169">
+        <v>-113.50660000000001</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -6298,16 +5463,16 @@
         <v>165</v>
       </c>
       <c r="B170" t="s">
-        <v>748</v>
+        <v>581</v>
       </c>
       <c r="C170" t="s">
-        <v>749</v>
+        <v>582</v>
       </c>
       <c r="D170">
         <v>48.473100000000002</v>
       </c>
-      <c r="E170" t="s">
-        <v>750</v>
+      <c r="E170">
+        <v>-81.324299999999994</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -6315,16 +5480,16 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
-        <v>751</v>
+        <v>583</v>
       </c>
       <c r="C171" t="s">
-        <v>752</v>
+        <v>584</v>
       </c>
       <c r="D171">
         <v>55.286299999999997</v>
       </c>
-      <c r="E171" t="s">
-        <v>753</v>
+      <c r="E171">
+        <v>-114.7687</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -6332,16 +5497,16 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>754</v>
+        <v>585</v>
       </c>
       <c r="C172" t="s">
-        <v>755</v>
+        <v>586</v>
       </c>
       <c r="D172">
         <v>55.7575</v>
       </c>
-      <c r="E172" t="s">
-        <v>756</v>
+      <c r="E172">
+        <v>-120.23820000000001</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -6349,16 +5514,16 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>757</v>
+        <v>587</v>
       </c>
       <c r="C173" t="s">
-        <v>758</v>
+        <v>588</v>
       </c>
       <c r="D173">
         <v>55.107599999999998</v>
       </c>
-      <c r="E173" t="s">
-        <v>759</v>
+      <c r="E173">
+        <v>-105.2927</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -6366,16 +5531,16 @@
         <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>760</v>
+        <v>589</v>
       </c>
       <c r="C174" t="s">
-        <v>761</v>
+        <v>590</v>
       </c>
       <c r="D174">
         <v>55.172199999999997</v>
       </c>
-      <c r="E174" t="s">
-        <v>762</v>
+      <c r="E174">
+        <v>-118.80029999999999</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -6386,13 +5551,13 @@
         <v>297</v>
       </c>
       <c r="C175" t="s">
-        <v>763</v>
+        <v>591</v>
       </c>
       <c r="D175">
         <v>44.6631</v>
       </c>
-      <c r="E175" t="s">
-        <v>764</v>
+      <c r="E175">
+        <v>-63.597099999999998</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -6400,16 +5565,16 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>765</v>
+        <v>592</v>
       </c>
       <c r="C176" t="s">
-        <v>766</v>
+        <v>593</v>
       </c>
       <c r="D176">
         <v>63.746699999999997</v>
       </c>
-      <c r="E176" t="s">
-        <v>767</v>
+      <c r="E176">
+        <v>-68.516999999999996</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -6417,16 +5582,16 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C177" t="s">
-        <v>768</v>
+        <v>594</v>
       </c>
       <c r="D177">
         <v>45.496099999999998</v>
       </c>
-      <c r="E177" t="s">
-        <v>769</v>
+      <c r="E177">
+        <v>-73.573300000000003</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -6437,13 +5602,13 @@
         <v>298</v>
       </c>
       <c r="C178" t="s">
-        <v>770</v>
+        <v>595</v>
       </c>
       <c r="D178">
         <v>43.653599999999997</v>
       </c>
-      <c r="E178" t="s">
-        <v>771</v>
+      <c r="E178">
+        <v>-79.391499999999994</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -6451,16 +5616,16 @@
         <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>618</v>
+        <v>505</v>
       </c>
       <c r="C179" t="s">
-        <v>772</v>
+        <v>596</v>
       </c>
       <c r="D179">
         <v>49.867100000000001</v>
       </c>
-      <c r="E179" t="s">
-        <v>773</v>
+      <c r="E179">
+        <v>-119.4772</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -6468,16 +5633,16 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>774</v>
+        <v>597</v>
       </c>
       <c r="C180" t="s">
-        <v>775</v>
+        <v>598</v>
       </c>
       <c r="D180">
         <v>51.791699999999999</v>
       </c>
-      <c r="E180" t="s">
-        <v>776</v>
+      <c r="E180">
+        <v>-114.1039</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -6488,13 +5653,13 @@
         <v>299</v>
       </c>
       <c r="C181" t="s">
-        <v>605</v>
+        <v>498</v>
       </c>
       <c r="D181">
         <v>43.944400000000002</v>
       </c>
-      <c r="E181" t="s">
-        <v>606</v>
+      <c r="E181">
+        <v>-78.896699999999996</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -6505,13 +5670,13 @@
         <v>288</v>
       </c>
       <c r="C182" t="s">
-        <v>777</v>
+        <v>599</v>
       </c>
       <c r="D182">
         <v>46.097799999999999</v>
       </c>
-      <c r="E182" t="s">
-        <v>778</v>
+      <c r="E182">
+        <v>-64.776300000000006</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -6522,13 +5687,13 @@
         <v>300</v>
       </c>
       <c r="C183" t="s">
-        <v>779</v>
+        <v>600</v>
       </c>
       <c r="D183">
         <v>49.244700000000002</v>
       </c>
-      <c r="E183" t="s">
-        <v>780</v>
+      <c r="E183">
+        <v>-124.83450000000001</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -6536,16 +5701,16 @@
         <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>781</v>
+        <v>601</v>
       </c>
       <c r="C184" t="s">
-        <v>782</v>
+        <v>602</v>
       </c>
       <c r="D184">
         <v>51.210299999999997</v>
       </c>
-      <c r="E184" t="s">
-        <v>783</v>
+      <c r="E184">
+        <v>-102.4717</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -6553,16 +5718,16 @@
         <v>180</v>
       </c>
       <c r="B185" t="s">
-        <v>784</v>
+        <v>603</v>
       </c>
       <c r="C185" t="s">
-        <v>785</v>
+        <v>604</v>
       </c>
       <c r="D185">
         <v>54.769199999999998</v>
       </c>
-      <c r="E185" t="s">
-        <v>786</v>
+      <c r="E185">
+        <v>-111.96680000000001</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -6570,16 +5735,16 @@
         <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>787</v>
+        <v>605</v>
       </c>
       <c r="C186" t="s">
-        <v>788</v>
+        <v>606</v>
       </c>
       <c r="D186">
         <v>51.707099999999997</v>
       </c>
-      <c r="E186" t="s">
-        <v>789</v>
+      <c r="E186">
+        <v>-113.2694</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -6590,13 +5755,13 @@
         <v>301</v>
       </c>
       <c r="C187" t="s">
-        <v>790</v>
+        <v>607</v>
       </c>
       <c r="D187">
         <v>49.4373</v>
       </c>
-      <c r="E187" t="s">
-        <v>791</v>
+      <c r="E187">
+        <v>-97.051299999999998</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -6607,13 +5772,13 @@
         <v>302</v>
       </c>
       <c r="C188" t="s">
-        <v>792</v>
+        <v>608</v>
       </c>
       <c r="D188">
         <v>44.225299999999997</v>
       </c>
-      <c r="E188" t="s">
-        <v>793</v>
+      <c r="E188">
+        <v>-76.495099999999994</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -6621,16 +5786,16 @@
         <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>794</v>
+        <v>609</v>
       </c>
       <c r="C189" t="s">
-        <v>795</v>
+        <v>610</v>
       </c>
       <c r="D189">
         <v>49.1995</v>
       </c>
-      <c r="E189" t="s">
-        <v>796</v>
+      <c r="E189">
+        <v>-113.31180000000001</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -6638,16 +5803,16 @@
         <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>797</v>
+        <v>611</v>
       </c>
       <c r="C190" t="s">
-        <v>798</v>
+        <v>612</v>
       </c>
       <c r="D190">
         <v>52.268999999999998</v>
       </c>
-      <c r="E190" t="s">
-        <v>799</v>
+      <c r="E190">
+        <v>-113.8252</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -6658,13 +5823,13 @@
         <v>279</v>
       </c>
       <c r="C191" t="s">
-        <v>800</v>
+        <v>613</v>
       </c>
       <c r="D191">
         <v>49.904000000000003</v>
       </c>
-      <c r="E191" t="s">
-        <v>801</v>
+      <c r="E191">
+        <v>-97.200599999999994</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -6675,13 +5840,13 @@
         <v>295</v>
       </c>
       <c r="C192" t="s">
-        <v>802</v>
+        <v>614</v>
       </c>
       <c r="D192">
         <v>43.2166</v>
       </c>
-      <c r="E192" t="s">
-        <v>803</v>
+      <c r="E192">
+        <v>-79.937799999999996</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -6692,13 +5857,13 @@
         <v>275</v>
       </c>
       <c r="C193" t="s">
-        <v>804</v>
+        <v>615</v>
       </c>
       <c r="D193">
         <v>51.040500000000002</v>
       </c>
-      <c r="E193" t="s">
-        <v>805</v>
+      <c r="E193">
+        <v>-114.0933</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -6709,13 +5874,13 @@
         <v>275</v>
       </c>
       <c r="C194" t="s">
-        <v>806</v>
+        <v>616</v>
       </c>
       <c r="D194">
         <v>50.971899999999998</v>
       </c>
-      <c r="E194" t="s">
-        <v>807</v>
+      <c r="E194">
+        <v>-114.0042</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -6726,13 +5891,13 @@
         <v>279</v>
       </c>
       <c r="C195" t="s">
-        <v>808</v>
+        <v>617</v>
       </c>
       <c r="D195">
         <v>49.895800000000001</v>
       </c>
-      <c r="E195" t="s">
-        <v>809</v>
+      <c r="E195">
+        <v>-97.144599999999997</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -6743,13 +5908,13 @@
         <v>302</v>
       </c>
       <c r="C196" t="s">
-        <v>810</v>
+        <v>618</v>
       </c>
       <c r="D196">
         <v>44.230899999999998</v>
       </c>
-      <c r="E196" t="s">
-        <v>811</v>
+      <c r="E196">
+        <v>-76.462999999999994</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -6760,13 +5925,13 @@
         <v>303</v>
       </c>
       <c r="C197" t="s">
-        <v>812</v>
+        <v>619</v>
       </c>
       <c r="D197">
         <v>48.433100000000003</v>
       </c>
-      <c r="E197" t="s">
-        <v>813</v>
+      <c r="E197">
+        <v>-123.4911</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -6774,16 +5939,16 @@
         <v>192</v>
       </c>
       <c r="B198" t="s">
-        <v>814</v>
+        <v>620</v>
       </c>
       <c r="C198" t="s">
-        <v>815</v>
+        <v>621</v>
       </c>
       <c r="D198">
         <v>47.638300000000001</v>
       </c>
-      <c r="E198" t="s">
-        <v>816</v>
+      <c r="E198">
+        <v>-65.647199999999998</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -6794,13 +5959,13 @@
         <v>304</v>
       </c>
       <c r="C199" t="s">
-        <v>817</v>
+        <v>622</v>
       </c>
       <c r="D199">
         <v>45.619599999999998</v>
       </c>
-      <c r="E199" t="s">
-        <v>818</v>
+      <c r="E199">
+        <v>-61.994</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -6811,13 +5976,13 @@
         <v>297</v>
       </c>
       <c r="C200" t="s">
-        <v>819</v>
+        <v>623</v>
       </c>
       <c r="D200">
         <v>44.634599999999999</v>
       </c>
-      <c r="E200" t="s">
-        <v>820</v>
+      <c r="E200">
+        <v>-63.5792</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -6825,16 +5990,16 @@
         <v>195</v>
       </c>
       <c r="B201" t="s">
-        <v>641</v>
+        <v>519</v>
       </c>
       <c r="C201" t="s">
-        <v>821</v>
+        <v>624</v>
       </c>
       <c r="D201">
         <v>52.130400000000002</v>
       </c>
-      <c r="E201" t="s">
-        <v>822</v>
+      <c r="E201">
+        <v>-106.6748</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -6842,16 +6007,16 @@
         <v>196</v>
       </c>
       <c r="B202" t="s">
-        <v>641</v>
+        <v>519</v>
       </c>
       <c r="C202" t="s">
-        <v>823</v>
+        <v>625</v>
       </c>
       <c r="D202">
         <v>52.1355</v>
       </c>
-      <c r="E202" t="s">
-        <v>824</v>
+      <c r="E202">
+        <v>-106.67059999999999</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -6859,16 +6024,16 @@
         <v>197</v>
       </c>
       <c r="B203" t="s">
-        <v>825</v>
+        <v>626</v>
       </c>
       <c r="C203" t="s">
-        <v>826</v>
+        <v>627</v>
       </c>
       <c r="D203">
         <v>46.520299999999999</v>
       </c>
-      <c r="E203" t="s">
-        <v>827</v>
+      <c r="E203">
+        <v>-84.293899999999994</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -6876,16 +6041,16 @@
         <v>198</v>
       </c>
       <c r="B204" t="s">
-        <v>828</v>
+        <v>628</v>
       </c>
       <c r="C204" t="s">
-        <v>829</v>
+        <v>629</v>
       </c>
       <c r="D204">
         <v>49.310699999999997</v>
       </c>
-      <c r="E204" t="s">
-        <v>830</v>
+      <c r="E204">
+        <v>-117.6677</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -6896,13 +6061,13 @@
         <v>298</v>
       </c>
       <c r="C205" t="s">
-        <v>831</v>
+        <v>630</v>
       </c>
       <c r="D205">
         <v>43.7943</v>
       </c>
-      <c r="E205" t="s">
-        <v>832</v>
+      <c r="E205">
+        <v>-79.347300000000004</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -6910,16 +6075,16 @@
         <v>200</v>
       </c>
       <c r="B206" t="s">
-        <v>833</v>
+        <v>631</v>
       </c>
       <c r="C206" t="s">
-        <v>834</v>
+        <v>632</v>
       </c>
       <c r="D206">
         <v>43.467300000000002</v>
       </c>
-      <c r="E206" t="s">
-        <v>835</v>
+      <c r="E206">
+        <v>-79.687700000000007</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -6930,13 +6095,13 @@
         <v>305</v>
       </c>
       <c r="C207" t="s">
-        <v>836</v>
+        <v>633</v>
       </c>
       <c r="D207">
         <v>49.277500000000003</v>
       </c>
-      <c r="E207" t="s">
-        <v>837</v>
+      <c r="E207">
+        <v>-122.9144</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -6944,16 +6109,16 @@
         <v>202</v>
       </c>
       <c r="B208" t="s">
-        <v>838</v>
+        <v>634</v>
       </c>
       <c r="C208" t="s">
-        <v>839</v>
+        <v>635</v>
       </c>
       <c r="D208">
         <v>49.6646</v>
       </c>
-      <c r="E208" t="s">
-        <v>840</v>
+      <c r="E208">
+        <v>-103.85039999999999</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -6964,13 +6129,13 @@
         <v>275</v>
       </c>
       <c r="C209" t="s">
-        <v>841</v>
+        <v>636</v>
       </c>
       <c r="D209">
         <v>51.0642</v>
       </c>
-      <c r="E209" t="s">
-        <v>842</v>
+      <c r="E209">
+        <v>-114.0843</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -6981,30 +6146,30 @@
         <v>290</v>
       </c>
       <c r="C210" t="s">
-        <v>843</v>
+        <v>637</v>
       </c>
       <c r="D210">
         <v>49.282699999999998</v>
       </c>
-      <c r="E210" t="s">
-        <v>844</v>
+      <c r="E210">
+        <v>-123.11620000000001</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>845</v>
+        <v>638</v>
       </c>
       <c r="B211" t="s">
-        <v>846</v>
+        <v>639</v>
       </c>
       <c r="C211" t="s">
-        <v>847</v>
+        <v>640</v>
       </c>
       <c r="D211">
         <v>52.203499999999998</v>
       </c>
-      <c r="E211" t="s">
-        <v>848</v>
+      <c r="E211">
+        <v>-104.9007</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -7015,13 +6180,13 @@
         <v>279</v>
       </c>
       <c r="C212" t="s">
-        <v>849</v>
+        <v>641</v>
       </c>
       <c r="D212">
         <v>49.808399999999999</v>
       </c>
-      <c r="E212" t="s">
-        <v>850</v>
+      <c r="E212">
+        <v>-97.135999999999996</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -7032,13 +6197,13 @@
         <v>320</v>
       </c>
       <c r="C213" t="s">
-        <v>851</v>
+        <v>642</v>
       </c>
       <c r="D213">
         <v>42.241199999999999</v>
       </c>
-      <c r="E213" t="s">
-        <v>852</v>
+      <c r="E213">
+        <v>-83.049599999999998</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -7049,13 +6214,13 @@
         <v>279</v>
       </c>
       <c r="C214" t="s">
-        <v>853</v>
+        <v>643</v>
       </c>
       <c r="D214">
         <v>49.808799999999998</v>
       </c>
-      <c r="E214" t="s">
-        <v>854</v>
+      <c r="E214">
+        <v>-97.137</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -7066,13 +6231,13 @@
         <v>302</v>
       </c>
       <c r="C215" t="s">
-        <v>855</v>
+        <v>644</v>
       </c>
       <c r="D215">
         <v>44.217100000000002</v>
       </c>
-      <c r="E215" t="s">
-        <v>856</v>
+      <c r="E215">
+        <v>-76.5274</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -7083,13 +6248,13 @@
         <v>275</v>
       </c>
       <c r="C216" t="s">
-        <v>857</v>
+        <v>645</v>
       </c>
       <c r="D216">
         <v>50.927</v>
       </c>
-      <c r="E216" t="s">
-        <v>858</v>
+      <c r="E216">
+        <v>-114.0712</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -7100,13 +6265,13 @@
         <v>279</v>
       </c>
       <c r="C217" t="s">
-        <v>859</v>
+        <v>646</v>
       </c>
       <c r="D217">
         <v>49.808500000000002</v>
       </c>
-      <c r="E217" t="s">
-        <v>860</v>
+      <c r="E217">
+        <v>-97.136499999999998</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -7117,13 +6282,13 @@
         <v>306</v>
       </c>
       <c r="C218" t="s">
-        <v>861</v>
+        <v>647</v>
       </c>
       <c r="D218">
         <v>45.193800000000003</v>
       </c>
-      <c r="E218" t="s">
-        <v>862</v>
+      <c r="E218">
+        <v>-67.279700000000005</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -7134,13 +6299,13 @@
         <v>307</v>
       </c>
       <c r="C219" t="s">
-        <v>863</v>
+        <v>648</v>
       </c>
       <c r="D219">
         <v>45.956099999999999</v>
       </c>
-      <c r="E219" t="s">
-        <v>864</v>
+      <c r="E219">
+        <v>-66.642799999999994</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -7148,16 +6313,16 @@
         <v>213</v>
       </c>
       <c r="B220" t="s">
-        <v>865</v>
+        <v>649</v>
       </c>
       <c r="C220" t="s">
-        <v>866</v>
+        <v>650</v>
       </c>
       <c r="D220">
         <v>49.533700000000003</v>
       </c>
-      <c r="E220" t="s">
-        <v>867</v>
+      <c r="E220">
+        <v>-96.685100000000006</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -7168,13 +6333,13 @@
         <v>275</v>
       </c>
       <c r="C221" t="s">
-        <v>868</v>
+        <v>651</v>
       </c>
       <c r="D221">
         <v>51.057099999999998</v>
       </c>
-      <c r="E221" t="s">
-        <v>869</v>
+      <c r="E221">
+        <v>-114.0889</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -7185,13 +6350,13 @@
         <v>279</v>
       </c>
       <c r="C222" t="s">
-        <v>870</v>
+        <v>652</v>
       </c>
       <c r="D222">
         <v>49.892499999999998</v>
       </c>
-      <c r="E222" t="s">
-        <v>871</v>
+      <c r="E222">
+        <v>-97.144900000000007</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -7202,13 +6367,13 @@
         <v>278</v>
       </c>
       <c r="C223" t="s">
-        <v>872</v>
+        <v>653</v>
       </c>
       <c r="D223">
         <v>45.397599999999997</v>
       </c>
-      <c r="E223" t="s">
-        <v>873</v>
+      <c r="E223">
+        <v>-71.896699999999996</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -7216,33 +6381,33 @@
         <v>217</v>
       </c>
       <c r="B224" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C224" t="s">
-        <v>874</v>
+        <v>654</v>
       </c>
       <c r="D224">
         <v>45.486699999999999</v>
       </c>
-      <c r="E224" t="s">
-        <v>875</v>
+      <c r="E224">
+        <v>-73.638400000000004</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>876</v>
+        <v>655</v>
       </c>
       <c r="B225" t="s">
         <v>287</v>
       </c>
       <c r="C225" t="s">
-        <v>877</v>
+        <v>656</v>
       </c>
       <c r="D225">
         <v>53.525399999999998</v>
       </c>
-      <c r="E225" t="s">
-        <v>878</v>
+      <c r="E225">
+        <v>-113.4076</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -7253,13 +6418,13 @@
         <v>308</v>
       </c>
       <c r="C226" t="s">
-        <v>879</v>
+        <v>657</v>
       </c>
       <c r="D226">
         <v>50.6736</v>
       </c>
-      <c r="E226" t="s">
-        <v>880</v>
+      <c r="E226">
+        <v>-120.3689</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -7270,13 +6435,13 @@
         <v>298</v>
       </c>
       <c r="C227" t="s">
-        <v>881</v>
+        <v>658</v>
       </c>
       <c r="D227">
         <v>43.657699999999998</v>
       </c>
-      <c r="E227" t="s">
-        <v>882</v>
+      <c r="E227">
+        <v>-79.378799999999998</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -7284,16 +6449,16 @@
         <v>220</v>
       </c>
       <c r="B228" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C228" t="s">
-        <v>883</v>
+        <v>659</v>
       </c>
       <c r="D228">
         <v>45.504600000000003</v>
       </c>
-      <c r="E228" t="s">
-        <v>884</v>
+      <c r="E228">
+        <v>-73.575599999999994</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -7301,16 +6466,16 @@
         <v>221</v>
       </c>
       <c r="B229" t="s">
-        <v>621</v>
+        <v>507</v>
       </c>
       <c r="C229" t="s">
-        <v>885</v>
+        <v>660</v>
       </c>
       <c r="D229">
         <v>44.361600000000003</v>
       </c>
-      <c r="E229" t="s">
-        <v>886</v>
+      <c r="E229">
+        <v>-78.289699999999996</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -7321,13 +6486,13 @@
         <v>309</v>
       </c>
       <c r="C230" t="s">
-        <v>887</v>
+        <v>661</v>
       </c>
       <c r="D230">
         <v>49.140799999999999</v>
       </c>
-      <c r="E230" t="s">
-        <v>888</v>
+      <c r="E230">
+        <v>-122.6383</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -7338,13 +6503,13 @@
         <v>298</v>
       </c>
       <c r="C231" t="s">
-        <v>889</v>
+        <v>662</v>
       </c>
       <c r="D231">
         <v>43.805</v>
       </c>
-      <c r="E231" t="s">
-        <v>890</v>
+      <c r="E231">
+        <v>-79.401399999999995</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -7355,13 +6520,13 @@
         <v>290</v>
       </c>
       <c r="C232" t="s">
-        <v>891</v>
+        <v>663</v>
       </c>
       <c r="D232">
         <v>49.2742</v>
       </c>
-      <c r="E232" t="s">
-        <v>892</v>
+      <c r="E232">
+        <v>-123.1288</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -7372,13 +6537,13 @@
         <v>310</v>
       </c>
       <c r="C233" t="s">
-        <v>893</v>
+        <v>664</v>
       </c>
       <c r="D233">
         <v>53.825400000000002</v>
       </c>
-      <c r="E233" t="s">
-        <v>894</v>
+      <c r="E233">
+        <v>-101.24469999999999</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -7389,13 +6554,13 @@
         <v>311</v>
       </c>
       <c r="C234" t="s">
-        <v>895</v>
+        <v>665</v>
       </c>
       <c r="D234">
         <v>53.523200000000003</v>
       </c>
-      <c r="E234" t="s">
-        <v>896</v>
+      <c r="E234">
+        <v>-113.52630000000001</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -7406,13 +6571,13 @@
         <v>312</v>
       </c>
       <c r="C235" t="s">
-        <v>897</v>
+        <v>666</v>
       </c>
       <c r="D235">
         <v>49.260599999999997</v>
       </c>
-      <c r="E235" t="s">
-        <v>898</v>
+      <c r="E235">
+        <v>-123.246</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -7423,13 +6588,13 @@
         <v>313</v>
       </c>
       <c r="C236" t="s">
-        <v>899</v>
+        <v>667</v>
       </c>
       <c r="D236">
         <v>51.077599999999997</v>
       </c>
-      <c r="E236" t="s">
-        <v>900</v>
+      <c r="E236">
+        <v>-114.1339</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -7440,13 +6605,13 @@
         <v>307</v>
       </c>
       <c r="C237" t="s">
-        <v>901</v>
+        <v>668</v>
       </c>
       <c r="D237">
         <v>45.944600000000001</v>
       </c>
-      <c r="E237" t="s">
-        <v>902</v>
+      <c r="E237">
+        <v>-66.665300000000002</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -7454,16 +6619,16 @@
         <v>230</v>
       </c>
       <c r="B238" t="s">
-        <v>903</v>
+        <v>669</v>
       </c>
       <c r="C238" t="s">
-        <v>904</v>
+        <v>670</v>
       </c>
       <c r="D238">
         <v>43.532499999999999</v>
       </c>
-      <c r="E238" t="s">
-        <v>905</v>
+      <c r="E238">
+        <v>-80.225999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -7474,30 +6639,30 @@
         <v>298</v>
       </c>
       <c r="C239" t="s">
-        <v>906</v>
+        <v>671</v>
       </c>
       <c r="D239">
         <v>43.729300000000002</v>
       </c>
-      <c r="E239" t="s">
-        <v>645</v>
+      <c r="E239">
+        <v>-79.6066</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>907</v>
+        <v>672</v>
       </c>
       <c r="B240" t="s">
         <v>297</v>
       </c>
       <c r="C240" t="s">
-        <v>908</v>
+        <v>673</v>
       </c>
       <c r="D240">
         <v>44.637099999999997</v>
       </c>
-      <c r="E240" t="s">
-        <v>909</v>
+      <c r="E240">
+        <v>-63.594000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -7505,16 +6670,16 @@
         <v>232</v>
       </c>
       <c r="B241" t="s">
-        <v>679</v>
+        <v>542</v>
       </c>
       <c r="C241" t="s">
-        <v>910</v>
+        <v>674</v>
       </c>
       <c r="D241">
         <v>49.674700000000001</v>
       </c>
-      <c r="E241" t="s">
-        <v>911</v>
+      <c r="E241">
+        <v>-112.8627</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -7525,13 +6690,13 @@
         <v>279</v>
       </c>
       <c r="C242" t="s">
-        <v>912</v>
+        <v>675</v>
       </c>
       <c r="D242">
         <v>49.8078</v>
       </c>
-      <c r="E242" t="s">
-        <v>913</v>
+      <c r="E242">
+        <v>-97.133099999999999</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -7542,13 +6707,13 @@
         <v>314</v>
       </c>
       <c r="C243" t="s">
-        <v>914</v>
+        <v>676</v>
       </c>
       <c r="D243">
         <v>45.946899999999999</v>
       </c>
-      <c r="E243" t="s">
-        <v>915</v>
+      <c r="E243">
+        <v>-66.641199999999998</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -7559,13 +6724,13 @@
         <v>315</v>
       </c>
       <c r="C244" t="s">
-        <v>916</v>
+        <v>677</v>
       </c>
       <c r="D244">
         <v>43.089599999999997</v>
       </c>
-      <c r="E244" t="s">
-        <v>917</v>
+      <c r="E244">
+        <v>-79.070999999999998</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -7576,13 +6741,13 @@
         <v>316</v>
       </c>
       <c r="C245" t="s">
-        <v>918</v>
+        <v>678</v>
       </c>
       <c r="D245">
         <v>53.9129</v>
       </c>
-      <c r="E245" t="s">
-        <v>919</v>
+      <c r="E245">
+        <v>-122.7688</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -7593,13 +6758,13 @@
         <v>285</v>
       </c>
       <c r="C246" t="s">
-        <v>920</v>
+        <v>679</v>
       </c>
       <c r="D246">
         <v>45.4236</v>
       </c>
-      <c r="E246" t="s">
-        <v>921</v>
+      <c r="E246">
+        <v>-75.683099999999996</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -7610,13 +6775,13 @@
         <v>317</v>
       </c>
       <c r="C247" t="s">
-        <v>922</v>
+        <v>680</v>
       </c>
       <c r="D247">
         <v>46.2607</v>
       </c>
-      <c r="E247" t="s">
-        <v>923</v>
+      <c r="E247">
+        <v>-63.1325</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -7627,13 +6792,13 @@
         <v>318</v>
       </c>
       <c r="C248" t="s">
-        <v>924</v>
+        <v>681</v>
       </c>
       <c r="D248">
         <v>50.416699999999999</v>
       </c>
-      <c r="E248" t="s">
-        <v>925</v>
+      <c r="E248">
+        <v>-104.5886</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -7641,16 +6806,16 @@
         <v>240</v>
       </c>
       <c r="B249" t="s">
-        <v>641</v>
+        <v>519</v>
       </c>
       <c r="C249" t="s">
-        <v>926</v>
+        <v>682</v>
       </c>
       <c r="D249">
         <v>52.133200000000002</v>
       </c>
-      <c r="E249" t="s">
-        <v>927</v>
+      <c r="E249">
+        <v>-106.6339</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -7661,13 +6826,13 @@
         <v>319</v>
       </c>
       <c r="C250" t="s">
-        <v>928</v>
+        <v>683</v>
       </c>
       <c r="D250">
         <v>43.6629</v>
       </c>
-      <c r="E250" t="s">
-        <v>929</v>
+      <c r="E250">
+        <v>-79.395700000000005</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -7678,13 +6843,13 @@
         <v>303</v>
       </c>
       <c r="C251" t="s">
-        <v>930</v>
+        <v>684</v>
       </c>
       <c r="D251">
         <v>48.4634</v>
       </c>
-      <c r="E251" t="s">
-        <v>931</v>
+      <c r="E251">
+        <v>-123.3107</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -7692,16 +6857,16 @@
         <v>243</v>
       </c>
       <c r="B252" t="s">
-        <v>932</v>
+        <v>685</v>
       </c>
       <c r="C252" t="s">
-        <v>933</v>
+        <v>686</v>
       </c>
       <c r="D252">
         <v>43.472299999999997</v>
       </c>
-      <c r="E252" t="s">
-        <v>934</v>
+      <c r="E252">
+        <v>-80.544899999999998</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -7712,13 +6877,13 @@
         <v>320</v>
       </c>
       <c r="C253" t="s">
-        <v>935</v>
+        <v>687</v>
       </c>
       <c r="D253">
         <v>42.307200000000002</v>
       </c>
-      <c r="E253" t="s">
-        <v>936</v>
+      <c r="E253">
+        <v>-83.067999999999998</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -7729,13 +6894,13 @@
         <v>279</v>
       </c>
       <c r="C254" t="s">
-        <v>937</v>
+        <v>688</v>
       </c>
       <c r="D254">
         <v>49.893500000000003</v>
       </c>
-      <c r="E254" t="s">
-        <v>938</v>
+      <c r="E254">
+        <v>-97.150700000000001</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -7743,16 +6908,16 @@
         <v>246</v>
       </c>
       <c r="B255" t="s">
-        <v>939</v>
+        <v>689</v>
       </c>
       <c r="C255" t="s">
-        <v>940</v>
+        <v>690</v>
       </c>
       <c r="D255">
         <v>49.025700000000001</v>
       </c>
-      <c r="E255" t="s">
-        <v>941</v>
+      <c r="E255">
+        <v>-122.2852</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -7763,13 +6928,13 @@
         <v>321</v>
       </c>
       <c r="C256" t="s">
-        <v>942</v>
+        <v>691</v>
       </c>
       <c r="D256">
         <v>46.778500000000001</v>
       </c>
-      <c r="E256" t="s">
-        <v>943</v>
+      <c r="E256">
+        <v>-71.275400000000005</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -7777,16 +6942,16 @@
         <v>248</v>
       </c>
       <c r="B257" t="s">
-        <v>944</v>
+        <v>692</v>
       </c>
       <c r="C257" t="s">
-        <v>945</v>
+        <v>693</v>
       </c>
       <c r="D257">
         <v>44.275300000000001</v>
       </c>
-      <c r="E257" t="s">
-        <v>946</v>
+      <c r="E257">
+        <v>-66.1036</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -7797,13 +6962,13 @@
         <v>321</v>
       </c>
       <c r="C258" t="s">
-        <v>947</v>
+        <v>694</v>
       </c>
       <c r="D258">
         <v>45.536000000000001</v>
       </c>
-      <c r="E258" t="s">
-        <v>948</v>
+      <c r="E258">
+        <v>-73.607299999999995</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -7814,13 +6979,13 @@
         <v>322</v>
       </c>
       <c r="C259" t="s">
-        <v>949</v>
+        <v>695</v>
       </c>
       <c r="D259">
         <v>49.686</v>
       </c>
-      <c r="E259" t="s">
-        <v>950</v>
+      <c r="E259">
+        <v>-83.665999999999997</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -7831,13 +6996,13 @@
         <v>288</v>
       </c>
       <c r="C260" t="s">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D260">
         <v>46.101300000000002</v>
       </c>
-      <c r="E260" t="s">
-        <v>952</v>
+      <c r="E260">
+        <v>-64.781999999999996</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -7845,16 +7010,16 @@
         <v>252</v>
       </c>
       <c r="B261" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C261" t="s">
-        <v>953</v>
+        <v>697</v>
       </c>
       <c r="D261">
         <v>45.504800000000003</v>
       </c>
-      <c r="E261" t="s">
-        <v>954</v>
+      <c r="E261">
+        <v>-73.613200000000006</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -7865,13 +7030,13 @@
         <v>279</v>
       </c>
       <c r="C262" t="s">
-        <v>955</v>
+        <v>698</v>
       </c>
       <c r="D262">
         <v>49.890900000000002</v>
       </c>
-      <c r="E262" t="s">
-        <v>956</v>
+      <c r="E262">
+        <v>-97.120599999999996</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -7882,13 +7047,13 @@
         <v>278</v>
       </c>
       <c r="C263" t="s">
-        <v>957</v>
+        <v>699</v>
       </c>
       <c r="D263">
         <v>45.377600000000001</v>
       </c>
-      <c r="E263" t="s">
-        <v>958</v>
+      <c r="E263">
+        <v>-71.933099999999996</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -7899,30 +7064,30 @@
         <v>323</v>
       </c>
       <c r="C264" t="s">
-        <v>676</v>
+        <v>540</v>
       </c>
       <c r="D264">
         <v>46.474899999999998</v>
       </c>
-      <c r="E264" t="s">
-        <v>677</v>
+      <c r="E264">
+        <v>-80.972800000000007</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>959</v>
+        <v>700</v>
       </c>
       <c r="B265" t="s">
         <v>298</v>
       </c>
       <c r="C265" t="s">
-        <v>960</v>
+        <v>701</v>
       </c>
       <c r="D265">
         <v>43.6447</v>
       </c>
-      <c r="E265" t="s">
-        <v>961</v>
+      <c r="E265">
+        <v>-79.370800000000003</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -7933,13 +7098,13 @@
         <v>324</v>
       </c>
       <c r="C266" t="s">
-        <v>962</v>
+        <v>702</v>
       </c>
       <c r="D266">
         <v>48.232399999999998</v>
       </c>
-      <c r="E266" t="s">
-        <v>582</v>
+      <c r="E266">
+        <v>-79.0184</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -7950,13 +7115,13 @@
         <v>325</v>
       </c>
       <c r="C267" t="s">
-        <v>963</v>
+        <v>703</v>
       </c>
       <c r="D267">
         <v>45.471299999999999</v>
       </c>
-      <c r="E267" t="s">
-        <v>964</v>
+      <c r="E267">
+        <v>-75.740799999999993</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -7967,30 +7132,30 @@
         <v>326</v>
       </c>
       <c r="C268" t="s">
-        <v>965</v>
+        <v>704</v>
       </c>
       <c r="D268">
         <v>48.427300000000002</v>
       </c>
-      <c r="E268" t="s">
-        <v>966</v>
+      <c r="E268">
+        <v>-71.059700000000007</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>967</v>
+        <v>705</v>
       </c>
       <c r="B269" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C269" t="s">
-        <v>968</v>
+        <v>706</v>
       </c>
       <c r="D269">
         <v>45.514699999999998</v>
       </c>
-      <c r="E269" t="s">
-        <v>969</v>
+      <c r="E269">
+        <v>-73.561800000000005</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -8001,13 +7166,13 @@
         <v>327</v>
       </c>
       <c r="C270" t="s">
-        <v>970</v>
+        <v>707</v>
       </c>
       <c r="D270">
         <v>48.454000000000001</v>
       </c>
-      <c r="E270" t="s">
-        <v>971</v>
+      <c r="E270">
+        <v>-68.523499999999999</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -8018,13 +7183,13 @@
         <v>328</v>
       </c>
       <c r="C271" t="s">
-        <v>972</v>
+        <v>708</v>
       </c>
       <c r="D271">
         <v>46.342399999999998</v>
       </c>
-      <c r="E271" t="s">
-        <v>973</v>
+      <c r="E271">
+        <v>-72.578599999999994</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -8035,13 +7200,13 @@
         <v>290</v>
       </c>
       <c r="C272" t="s">
-        <v>974</v>
+        <v>709</v>
       </c>
       <c r="D272">
         <v>49.282600000000002</v>
       </c>
-      <c r="E272" t="s">
-        <v>975</v>
+      <c r="E272">
+        <v>-123.10899999999999</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -8052,13 +7217,13 @@
         <v>290</v>
       </c>
       <c r="C273" t="s">
-        <v>976</v>
+        <v>710</v>
       </c>
       <c r="D273">
         <v>49.273699999999998</v>
       </c>
-      <c r="E273" t="s">
-        <v>615</v>
+      <c r="E273">
+        <v>-123.0975</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -8069,13 +7234,13 @@
         <v>329</v>
       </c>
       <c r="C274" t="s">
-        <v>977</v>
+        <v>711</v>
       </c>
       <c r="D274">
         <v>49.1586</v>
       </c>
-      <c r="E274" t="s">
-        <v>978</v>
+      <c r="E274">
+        <v>-123.9653</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -8083,16 +7248,16 @@
         <v>264</v>
       </c>
       <c r="B275" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C275" t="s">
-        <v>979</v>
+        <v>712</v>
       </c>
       <c r="D275">
         <v>45.511000000000003</v>
       </c>
-      <c r="E275" t="s">
-        <v>472</v>
+      <c r="E275">
+        <v>-73.6751</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -8100,16 +7265,16 @@
         <v>265</v>
       </c>
       <c r="B276" t="s">
-        <v>641</v>
+        <v>519</v>
       </c>
       <c r="C276" t="s">
-        <v>980</v>
+        <v>713</v>
       </c>
       <c r="D276">
         <v>52.147300000000001</v>
       </c>
-      <c r="E276" t="s">
-        <v>981</v>
+      <c r="E276">
+        <v>-106.68129999999999</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -8120,13 +7285,13 @@
         <v>330</v>
       </c>
       <c r="C277" t="s">
-        <v>982</v>
+        <v>714</v>
       </c>
       <c r="D277">
         <v>43.009599999999999</v>
       </c>
-      <c r="E277" t="s">
-        <v>983</v>
+      <c r="E277">
+        <v>-81.273700000000005</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -8137,13 +7302,13 @@
         <v>331</v>
       </c>
       <c r="C278" t="s">
-        <v>984</v>
+        <v>715</v>
       </c>
       <c r="D278">
         <v>43.4741</v>
       </c>
-      <c r="E278" t="s">
-        <v>985</v>
+      <c r="E278">
+        <v>-80.530600000000007</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -8154,13 +7319,13 @@
         <v>279</v>
       </c>
       <c r="C279" t="s">
-        <v>986</v>
+        <v>716</v>
       </c>
       <c r="D279">
         <v>49.882199999999997</v>
       </c>
-      <c r="E279" t="s">
-        <v>987</v>
+      <c r="E279">
+        <v>-97.204300000000003</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -8171,13 +7336,13 @@
         <v>332</v>
       </c>
       <c r="C280" t="s">
-        <v>988</v>
+        <v>717</v>
       </c>
       <c r="D280">
         <v>43.773499999999999</v>
       </c>
-      <c r="E280" t="s">
-        <v>989</v>
+      <c r="E280">
+        <v>-79.501900000000006</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -8188,13 +7353,13 @@
         <v>333</v>
       </c>
       <c r="C281" t="s">
-        <v>990</v>
+        <v>718</v>
       </c>
       <c r="D281">
         <v>45.949199999999998</v>
       </c>
-      <c r="E281" t="s">
-        <v>991</v>
+      <c r="E281">
+        <v>-66.6708</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -8202,16 +7367,16 @@
         <v>271</v>
       </c>
       <c r="B282" t="s">
-        <v>992</v>
+        <v>719</v>
       </c>
       <c r="C282" t="s">
-        <v>993</v>
+        <v>720</v>
       </c>
       <c r="D282">
         <v>64.06</v>
       </c>
-      <c r="E282" t="s">
-        <v>994</v>
+      <c r="E282">
+        <v>-139.43</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -8222,64 +7387,64 @@
         <v>334</v>
       </c>
       <c r="C283" t="s">
-        <v>995</v>
+        <v>721</v>
       </c>
       <c r="D283">
         <v>60.741100000000003</v>
       </c>
-      <c r="E283" t="s">
-        <v>996</v>
+      <c r="E283">
+        <v>-135.078</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>997</v>
+        <v>722</v>
       </c>
       <c r="B284" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C284" t="s">
-        <v>998</v>
+        <v>723</v>
       </c>
       <c r="D284">
         <v>45.523299999999999</v>
       </c>
-      <c r="E284" t="s">
-        <v>999</v>
+      <c r="E284">
+        <v>-73.607799999999997</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1000</v>
+        <v>724</v>
       </c>
       <c r="B285" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C285" t="s">
-        <v>1001</v>
+        <v>725</v>
       </c>
       <c r="D285">
         <v>45.495699999999999</v>
       </c>
-      <c r="E285" t="s">
-        <v>1002</v>
+      <c r="E285">
+        <v>-73.563299999999998</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1003</v>
+        <v>726</v>
       </c>
       <c r="B286" t="s">
-        <v>1004</v>
+        <v>727</v>
       </c>
       <c r="C286" t="s">
-        <v>1005</v>
+        <v>728</v>
       </c>
       <c r="D286">
         <v>46.813499999999998</v>
       </c>
-      <c r="E286" t="s">
-        <v>1006</v>
+      <c r="E286">
+        <v>-71.214500000000001</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -8290,13 +7455,13 @@
         <v>279</v>
       </c>
       <c r="C287" t="s">
-        <v>1007</v>
+        <v>729</v>
       </c>
       <c r="D287">
         <v>49.890900000000002</v>
       </c>
-      <c r="E287" t="s">
-        <v>956</v>
+      <c r="E287">
+        <v>-97.120599999999996</v>
       </c>
     </row>
   </sheetData>

--- a/assets/canadianUniversitiesAndColleges.xlsx
+++ b/assets/canadianUniversitiesAndColleges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehonathanshakarghi/Documents/seedle/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7537ABB1-D4B6-D14C-ADE0-459B44E52B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7B69D-B256-EB4E-9542-AC262C7883EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="735">
   <si>
     <t>University</t>
   </si>
@@ -571,9 +571,6 @@
     <t>Providence University College and Theological Seminary</t>
   </si>
   <si>
-    <t>Queen's University at Kingston</t>
-  </si>
-  <si>
     <t>Red Crow Community College</t>
   </si>
   <si>
@@ -745,9 +742,6 @@
     <t>University of Saskatchewan</t>
   </si>
   <si>
-    <t>University of Toronto</t>
-  </si>
-  <si>
     <t>University of Victoria</t>
   </si>
   <si>
@@ -979,9 +973,6 @@
     <t>Regina, Saskatoon, Swift Current, SK</t>
   </si>
   <si>
-    <t>Toronto, Mississauga, ON</t>
-  </si>
-  <si>
     <t>Windsor, ON</t>
   </si>
   <si>
@@ -2210,6 +2201,30 @@
   </si>
   <si>
     <t>200 Avenue de la Cathédrale, Winnipeg, MB R2H 0H7</t>
+  </si>
+  <si>
+    <t>Queen's University</t>
+  </si>
+  <si>
+    <t>University of Toronto - St. George</t>
+  </si>
+  <si>
+    <t>University of Toronto - Mississauga</t>
+  </si>
+  <si>
+    <t>Mississauga, ON</t>
+  </si>
+  <si>
+    <t>3359 Mississauga Road, Mississauga, ON L5L 1C6</t>
+  </si>
+  <si>
+    <t>University of Toronto - Scarborough</t>
+  </si>
+  <si>
+    <t>Scarborough, ON</t>
+  </si>
+  <si>
+    <t>1265 Military Trail, Toronto, ON M1C 1A4</t>
   </si>
 </sst>
 </file>
@@ -2577,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2607,10 +2622,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D2">
         <v>51.050899999999999</v>
@@ -2624,10 +2639,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D3">
         <v>45.088999999999999</v>
@@ -2641,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D4">
         <v>49.285600000000002</v>
@@ -2658,10 +2673,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D5">
         <v>51.063200000000002</v>
@@ -2675,10 +2690,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D6">
         <v>49.230499999999999</v>
@@ -2692,10 +2707,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D7">
         <v>46.512999999999998</v>
@@ -2709,10 +2724,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D8">
         <v>45.348300000000002</v>
@@ -2726,10 +2741,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D9">
         <v>51.015900000000002</v>
@@ -2743,10 +2758,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D10">
         <v>49.845300000000002</v>
@@ -2760,10 +2775,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D11">
         <v>54.7179</v>
@@ -2777,10 +2792,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D12">
         <v>60.006399999999999</v>
@@ -2794,10 +2809,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D13">
         <v>51.0869</v>
@@ -2811,10 +2826,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D14">
         <v>52.751800000000003</v>
@@ -2825,13 +2840,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D15">
         <v>45.366799999999998</v>
@@ -2845,10 +2860,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D16">
         <v>49.896700000000003</v>
@@ -2862,10 +2877,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D17">
         <v>51.045299999999997</v>
@@ -2879,10 +2894,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D18">
         <v>49.843899999999998</v>
@@ -2896,10 +2911,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D19">
         <v>50.436799999999998</v>
@@ -2913,10 +2928,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D20">
         <v>49.253700000000002</v>
@@ -2930,10 +2945,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D21">
         <v>43.118299999999998</v>
@@ -2947,10 +2962,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D22">
         <v>52.468400000000003</v>
@@ -2964,10 +2979,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C23" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D23">
         <v>49.283200000000001</v>
@@ -2981,10 +2996,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C24" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D24">
         <v>46.529000000000003</v>
@@ -2998,10 +3013,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D25">
         <v>48.451999999999998</v>
@@ -3015,10 +3030,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D26">
         <v>46.123699999999999</v>
@@ -3032,10 +3047,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D27">
         <v>49.857799999999997</v>
@@ -3049,10 +3064,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D28">
         <v>46.313499999999998</v>
@@ -3066,10 +3081,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D29">
         <v>46.084400000000002</v>
@@ -3083,10 +3098,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C30" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D30">
         <v>49.333199999999998</v>
@@ -3100,10 +3115,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D31">
         <v>45.386000000000003</v>
@@ -3117,10 +3132,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C32" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D32">
         <v>52.202599999999997</v>
@@ -3134,10 +3149,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C33" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D33">
         <v>43.784500000000001</v>
@@ -3151,10 +3166,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D34">
         <v>45.397199999999998</v>
@@ -3168,10 +3183,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C35" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D35">
         <v>54.5184</v>
@@ -3185,10 +3200,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C36" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D36">
         <v>49.877699999999997</v>
@@ -3202,10 +3217,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D37">
         <v>53.903399999999998</v>
@@ -3219,10 +3234,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C38" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D38">
         <v>48.547600000000003</v>
@@ -3236,10 +3251,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C39" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D39">
         <v>49.519500000000001</v>
@@ -3253,10 +3268,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C40" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D40">
         <v>45.431899999999999</v>
@@ -3270,10 +3285,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C41" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D41">
         <v>45.549700000000001</v>
@@ -3287,10 +3302,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C42" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D42">
         <v>45.5503</v>
@@ -3304,10 +3319,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C43" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D43">
         <v>46.810600000000001</v>
@@ -3321,10 +3336,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C44" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D44">
         <v>46.5167</v>
@@ -3338,10 +3353,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C45" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D45">
         <v>45.502299999999998</v>
@@ -3355,10 +3370,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D46">
         <v>46.7926</v>
@@ -3372,10 +3387,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C47" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D47">
         <v>45.493400000000001</v>
@@ -3389,10 +3404,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C48" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D48">
         <v>45.490699999999997</v>
@@ -3406,10 +3421,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C49" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D49">
         <v>45.503799999999998</v>
@@ -3423,10 +3438,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C50" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D50">
         <v>46.341299999999997</v>
@@ -3440,10 +3455,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C51" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D51">
         <v>45.641300000000001</v>
@@ -3457,10 +3472,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C52" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D52">
         <v>45.575299999999999</v>
@@ -3474,10 +3489,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C53" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D53">
         <v>46.799199999999999</v>
@@ -3488,13 +3503,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C54" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D54">
         <v>46.813899999999997</v>
@@ -3508,10 +3523,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C55" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D55">
         <v>46.566299999999998</v>
@@ -3525,10 +3540,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C56" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D56">
         <v>45.514699999999998</v>
@@ -3542,10 +3557,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C57" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D57">
         <v>46.097700000000003</v>
@@ -3556,13 +3571,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C58" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D58">
         <v>48.554699999999997</v>
@@ -3576,10 +3591,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C59" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D59">
         <v>45.536499999999997</v>
@@ -3593,10 +3608,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C60" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D60">
         <v>45.554699999999997</v>
@@ -3610,10 +3625,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C61" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D61">
         <v>45.559600000000003</v>
@@ -3627,10 +3642,10 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C62" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D62">
         <v>45.257199999999997</v>
@@ -3641,13 +3656,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B63" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C63" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D63">
         <v>46.448900000000002</v>
@@ -3661,10 +3676,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C64" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D64">
         <v>62.453899999999997</v>
@@ -3678,10 +3693,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C65" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D65">
         <v>49.273400000000002</v>
@@ -3695,10 +3710,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C66" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D66">
         <v>45.497199999999999</v>
@@ -3712,10 +3727,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C67" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D67">
         <v>53.570799999999998</v>
@@ -3729,10 +3744,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C68" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D68">
         <v>43.389899999999997</v>
@@ -3746,10 +3761,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C69" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D69">
         <v>48.380899999999997</v>
@@ -3763,10 +3778,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C70" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D70">
         <v>49.284799999999997</v>
@@ -3780,10 +3795,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C71" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D71">
         <v>46.110900000000001</v>
@@ -3797,10 +3812,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C72" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D72">
         <v>49.2605</v>
@@ -3814,10 +3829,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C73" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D73">
         <v>52.860500000000002</v>
@@ -3831,10 +3846,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C74" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D74">
         <v>45.431199999999997</v>
@@ -3848,10 +3863,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C75" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D75">
         <v>46.118600000000001</v>
@@ -3865,10 +3880,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C76" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D76">
         <v>46.830199999999998</v>
@@ -3882,10 +3897,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C77" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D77">
         <v>45.592500000000001</v>
@@ -3899,10 +3914,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C78" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D78">
         <v>49.224400000000003</v>
@@ -3916,10 +3931,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C79" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D79">
         <v>48.428600000000003</v>
@@ -3933,10 +3948,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C80" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D80">
         <v>45.8825</v>
@@ -3950,10 +3965,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C81" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D81">
         <v>45.403100000000002</v>
@@ -3967,10 +3982,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C82" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D82">
         <v>48.417499999999997</v>
@@ -3984,10 +3999,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C83" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D83">
         <v>47.365299999999998</v>
@@ -4001,10 +4016,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C84" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D84">
         <v>46.793700000000001</v>
@@ -4018,10 +4033,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C85" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D85">
         <v>48.848599999999998</v>
@@ -4035,10 +4050,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C86" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D86">
         <v>48.460799999999999</v>
@@ -4052,10 +4067,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C87" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D87">
         <v>47.837400000000002</v>
@@ -4069,10 +4084,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C88" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D88">
         <v>48.648899999999998</v>
@@ -4086,10 +4101,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C89" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D89">
         <v>45.633000000000003</v>
@@ -4103,10 +4118,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C90" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D90">
         <v>45.3292</v>
@@ -4120,10 +4135,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C91" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D91">
         <v>45.780299999999997</v>
@@ -4137,10 +4152,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C92" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D92">
         <v>45.520699999999998</v>
@@ -4154,10 +4169,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C93" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D93">
         <v>46.777200000000001</v>
@@ -4171,10 +4186,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C94" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D94">
         <v>50.221200000000003</v>
@@ -4188,10 +4203,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C95" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D95">
         <v>45.403199999999998</v>
@@ -4205,10 +4220,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C96" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D96">
         <v>46.019599999999997</v>
@@ -4222,10 +4237,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C97" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D97">
         <v>46.098399999999998</v>
@@ -4239,10 +4254,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C98" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D98">
         <v>46.353099999999998</v>
@@ -4256,10 +4271,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C99" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D99">
         <v>46.056699999999999</v>
@@ -4270,13 +4285,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B100" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C100" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D100">
         <v>48.232399999999998</v>
@@ -4287,13 +4302,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B101" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C101" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D101">
         <v>45.475900000000003</v>
@@ -4307,10 +4322,10 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C102" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D102">
         <v>48.831800000000001</v>
@@ -4324,10 +4339,10 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C103" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D103">
         <v>45.515000000000001</v>
@@ -4341,10 +4356,10 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C104" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D104">
         <v>46.018300000000004</v>
@@ -4358,10 +4373,10 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C105" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D105">
         <v>45.526600000000002</v>
@@ -4375,10 +4390,10 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C106" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D106">
         <v>44.636600000000001</v>
@@ -4392,10 +4407,10 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C107" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D107">
         <v>45.488599999999998</v>
@@ -4409,10 +4424,10 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C108" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D108">
         <v>49.204500000000003</v>
@@ -4426,10 +4441,10 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C109" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D109">
         <v>43.944400000000002</v>
@@ -4443,10 +4458,10 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C110" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D110">
         <v>49.284500000000001</v>
@@ -4460,10 +4475,10 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C111" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D111">
         <v>49.2699</v>
@@ -4477,10 +4492,10 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C112" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D112">
         <v>51.150100000000002</v>
@@ -4494,10 +4509,10 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C113" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D113">
         <v>49.273699999999998</v>
@@ -4511,10 +4526,10 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C114" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D114">
         <v>43.011800000000001</v>
@@ -4528,10 +4543,10 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C115" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D115">
         <v>49.8857</v>
@@ -4545,10 +4560,10 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C116" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D116">
         <v>44.281100000000002</v>
@@ -4562,10 +4577,10 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C117" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D117">
         <v>46.253399999999999</v>
@@ -4579,10 +4594,10 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C118" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D118">
         <v>43.650100000000002</v>
@@ -4596,10 +4611,10 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C119" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D119">
         <v>44.400100000000002</v>
@@ -4613,10 +4628,10 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C120" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D120">
         <v>50.287100000000002</v>
@@ -4630,10 +4645,10 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C121" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D121">
         <v>45.478400000000001</v>
@@ -4647,10 +4662,10 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C122" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D122">
         <v>45.493899999999996</v>
@@ -4664,10 +4679,10 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C123" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D123">
         <v>46.236800000000002</v>
@@ -4681,10 +4696,10 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C124" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D124">
         <v>52.1374</v>
@@ -4698,10 +4713,10 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C125" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D125">
         <v>43.729300000000002</v>
@@ -4715,10 +4730,10 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C126" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D126">
         <v>45.5503</v>
@@ -4732,10 +4747,10 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C127" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D127">
         <v>46.8123</v>
@@ -4749,10 +4764,10 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C128" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D128">
         <v>45.405500000000004</v>
@@ -4766,10 +4781,10 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C129" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D129">
         <v>56.726599999999998</v>
@@ -4783,10 +4798,10 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C130" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D130">
         <v>45.718200000000003</v>
@@ -4800,10 +4815,10 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C131" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D131">
         <v>49.1325</v>
@@ -4817,10 +4832,10 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C132" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D132">
         <v>45.437800000000003</v>
@@ -4834,10 +4849,10 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C133" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D133">
         <v>45.493099999999998</v>
@@ -4851,10 +4866,10 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C134" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D134">
         <v>48.422499999999999</v>
@@ -4868,10 +4883,10 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C135" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D135">
         <v>53.3598</v>
@@ -4885,10 +4900,10 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C136" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D136">
         <v>53.274299999999997</v>
@@ -4902,10 +4917,10 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C137" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D137">
         <v>42.984400000000001</v>
@@ -4919,10 +4934,10 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C138" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D138">
         <v>49.224800000000002</v>
@@ -4936,10 +4951,10 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C139" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D139">
         <v>46.474899999999998</v>
@@ -4950,13 +4965,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B140" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C140" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D140">
         <v>49.661299999999997</v>
@@ -4970,10 +4985,10 @@
         <v>136</v>
       </c>
       <c r="B141" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C141" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D141">
         <v>44.174500000000002</v>
@@ -4987,10 +5002,10 @@
         <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C142" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D142">
         <v>45.5182</v>
@@ -5004,10 +5019,10 @@
         <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D143">
         <v>53.476599999999998</v>
@@ -5021,10 +5036,10 @@
         <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C144" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D144">
         <v>53.546500000000002</v>
@@ -5038,10 +5053,10 @@
         <v>140</v>
       </c>
       <c r="B145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C145" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D145">
         <v>49.819899999999997</v>
@@ -5055,10 +5070,10 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C146" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D146">
         <v>45.482500000000002</v>
@@ -5072,10 +5087,10 @@
         <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C147" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D147">
         <v>45.930700000000002</v>
@@ -5089,10 +5104,10 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C148" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D148">
         <v>45.506900000000002</v>
@@ -5106,10 +5121,10 @@
         <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C149" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D149">
         <v>46.086100000000002</v>
@@ -5123,10 +5138,10 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C150" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D150">
         <v>43.2639</v>
@@ -5140,10 +5155,10 @@
         <v>146</v>
       </c>
       <c r="B151" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C151" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D151">
         <v>50.010800000000003</v>
@@ -5157,10 +5172,10 @@
         <v>147</v>
       </c>
       <c r="B152" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C152" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D152">
         <v>47.573599999999999</v>
@@ -5174,10 +5189,10 @@
         <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C153" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D153">
         <v>49.8919</v>
@@ -5191,10 +5206,10 @@
         <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C154" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D154">
         <v>43.238</v>
@@ -5208,10 +5223,10 @@
         <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C155" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D155">
         <v>45.898400000000002</v>
@@ -5225,10 +5240,10 @@
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C156" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D156">
         <v>51.010800000000003</v>
@@ -5242,10 +5257,10 @@
         <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C157" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D157">
         <v>44.676099999999998</v>
@@ -5259,10 +5274,10 @@
         <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C158" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D158">
         <v>44.648800000000001</v>
@@ -5276,10 +5291,10 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C159" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D159">
         <v>45.562899999999999</v>
@@ -5293,10 +5308,10 @@
         <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C160" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D160">
         <v>49.889499999999998</v>
@@ -5310,10 +5325,10 @@
         <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C161" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D161">
         <v>45.9621</v>
@@ -5327,10 +5342,10 @@
         <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C162" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D162">
         <v>45.927500000000002</v>
@@ -5344,10 +5359,10 @@
         <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C163" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D163">
         <v>43.000700000000002</v>
@@ -5361,10 +5376,10 @@
         <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C164" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D164">
         <v>53.3596</v>
@@ -5378,10 +5393,10 @@
         <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C165" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D165">
         <v>46.311500000000002</v>
@@ -5395,10 +5410,10 @@
         <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C166" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D166">
         <v>53.546900000000001</v>
@@ -5412,10 +5427,10 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C167" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D167">
         <v>49.692799999999998</v>
@@ -5429,10 +5444,10 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C168" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D168">
         <v>52.773699999999998</v>
@@ -5446,10 +5461,10 @@
         <v>164</v>
       </c>
       <c r="B169" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C169" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D169">
         <v>53.568100000000001</v>
@@ -5463,10 +5478,10 @@
         <v>165</v>
       </c>
       <c r="B170" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C170" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D170">
         <v>48.473100000000002</v>
@@ -5480,10 +5495,10 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C171" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D171">
         <v>55.286299999999997</v>
@@ -5497,10 +5512,10 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C172" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D172">
         <v>55.7575</v>
@@ -5514,10 +5529,10 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C173" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D173">
         <v>55.107599999999998</v>
@@ -5531,10 +5546,10 @@
         <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C174" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D174">
         <v>55.172199999999997</v>
@@ -5548,10 +5563,10 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C175" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D175">
         <v>44.6631</v>
@@ -5565,10 +5580,10 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C176" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D176">
         <v>63.746699999999997</v>
@@ -5582,10 +5597,10 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C177" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D177">
         <v>45.496099999999998</v>
@@ -5599,10 +5614,10 @@
         <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C178" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D178">
         <v>43.653599999999997</v>
@@ -5616,10 +5631,10 @@
         <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C179" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D179">
         <v>49.867100000000001</v>
@@ -5633,10 +5648,10 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C180" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D180">
         <v>51.791699999999999</v>
@@ -5650,10 +5665,10 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C181" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D181">
         <v>43.944400000000002</v>
@@ -5667,10 +5682,10 @@
         <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C182" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D182">
         <v>46.097799999999999</v>
@@ -5684,10 +5699,10 @@
         <v>178</v>
       </c>
       <c r="B183" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C183" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D183">
         <v>49.244700000000002</v>
@@ -5701,10 +5716,10 @@
         <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C184" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D184">
         <v>51.210299999999997</v>
@@ -5718,10 +5733,10 @@
         <v>180</v>
       </c>
       <c r="B185" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C185" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D185">
         <v>54.769199999999998</v>
@@ -5735,10 +5750,10 @@
         <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C186" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D186">
         <v>51.707099999999997</v>
@@ -5752,10 +5767,10 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C187" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D187">
         <v>49.4373</v>
@@ -5766,13 +5781,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>183</v>
+        <v>727</v>
       </c>
       <c r="B188" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C188" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D188">
         <v>44.225299999999997</v>
@@ -5783,13 +5798,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B189" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C189" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D189">
         <v>49.1995</v>
@@ -5800,13 +5815,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B190" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C190" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D190">
         <v>52.268999999999998</v>
@@ -5817,13 +5832,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B191" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C191" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D191">
         <v>49.904000000000003</v>
@@ -5834,13 +5849,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B192" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C192" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D192">
         <v>43.2166</v>
@@ -5851,13 +5866,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B193" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C193" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D193">
         <v>51.040500000000002</v>
@@ -5868,13 +5883,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C194" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D194">
         <v>50.971899999999998</v>
@@ -5885,13 +5900,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B195" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C195" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D195">
         <v>49.895800000000001</v>
@@ -5902,13 +5917,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B196" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C196" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D196">
         <v>44.230899999999998</v>
@@ -5919,13 +5934,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B197" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C197" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D197">
         <v>48.433100000000003</v>
@@ -5936,13 +5951,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B198" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C198" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D198">
         <v>47.638300000000001</v>
@@ -5953,13 +5968,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B199" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C199" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D199">
         <v>45.619599999999998</v>
@@ -5970,13 +5985,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B200" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C200" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D200">
         <v>44.634599999999999</v>
@@ -5987,13 +6002,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B201" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C201" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D201">
         <v>52.130400000000002</v>
@@ -6004,13 +6019,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B202" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C202" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D202">
         <v>52.1355</v>
@@ -6021,13 +6036,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B203" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C203" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D203">
         <v>46.520299999999999</v>
@@ -6038,13 +6053,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B204" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C204" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D204">
         <v>49.310699999999997</v>
@@ -6055,13 +6070,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B205" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C205" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D205">
         <v>43.7943</v>
@@ -6072,13 +6087,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B206" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C206" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D206">
         <v>43.467300000000002</v>
@@ -6089,13 +6104,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B207" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C207" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D207">
         <v>49.277500000000003</v>
@@ -6106,13 +6121,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B208" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C208" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D208">
         <v>49.6646</v>
@@ -6123,13 +6138,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B209" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C209" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D209">
         <v>51.0642</v>
@@ -6140,13 +6155,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B210" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C210" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D210">
         <v>49.282699999999998</v>
@@ -6157,13 +6172,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B211" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C211" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D211">
         <v>52.203499999999998</v>
@@ -6174,13 +6189,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B212" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C212" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D212">
         <v>49.808399999999999</v>
@@ -6191,13 +6206,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B213" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C213" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D213">
         <v>42.241199999999999</v>
@@ -6208,13 +6223,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B214" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C214" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D214">
         <v>49.808799999999998</v>
@@ -6225,13 +6240,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B215" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C215" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D215">
         <v>44.217100000000002</v>
@@ -6242,13 +6257,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B216" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C216" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D216">
         <v>50.927</v>
@@ -6259,13 +6274,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B217" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C217" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D217">
         <v>49.808500000000002</v>
@@ -6276,13 +6291,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B218" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C218" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D218">
         <v>45.193800000000003</v>
@@ -6293,13 +6308,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B219" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C219" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D219">
         <v>45.956099999999999</v>
@@ -6310,13 +6325,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B220" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C220" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D220">
         <v>49.533700000000003</v>
@@ -6327,13 +6342,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B221" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C221" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D221">
         <v>51.057099999999998</v>
@@ -6344,13 +6359,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B222" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C222" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D222">
         <v>49.892499999999998</v>
@@ -6361,13 +6376,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B223" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C223" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D223">
         <v>45.397599999999997</v>
@@ -6378,13 +6393,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B224" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C224" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D224">
         <v>45.486699999999999</v>
@@ -6395,13 +6410,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B225" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C225" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D225">
         <v>53.525399999999998</v>
@@ -6412,13 +6427,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B226" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C226" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D226">
         <v>50.6736</v>
@@ -6429,13 +6444,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B227" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C227" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D227">
         <v>43.657699999999998</v>
@@ -6446,13 +6461,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B228" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C228" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D228">
         <v>45.504600000000003</v>
@@ -6463,13 +6478,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B229" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C229" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D229">
         <v>44.361600000000003</v>
@@ -6480,13 +6495,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B230" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C230" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D230">
         <v>49.140799999999999</v>
@@ -6497,13 +6512,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B231" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C231" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D231">
         <v>43.805</v>
@@ -6514,13 +6529,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B232" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C232" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D232">
         <v>49.2742</v>
@@ -6531,13 +6546,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B233" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C233" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D233">
         <v>53.825400000000002</v>
@@ -6548,13 +6563,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B234" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C234" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D234">
         <v>53.523200000000003</v>
@@ -6565,13 +6580,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B235" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C235" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D235">
         <v>49.260599999999997</v>
@@ -6582,13 +6597,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B236" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C236" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D236">
         <v>51.077599999999997</v>
@@ -6599,13 +6614,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B237" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C237" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D237">
         <v>45.944600000000001</v>
@@ -6616,13 +6631,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B238" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C238" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D238">
         <v>43.532499999999999</v>
@@ -6633,13 +6648,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B239" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C239" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D239">
         <v>43.729300000000002</v>
@@ -6650,13 +6665,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B240" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C240" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D240">
         <v>44.637099999999997</v>
@@ -6667,13 +6682,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B241" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C241" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D241">
         <v>49.674700000000001</v>
@@ -6684,13 +6699,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B242" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C242" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D242">
         <v>49.8078</v>
@@ -6701,13 +6716,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B243" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C243" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D243">
         <v>45.946899999999999</v>
@@ -6718,13 +6733,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B244" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C244" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D244">
         <v>43.089599999999997</v>
@@ -6735,13 +6750,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B245" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C245" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D245">
         <v>53.9129</v>
@@ -6752,13 +6767,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B246" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C246" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D246">
         <v>45.4236</v>
@@ -6769,13 +6784,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B247" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C247" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D247">
         <v>46.2607</v>
@@ -6786,13 +6801,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B248" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C248" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D248">
         <v>50.416699999999999</v>
@@ -6803,13 +6818,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B249" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C249" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D249">
         <v>52.133200000000002</v>
@@ -6820,647 +6835,681 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>241</v>
+        <v>729</v>
       </c>
       <c r="B250" t="s">
-        <v>319</v>
+        <v>730</v>
       </c>
       <c r="C250" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="D250">
-        <v>43.6629</v>
+        <v>43.546999999999997</v>
       </c>
       <c r="E250">
-        <v>-79.395700000000005</v>
+        <v>-79.663700000000006</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>242</v>
+        <v>732</v>
       </c>
       <c r="B251" t="s">
-        <v>303</v>
+        <v>733</v>
       </c>
       <c r="C251" t="s">
-        <v>684</v>
+        <v>734</v>
       </c>
       <c r="D251">
-        <v>48.4634</v>
+        <v>43.784500000000001</v>
       </c>
       <c r="E251">
-        <v>-123.3107</v>
+        <v>-79.186000000000007</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>243</v>
+        <v>728</v>
       </c>
       <c r="B252" t="s">
-        <v>685</v>
+        <v>296</v>
       </c>
       <c r="C252" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D252">
-        <v>43.472299999999997</v>
+        <v>43.6629</v>
       </c>
       <c r="E252">
-        <v>-80.544899999999998</v>
+        <v>-79.395700000000005</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B253" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C253" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D253">
-        <v>42.307200000000002</v>
+        <v>48.4634</v>
       </c>
       <c r="E253">
-        <v>-83.067999999999998</v>
+        <v>-123.3107</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B254" t="s">
-        <v>279</v>
+        <v>682</v>
       </c>
       <c r="C254" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D254">
-        <v>49.893500000000003</v>
+        <v>43.472299999999997</v>
       </c>
       <c r="E254">
-        <v>-97.150700000000001</v>
+        <v>-80.544899999999998</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B255" t="s">
-        <v>689</v>
+        <v>317</v>
       </c>
       <c r="C255" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D255">
-        <v>49.025700000000001</v>
+        <v>42.307200000000002</v>
       </c>
       <c r="E255">
-        <v>-122.2852</v>
+        <v>-83.067999999999998</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B256" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="C256" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D256">
-        <v>46.778500000000001</v>
+        <v>49.893500000000003</v>
       </c>
       <c r="E256">
-        <v>-71.275400000000005</v>
+        <v>-97.150700000000001</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B257" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C257" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D257">
-        <v>44.275300000000001</v>
+        <v>49.025700000000001</v>
       </c>
       <c r="E257">
-        <v>-66.1036</v>
+        <v>-122.2852</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B258" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C258" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D258">
-        <v>45.536000000000001</v>
+        <v>46.778500000000001</v>
       </c>
       <c r="E258">
-        <v>-73.607299999999995</v>
+        <v>-71.275400000000005</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B259" t="s">
-        <v>322</v>
+        <v>689</v>
       </c>
       <c r="C259" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D259">
-        <v>49.686</v>
+        <v>44.275300000000001</v>
       </c>
       <c r="E259">
-        <v>-83.665999999999997</v>
+        <v>-66.1036</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B260" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="C260" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D260">
-        <v>46.101300000000002</v>
+        <v>45.536000000000001</v>
       </c>
       <c r="E260">
-        <v>-64.781999999999996</v>
+        <v>-73.607299999999995</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B261" t="s">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="C261" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D261">
-        <v>45.504800000000003</v>
+        <v>49.686</v>
       </c>
       <c r="E261">
-        <v>-73.613200000000006</v>
+        <v>-83.665999999999997</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B262" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C262" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D262">
-        <v>49.890900000000002</v>
+        <v>46.101300000000002</v>
       </c>
       <c r="E262">
-        <v>-97.120599999999996</v>
+        <v>-64.781999999999996</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B263" t="s">
-        <v>278</v>
+        <v>387</v>
       </c>
       <c r="C263" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D263">
-        <v>45.377600000000001</v>
+        <v>45.504800000000003</v>
       </c>
       <c r="E263">
-        <v>-71.933099999999996</v>
+        <v>-73.613200000000006</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B264" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="C264" t="s">
-        <v>540</v>
+        <v>695</v>
       </c>
       <c r="D264">
-        <v>46.474899999999998</v>
+        <v>49.890900000000002</v>
       </c>
       <c r="E264">
-        <v>-80.972800000000007</v>
+        <v>-97.120599999999996</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>700</v>
+        <v>252</v>
       </c>
       <c r="B265" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C265" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D265">
-        <v>43.6447</v>
+        <v>45.377600000000001</v>
       </c>
       <c r="E265">
-        <v>-79.370800000000003</v>
+        <v>-71.933099999999996</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B266" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C266" t="s">
-        <v>702</v>
+        <v>537</v>
       </c>
       <c r="D266">
-        <v>48.232399999999998</v>
+        <v>46.474899999999998</v>
       </c>
       <c r="E266">
-        <v>-79.0184</v>
+        <v>-80.972800000000007</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>257</v>
+        <v>697</v>
       </c>
       <c r="B267" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C267" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D267">
-        <v>45.471299999999999</v>
+        <v>43.6447</v>
       </c>
       <c r="E267">
-        <v>-75.740799999999993</v>
+        <v>-79.370800000000003</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B268" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C268" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D268">
-        <v>48.427300000000002</v>
+        <v>48.232399999999998</v>
       </c>
       <c r="E268">
-        <v>-71.059700000000007</v>
+        <v>-79.0184</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>705</v>
+        <v>255</v>
       </c>
       <c r="B269" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="C269" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D269">
-        <v>45.514699999999998</v>
+        <v>45.471299999999999</v>
       </c>
       <c r="E269">
-        <v>-73.561800000000005</v>
+        <v>-75.740799999999993</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B270" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C270" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D270">
-        <v>48.454000000000001</v>
+        <v>48.427300000000002</v>
       </c>
       <c r="E270">
-        <v>-68.523499999999999</v>
+        <v>-71.059700000000007</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>260</v>
+        <v>702</v>
       </c>
       <c r="B271" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="C271" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D271">
-        <v>46.342399999999998</v>
+        <v>45.514699999999998</v>
       </c>
       <c r="E271">
-        <v>-72.578599999999994</v>
+        <v>-73.561800000000005</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B272" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="C272" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D272">
-        <v>49.282600000000002</v>
+        <v>48.454000000000001</v>
       </c>
       <c r="E272">
-        <v>-123.10899999999999</v>
+        <v>-68.523499999999999</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B273" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="C273" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D273">
-        <v>49.273699999999998</v>
+        <v>46.342399999999998</v>
       </c>
       <c r="E273">
-        <v>-123.0975</v>
+        <v>-72.578599999999994</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B274" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="C274" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D274">
-        <v>49.1586</v>
+        <v>49.282600000000002</v>
       </c>
       <c r="E274">
-        <v>-123.9653</v>
+        <v>-123.10899999999999</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B275" t="s">
-        <v>390</v>
+        <v>288</v>
       </c>
       <c r="C275" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D275">
-        <v>45.511000000000003</v>
+        <v>49.273699999999998</v>
       </c>
       <c r="E275">
-        <v>-73.6751</v>
+        <v>-123.0975</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B276" t="s">
-        <v>519</v>
+        <v>326</v>
       </c>
       <c r="C276" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D276">
-        <v>52.147300000000001</v>
+        <v>49.1586</v>
       </c>
       <c r="E276">
-        <v>-106.68129999999999</v>
+        <v>-123.9653</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B277" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="C277" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D277">
-        <v>43.009599999999999</v>
+        <v>45.511000000000003</v>
       </c>
       <c r="E277">
-        <v>-81.273700000000005</v>
+        <v>-73.6751</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B278" t="s">
-        <v>331</v>
+        <v>516</v>
       </c>
       <c r="C278" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D278">
-        <v>43.4741</v>
+        <v>52.147300000000001</v>
       </c>
       <c r="E278">
-        <v>-80.530600000000007</v>
+        <v>-106.68129999999999</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B279" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="C279" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D279">
-        <v>49.882199999999997</v>
+        <v>43.009599999999999</v>
       </c>
       <c r="E279">
-        <v>-97.204300000000003</v>
+        <v>-81.273700000000005</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B280" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C280" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D280">
-        <v>43.773499999999999</v>
+        <v>43.4741</v>
       </c>
       <c r="E280">
-        <v>-79.501900000000006</v>
+        <v>-80.530600000000007</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B281" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="C281" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D281">
-        <v>45.949199999999998</v>
+        <v>49.882199999999997</v>
       </c>
       <c r="E281">
-        <v>-66.6708</v>
+        <v>-97.204300000000003</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B282" t="s">
-        <v>719</v>
+        <v>329</v>
       </c>
       <c r="C282" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D282">
-        <v>64.06</v>
+        <v>43.773499999999999</v>
       </c>
       <c r="E282">
-        <v>-139.43</v>
+        <v>-79.501900000000006</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B283" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C283" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D283">
-        <v>60.741100000000003</v>
+        <v>45.949199999999998</v>
       </c>
       <c r="E283">
-        <v>-135.078</v>
+        <v>-66.6708</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>722</v>
+        <v>269</v>
       </c>
       <c r="B284" t="s">
-        <v>390</v>
+        <v>716</v>
       </c>
       <c r="C284" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D284">
-        <v>45.523299999999999</v>
+        <v>64.06</v>
       </c>
       <c r="E284">
-        <v>-73.607799999999997</v>
+        <v>-139.43</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>724</v>
+        <v>270</v>
       </c>
       <c r="B285" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="C285" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="D285">
-        <v>45.495699999999999</v>
+        <v>60.741100000000003</v>
       </c>
       <c r="E285">
-        <v>-73.563299999999998</v>
+        <v>-135.078</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B286" t="s">
-        <v>727</v>
+        <v>387</v>
       </c>
       <c r="C286" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="D286">
-        <v>46.813499999999998</v>
+        <v>45.523299999999999</v>
       </c>
       <c r="E286">
-        <v>-71.214500000000001</v>
+        <v>-73.607799999999997</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>273</v>
+        <v>721</v>
       </c>
       <c r="B287" t="s">
-        <v>279</v>
+        <v>387</v>
       </c>
       <c r="C287" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="D287">
+        <v>45.495699999999999</v>
+      </c>
+      <c r="E287">
+        <v>-73.563299999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>723</v>
+      </c>
+      <c r="B288" t="s">
+        <v>724</v>
+      </c>
+      <c r="C288" t="s">
+        <v>725</v>
+      </c>
+      <c r="D288">
+        <v>46.813499999999998</v>
+      </c>
+      <c r="E288">
+        <v>-71.214500000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>271</v>
+      </c>
+      <c r="B289" t="s">
+        <v>277</v>
+      </c>
+      <c r="C289" t="s">
+        <v>726</v>
+      </c>
+      <c r="D289">
         <v>49.890900000000002</v>
       </c>
-      <c r="E287">
+      <c r="E289">
         <v>-97.120599999999996</v>
       </c>
     </row>

--- a/assets/canadianUniversitiesAndColleges.xlsx
+++ b/assets/canadianUniversitiesAndColleges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehonathanshakarghi/Documents/seedle/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7B69D-B256-EB4E-9542-AC262C7883EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1FFB6C-7FC4-3D41-ABFD-D5E0D295C23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,9 +814,6 @@
     <t>Western Academy Broadcasting College</t>
   </si>
   <si>
-    <t>Western University (University of Western Ontario)</t>
-  </si>
-  <si>
     <t>Wilfrid Laurier University</t>
   </si>
   <si>
@@ -2225,6 +2222,9 @@
   </si>
   <si>
     <t>1265 Military Trail, Toronto, ON M1C 1A4</t>
+  </si>
+  <si>
+    <t>Western University</t>
   </si>
 </sst>
 </file>
@@ -2594,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="B291" sqref="B291"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2622,10 +2622,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D2">
         <v>51.050899999999999</v>
@@ -2639,10 +2639,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D3">
         <v>45.088999999999999</v>
@@ -2656,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D4">
         <v>49.285600000000002</v>
@@ -2673,10 +2673,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D5">
         <v>51.063200000000002</v>
@@ -2690,10 +2690,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" t="s">
         <v>336</v>
-      </c>
-      <c r="C6" t="s">
-        <v>337</v>
       </c>
       <c r="D6">
         <v>49.230499999999999</v>
@@ -2707,10 +2707,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D7">
         <v>46.512999999999998</v>
@@ -2724,10 +2724,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D8">
         <v>45.348300000000002</v>
@@ -2741,10 +2741,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D9">
         <v>51.015900000000002</v>
@@ -2758,10 +2758,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D10">
         <v>49.845300000000002</v>
@@ -2775,10 +2775,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D11">
         <v>54.7179</v>
@@ -2792,10 +2792,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" t="s">
         <v>343</v>
-      </c>
-      <c r="C12" t="s">
-        <v>344</v>
       </c>
       <c r="D12">
         <v>60.006399999999999</v>
@@ -2809,10 +2809,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D13">
         <v>51.0869</v>
@@ -2826,10 +2826,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" t="s">
         <v>346</v>
-      </c>
-      <c r="C14" t="s">
-        <v>347</v>
       </c>
       <c r="D14">
         <v>52.751800000000003</v>
@@ -2840,13 +2840,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" t="s">
         <v>348</v>
-      </c>
-      <c r="B15" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" t="s">
-        <v>349</v>
       </c>
       <c r="D15">
         <v>45.366799999999998</v>
@@ -2860,10 +2860,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D16">
         <v>49.896700000000003</v>
@@ -2877,10 +2877,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D17">
         <v>51.045299999999997</v>
@@ -2894,10 +2894,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D18">
         <v>49.843899999999998</v>
@@ -2911,10 +2911,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" t="s">
         <v>353</v>
-      </c>
-      <c r="C19" t="s">
-        <v>354</v>
       </c>
       <c r="D19">
         <v>50.436799999999998</v>
@@ -2928,10 +2928,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D20">
         <v>49.253700000000002</v>
@@ -2945,10 +2945,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D21">
         <v>43.118299999999998</v>
@@ -2962,10 +2962,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D22">
         <v>52.468400000000003</v>
@@ -2979,10 +2979,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D23">
         <v>49.283200000000001</v>
@@ -2996,10 +2996,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D24">
         <v>46.529000000000003</v>
@@ -3013,10 +3013,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D25">
         <v>48.451999999999998</v>
@@ -3030,10 +3030,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D26">
         <v>46.123699999999999</v>
@@ -3047,10 +3047,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D27">
         <v>49.857799999999997</v>
@@ -3064,10 +3064,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C28" t="s">
         <v>363</v>
-      </c>
-      <c r="C28" t="s">
-        <v>364</v>
       </c>
       <c r="D28">
         <v>46.313499999999998</v>
@@ -3081,10 +3081,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D29">
         <v>46.084400000000002</v>
@@ -3098,10 +3098,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D30">
         <v>49.333199999999998</v>
@@ -3115,10 +3115,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D31">
         <v>45.386000000000003</v>
@@ -3132,10 +3132,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" t="s">
         <v>368</v>
-      </c>
-      <c r="C32" t="s">
-        <v>369</v>
       </c>
       <c r="D32">
         <v>52.202599999999997</v>
@@ -3149,10 +3149,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D33">
         <v>43.784500000000001</v>
@@ -3166,10 +3166,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D34">
         <v>45.397199999999998</v>
@@ -3183,10 +3183,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
+        <v>371</v>
+      </c>
+      <c r="C35" t="s">
         <v>372</v>
-      </c>
-      <c r="C35" t="s">
-        <v>373</v>
       </c>
       <c r="D35">
         <v>54.5184</v>
@@ -3200,10 +3200,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C36" t="s">
         <v>374</v>
-      </c>
-      <c r="C36" t="s">
-        <v>375</v>
       </c>
       <c r="D36">
         <v>49.877699999999997</v>
@@ -3217,10 +3217,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D37">
         <v>53.903399999999998</v>
@@ -3234,10 +3234,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
+        <v>376</v>
+      </c>
+      <c r="C38" t="s">
         <v>377</v>
-      </c>
-      <c r="C38" t="s">
-        <v>378</v>
       </c>
       <c r="D38">
         <v>48.547600000000003</v>
@@ -3251,10 +3251,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" t="s">
         <v>379</v>
-      </c>
-      <c r="C39" t="s">
-        <v>380</v>
       </c>
       <c r="D39">
         <v>49.519500000000001</v>
@@ -3268,10 +3268,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
+        <v>380</v>
+      </c>
+      <c r="C40" t="s">
         <v>381</v>
-      </c>
-      <c r="C40" t="s">
-        <v>382</v>
       </c>
       <c r="D40">
         <v>45.431899999999999</v>
@@ -3285,10 +3285,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D41">
         <v>45.549700000000001</v>
@@ -3302,10 +3302,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D42">
         <v>45.5503</v>
@@ -3319,10 +3319,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D43">
         <v>46.810600000000001</v>
@@ -3336,10 +3336,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C44" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D44">
         <v>46.5167</v>
@@ -3353,10 +3353,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
+        <v>386</v>
+      </c>
+      <c r="C45" t="s">
         <v>387</v>
-      </c>
-      <c r="C45" t="s">
-        <v>388</v>
       </c>
       <c r="D45">
         <v>45.502299999999998</v>
@@ -3370,10 +3370,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
+        <v>388</v>
+      </c>
+      <c r="C46" t="s">
         <v>389</v>
-      </c>
-      <c r="C46" t="s">
-        <v>390</v>
       </c>
       <c r="D46">
         <v>46.7926</v>
@@ -3387,10 +3387,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D47">
         <v>45.493400000000001</v>
@@ -3404,10 +3404,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D48">
         <v>45.490699999999997</v>
@@ -3421,10 +3421,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D49">
         <v>45.503799999999998</v>
@@ -3438,10 +3438,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D50">
         <v>46.341299999999997</v>
@@ -3455,10 +3455,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
+        <v>394</v>
+      </c>
+      <c r="C51" t="s">
         <v>395</v>
-      </c>
-      <c r="C51" t="s">
-        <v>396</v>
       </c>
       <c r="D51">
         <v>45.641300000000001</v>
@@ -3472,10 +3472,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
+        <v>396</v>
+      </c>
+      <c r="C52" t="s">
         <v>397</v>
-      </c>
-      <c r="C52" t="s">
-        <v>398</v>
       </c>
       <c r="D52">
         <v>45.575299999999999</v>
@@ -3489,10 +3489,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D53">
         <v>46.799199999999999</v>
@@ -3503,13 +3503,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>399</v>
+      </c>
+      <c r="B54" t="s">
+        <v>388</v>
+      </c>
+      <c r="C54" t="s">
         <v>400</v>
-      </c>
-      <c r="B54" t="s">
-        <v>389</v>
-      </c>
-      <c r="C54" t="s">
-        <v>401</v>
       </c>
       <c r="D54">
         <v>46.813899999999997</v>
@@ -3523,10 +3523,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
+        <v>401</v>
+      </c>
+      <c r="C55" t="s">
         <v>402</v>
-      </c>
-      <c r="C55" t="s">
-        <v>403</v>
       </c>
       <c r="D55">
         <v>46.566299999999998</v>
@@ -3540,10 +3540,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56" t="s">
         <v>404</v>
-      </c>
-      <c r="C56" t="s">
-        <v>405</v>
       </c>
       <c r="D56">
         <v>45.514699999999998</v>
@@ -3557,10 +3557,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
+        <v>405</v>
+      </c>
+      <c r="C57" t="s">
         <v>406</v>
-      </c>
-      <c r="C57" t="s">
-        <v>407</v>
       </c>
       <c r="D57">
         <v>46.097700000000003</v>
@@ -3571,13 +3571,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>407</v>
+      </c>
+      <c r="B58" t="s">
         <v>408</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>409</v>
-      </c>
-      <c r="C58" t="s">
-        <v>410</v>
       </c>
       <c r="D58">
         <v>48.554699999999997</v>
@@ -3591,10 +3591,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D59">
         <v>45.536499999999997</v>
@@ -3608,10 +3608,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D60">
         <v>45.554699999999997</v>
@@ -3625,10 +3625,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D61">
         <v>45.559600000000003</v>
@@ -3642,10 +3642,10 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
+        <v>413</v>
+      </c>
+      <c r="C62" t="s">
         <v>414</v>
-      </c>
-      <c r="C62" t="s">
-        <v>415</v>
       </c>
       <c r="D62">
         <v>45.257199999999997</v>
@@ -3656,13 +3656,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>415</v>
+      </c>
+      <c r="B63" t="s">
         <v>416</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>417</v>
-      </c>
-      <c r="C63" t="s">
-        <v>418</v>
       </c>
       <c r="D63">
         <v>46.448900000000002</v>
@@ -3676,10 +3676,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C64" t="s">
         <v>419</v>
-      </c>
-      <c r="C64" t="s">
-        <v>420</v>
       </c>
       <c r="D64">
         <v>62.453899999999997</v>
@@ -3693,10 +3693,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D65">
         <v>49.273400000000002</v>
@@ -3710,10 +3710,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D66">
         <v>45.497199999999999</v>
@@ -3727,10 +3727,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D67">
         <v>53.570799999999998</v>
@@ -3744,10 +3744,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>423</v>
+      </c>
+      <c r="C68" t="s">
         <v>424</v>
-      </c>
-      <c r="C68" t="s">
-        <v>425</v>
       </c>
       <c r="D68">
         <v>43.389899999999997</v>
@@ -3761,10 +3761,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>425</v>
+      </c>
+      <c r="C69" t="s">
         <v>426</v>
-      </c>
-      <c r="C69" t="s">
-        <v>427</v>
       </c>
       <c r="D69">
         <v>48.380899999999997</v>
@@ -3778,10 +3778,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C70" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D70">
         <v>49.284799999999997</v>
@@ -3795,10 +3795,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D71">
         <v>46.110900000000001</v>
@@ -3812,10 +3812,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C72" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D72">
         <v>49.2605</v>
@@ -3829,10 +3829,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>430</v>
+      </c>
+      <c r="C73" t="s">
         <v>431</v>
-      </c>
-      <c r="C73" t="s">
-        <v>432</v>
       </c>
       <c r="D73">
         <v>52.860500000000002</v>
@@ -3846,10 +3846,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C74" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D74">
         <v>45.431199999999997</v>
@@ -3863,10 +3863,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>433</v>
+      </c>
+      <c r="C75" t="s">
         <v>434</v>
-      </c>
-      <c r="C75" t="s">
-        <v>435</v>
       </c>
       <c r="D75">
         <v>46.118600000000001</v>
@@ -3880,10 +3880,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C76" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D76">
         <v>46.830199999999998</v>
@@ -3897,10 +3897,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C77" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D77">
         <v>45.592500000000001</v>
@@ -3914,10 +3914,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>437</v>
+      </c>
+      <c r="C78" t="s">
         <v>438</v>
-      </c>
-      <c r="C78" t="s">
-        <v>439</v>
       </c>
       <c r="D78">
         <v>49.224400000000003</v>
@@ -3931,10 +3931,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>439</v>
+      </c>
+      <c r="C79" t="s">
         <v>440</v>
-      </c>
-      <c r="C79" t="s">
-        <v>441</v>
       </c>
       <c r="D79">
         <v>48.428600000000003</v>
@@ -3948,10 +3948,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>441</v>
+      </c>
+      <c r="C80" t="s">
         <v>442</v>
-      </c>
-      <c r="C80" t="s">
-        <v>443</v>
       </c>
       <c r="D80">
         <v>45.8825</v>
@@ -3965,10 +3965,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>443</v>
+      </c>
+      <c r="C81" t="s">
         <v>444</v>
-      </c>
-      <c r="C81" t="s">
-        <v>445</v>
       </c>
       <c r="D81">
         <v>45.403100000000002</v>
@@ -3982,10 +3982,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>445</v>
+      </c>
+      <c r="C82" t="s">
         <v>446</v>
-      </c>
-      <c r="C82" t="s">
-        <v>447</v>
       </c>
       <c r="D82">
         <v>48.417499999999997</v>
@@ -3999,10 +3999,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>447</v>
+      </c>
+      <c r="C83" t="s">
         <v>448</v>
-      </c>
-      <c r="C83" t="s">
-        <v>449</v>
       </c>
       <c r="D83">
         <v>47.365299999999998</v>
@@ -4016,10 +4016,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>449</v>
+      </c>
+      <c r="C84" t="s">
         <v>450</v>
-      </c>
-      <c r="C84" t="s">
-        <v>451</v>
       </c>
       <c r="D84">
         <v>46.793700000000001</v>
@@ -4033,10 +4033,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>451</v>
+      </c>
+      <c r="C85" t="s">
         <v>452</v>
-      </c>
-      <c r="C85" t="s">
-        <v>453</v>
       </c>
       <c r="D85">
         <v>48.848599999999998</v>
@@ -4050,10 +4050,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>453</v>
+      </c>
+      <c r="C86" t="s">
         <v>454</v>
-      </c>
-      <c r="C86" t="s">
-        <v>455</v>
       </c>
       <c r="D86">
         <v>48.460799999999999</v>
@@ -4067,10 +4067,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>455</v>
+      </c>
+      <c r="C87" t="s">
         <v>456</v>
-      </c>
-      <c r="C87" t="s">
-        <v>457</v>
       </c>
       <c r="D87">
         <v>47.837400000000002</v>
@@ -4084,10 +4084,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>457</v>
+      </c>
+      <c r="C88" t="s">
         <v>458</v>
-      </c>
-      <c r="C88" t="s">
-        <v>459</v>
       </c>
       <c r="D88">
         <v>48.648899999999998</v>
@@ -4101,10 +4101,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>459</v>
+      </c>
+      <c r="C89" t="s">
         <v>460</v>
-      </c>
-      <c r="C89" t="s">
-        <v>461</v>
       </c>
       <c r="D89">
         <v>45.633000000000003</v>
@@ -4118,10 +4118,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>461</v>
+      </c>
+      <c r="C90" t="s">
         <v>462</v>
-      </c>
-      <c r="C90" t="s">
-        <v>463</v>
       </c>
       <c r="D90">
         <v>45.3292</v>
@@ -4135,10 +4135,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>463</v>
+      </c>
+      <c r="C91" t="s">
         <v>464</v>
-      </c>
-      <c r="C91" t="s">
-        <v>465</v>
       </c>
       <c r="D91">
         <v>45.780299999999997</v>
@@ -4152,10 +4152,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D92">
         <v>45.520699999999998</v>
@@ -4169,10 +4169,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C93" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D93">
         <v>46.777200000000001</v>
@@ -4186,10 +4186,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>467</v>
+      </c>
+      <c r="C94" t="s">
         <v>468</v>
-      </c>
-      <c r="C94" t="s">
-        <v>469</v>
       </c>
       <c r="D94">
         <v>50.221200000000003</v>
@@ -4203,10 +4203,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C95" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D95">
         <v>45.403199999999998</v>
@@ -4220,10 +4220,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>470</v>
+      </c>
+      <c r="C96" t="s">
         <v>471</v>
-      </c>
-      <c r="C96" t="s">
-        <v>472</v>
       </c>
       <c r="D96">
         <v>46.019599999999997</v>
@@ -4237,10 +4237,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>472</v>
+      </c>
+      <c r="C97" t="s">
         <v>473</v>
-      </c>
-      <c r="C97" t="s">
-        <v>474</v>
       </c>
       <c r="D97">
         <v>46.098399999999998</v>
@@ -4254,10 +4254,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C98" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D98">
         <v>46.353099999999998</v>
@@ -4271,10 +4271,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>475</v>
+      </c>
+      <c r="C99" t="s">
         <v>476</v>
-      </c>
-      <c r="C99" t="s">
-        <v>477</v>
       </c>
       <c r="D99">
         <v>46.056699999999999</v>
@@ -4285,13 +4285,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>477</v>
+      </c>
+      <c r="B100" t="s">
         <v>478</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>479</v>
-      </c>
-      <c r="C100" t="s">
-        <v>480</v>
       </c>
       <c r="D100">
         <v>48.232399999999998</v>
@@ -4302,13 +4302,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>480</v>
+      </c>
+      <c r="B101" t="s">
         <v>481</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>482</v>
-      </c>
-      <c r="C101" t="s">
-        <v>483</v>
       </c>
       <c r="D101">
         <v>45.475900000000003</v>
@@ -4322,10 +4322,10 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
+        <v>483</v>
+      </c>
+      <c r="C102" t="s">
         <v>484</v>
-      </c>
-      <c r="C102" t="s">
-        <v>485</v>
       </c>
       <c r="D102">
         <v>48.831800000000001</v>
@@ -4339,10 +4339,10 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C103" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D103">
         <v>45.515000000000001</v>
@@ -4356,10 +4356,10 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
+        <v>486</v>
+      </c>
+      <c r="C104" t="s">
         <v>487</v>
-      </c>
-      <c r="C104" t="s">
-        <v>488</v>
       </c>
       <c r="D104">
         <v>46.018300000000004</v>
@@ -4373,10 +4373,10 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
+        <v>488</v>
+      </c>
+      <c r="C105" t="s">
         <v>489</v>
-      </c>
-      <c r="C105" t="s">
-        <v>490</v>
       </c>
       <c r="D105">
         <v>45.526600000000002</v>
@@ -4390,10 +4390,10 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C106" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D106">
         <v>44.636600000000001</v>
@@ -4407,10 +4407,10 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C107" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D107">
         <v>45.488599999999998</v>
@@ -4424,10 +4424,10 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
+        <v>492</v>
+      </c>
+      <c r="C108" t="s">
         <v>493</v>
-      </c>
-      <c r="C108" t="s">
-        <v>494</v>
       </c>
       <c r="D108">
         <v>49.204500000000003</v>
@@ -4441,10 +4441,10 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C109" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D109">
         <v>43.944400000000002</v>
@@ -4458,10 +4458,10 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C110" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D110">
         <v>49.284500000000001</v>
@@ -4475,10 +4475,10 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C111" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D111">
         <v>49.2699</v>
@@ -4492,10 +4492,10 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
+        <v>497</v>
+      </c>
+      <c r="C112" t="s">
         <v>498</v>
-      </c>
-      <c r="C112" t="s">
-        <v>499</v>
       </c>
       <c r="D112">
         <v>51.150100000000002</v>
@@ -4509,10 +4509,10 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D113">
         <v>49.273699999999998</v>
@@ -4526,10 +4526,10 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C114" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D114">
         <v>43.011800000000001</v>
@@ -4543,10 +4543,10 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
+        <v>501</v>
+      </c>
+      <c r="C115" t="s">
         <v>502</v>
-      </c>
-      <c r="C115" t="s">
-        <v>503</v>
       </c>
       <c r="D115">
         <v>49.8857</v>
@@ -4560,10 +4560,10 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
+        <v>503</v>
+      </c>
+      <c r="C116" t="s">
         <v>504</v>
-      </c>
-      <c r="C116" t="s">
-        <v>505</v>
       </c>
       <c r="D116">
         <v>44.281100000000002</v>
@@ -4577,10 +4577,10 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
+        <v>505</v>
+      </c>
+      <c r="C117" t="s">
         <v>506</v>
-      </c>
-      <c r="C117" t="s">
-        <v>507</v>
       </c>
       <c r="D117">
         <v>46.253399999999999</v>
@@ -4594,10 +4594,10 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C118" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D118">
         <v>43.650100000000002</v>
@@ -4611,10 +4611,10 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
+        <v>508</v>
+      </c>
+      <c r="C119" t="s">
         <v>509</v>
-      </c>
-      <c r="C119" t="s">
-        <v>510</v>
       </c>
       <c r="D119">
         <v>44.400100000000002</v>
@@ -4628,10 +4628,10 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
+        <v>510</v>
+      </c>
+      <c r="C120" t="s">
         <v>511</v>
-      </c>
-      <c r="C120" t="s">
-        <v>512</v>
       </c>
       <c r="D120">
         <v>50.287100000000002</v>
@@ -4645,10 +4645,10 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C121" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D121">
         <v>45.478400000000001</v>
@@ -4662,10 +4662,10 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C122" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D122">
         <v>45.493899999999996</v>
@@ -4679,10 +4679,10 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C123" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D123">
         <v>46.236800000000002</v>
@@ -4696,10 +4696,10 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
+        <v>515</v>
+      </c>
+      <c r="C124" t="s">
         <v>516</v>
-      </c>
-      <c r="C124" t="s">
-        <v>517</v>
       </c>
       <c r="D124">
         <v>52.1374</v>
@@ -4713,10 +4713,10 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C125" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D125">
         <v>43.729300000000002</v>
@@ -4730,10 +4730,10 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C126" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D126">
         <v>45.5503</v>
@@ -4747,10 +4747,10 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C127" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D127">
         <v>46.8123</v>
@@ -4764,10 +4764,10 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
+        <v>520</v>
+      </c>
+      <c r="C128" t="s">
         <v>521</v>
-      </c>
-      <c r="C128" t="s">
-        <v>522</v>
       </c>
       <c r="D128">
         <v>45.405500000000004</v>
@@ -4781,10 +4781,10 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
+        <v>522</v>
+      </c>
+      <c r="C129" t="s">
         <v>523</v>
-      </c>
-      <c r="C129" t="s">
-        <v>524</v>
       </c>
       <c r="D129">
         <v>56.726599999999998</v>
@@ -4798,10 +4798,10 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C130" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D130">
         <v>45.718200000000003</v>
@@ -4815,10 +4815,10 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C131" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D131">
         <v>49.1325</v>
@@ -4832,10 +4832,10 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C132" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D132">
         <v>45.437800000000003</v>
@@ -4849,10 +4849,10 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C133" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D133">
         <v>45.493099999999998</v>
@@ -4866,10 +4866,10 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C134" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D134">
         <v>48.422499999999999</v>
@@ -4883,10 +4883,10 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
+        <v>529</v>
+      </c>
+      <c r="C135" t="s">
         <v>530</v>
-      </c>
-      <c r="C135" t="s">
-        <v>531</v>
       </c>
       <c r="D135">
         <v>53.3598</v>
@@ -4900,10 +4900,10 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
+        <v>531</v>
+      </c>
+      <c r="C136" t="s">
         <v>532</v>
-      </c>
-      <c r="C136" t="s">
-        <v>533</v>
       </c>
       <c r="D136">
         <v>53.274299999999997</v>
@@ -4917,10 +4917,10 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
+        <v>533</v>
+      </c>
+      <c r="C137" t="s">
         <v>534</v>
-      </c>
-      <c r="C137" t="s">
-        <v>535</v>
       </c>
       <c r="D137">
         <v>42.984400000000001</v>
@@ -4934,10 +4934,10 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C138" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D138">
         <v>49.224800000000002</v>
@@ -4951,10 +4951,10 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C139" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D139">
         <v>46.474899999999998</v>
@@ -4965,13 +4965,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>537</v>
+      </c>
+      <c r="B140" t="s">
         <v>538</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>539</v>
-      </c>
-      <c r="C140" t="s">
-        <v>540</v>
       </c>
       <c r="D140">
         <v>49.661299999999997</v>
@@ -4985,10 +4985,10 @@
         <v>136</v>
       </c>
       <c r="B141" t="s">
+        <v>540</v>
+      </c>
+      <c r="C141" t="s">
         <v>541</v>
-      </c>
-      <c r="C141" t="s">
-        <v>542</v>
       </c>
       <c r="D141">
         <v>44.174500000000002</v>
@@ -5002,10 +5002,10 @@
         <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C142" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D142">
         <v>45.5182</v>
@@ -5019,10 +5019,10 @@
         <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C143" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D143">
         <v>53.476599999999998</v>
@@ -5036,10 +5036,10 @@
         <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C144" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D144">
         <v>53.546500000000002</v>
@@ -5053,10 +5053,10 @@
         <v>140</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C145" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D145">
         <v>49.819899999999997</v>
@@ -5070,10 +5070,10 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C146" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D146">
         <v>45.482500000000002</v>
@@ -5087,10 +5087,10 @@
         <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C147" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D147">
         <v>45.930700000000002</v>
@@ -5104,10 +5104,10 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
+        <v>548</v>
+      </c>
+      <c r="C148" t="s">
         <v>549</v>
-      </c>
-      <c r="C148" t="s">
-        <v>550</v>
       </c>
       <c r="D148">
         <v>45.506900000000002</v>
@@ -5121,10 +5121,10 @@
         <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C149" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D149">
         <v>46.086100000000002</v>
@@ -5138,10 +5138,10 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D150">
         <v>43.2639</v>
@@ -5155,10 +5155,10 @@
         <v>146</v>
       </c>
       <c r="B151" t="s">
+        <v>552</v>
+      </c>
+      <c r="C151" t="s">
         <v>553</v>
-      </c>
-      <c r="C151" t="s">
-        <v>554</v>
       </c>
       <c r="D151">
         <v>50.010800000000003</v>
@@ -5172,10 +5172,10 @@
         <v>147</v>
       </c>
       <c r="B152" t="s">
+        <v>554</v>
+      </c>
+      <c r="C152" t="s">
         <v>555</v>
-      </c>
-      <c r="C152" t="s">
-        <v>556</v>
       </c>
       <c r="D152">
         <v>47.573599999999999</v>
@@ -5189,10 +5189,10 @@
         <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C153" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D153">
         <v>49.8919</v>
@@ -5206,10 +5206,10 @@
         <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C154" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D154">
         <v>43.238</v>
@@ -5223,10 +5223,10 @@
         <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C155" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D155">
         <v>45.898400000000002</v>
@@ -5240,10 +5240,10 @@
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C156" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D156">
         <v>51.010800000000003</v>
@@ -5257,10 +5257,10 @@
         <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C157" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D157">
         <v>44.676099999999998</v>
@@ -5274,10 +5274,10 @@
         <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C158" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D158">
         <v>44.648800000000001</v>
@@ -5291,10 +5291,10 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C159" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D159">
         <v>45.562899999999999</v>
@@ -5308,10 +5308,10 @@
         <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C160" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D160">
         <v>49.889499999999998</v>
@@ -5325,10 +5325,10 @@
         <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C161" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D161">
         <v>45.9621</v>
@@ -5342,10 +5342,10 @@
         <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C162" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D162">
         <v>45.927500000000002</v>
@@ -5359,10 +5359,10 @@
         <v>158</v>
       </c>
       <c r="B163" t="s">
+        <v>566</v>
+      </c>
+      <c r="C163" t="s">
         <v>567</v>
-      </c>
-      <c r="C163" t="s">
-        <v>568</v>
       </c>
       <c r="D163">
         <v>43.000700000000002</v>
@@ -5376,10 +5376,10 @@
         <v>159</v>
       </c>
       <c r="B164" t="s">
+        <v>568</v>
+      </c>
+      <c r="C164" t="s">
         <v>569</v>
-      </c>
-      <c r="C164" t="s">
-        <v>570</v>
       </c>
       <c r="D164">
         <v>53.3596</v>
@@ -5393,10 +5393,10 @@
         <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C165" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D165">
         <v>46.311500000000002</v>
@@ -5410,10 +5410,10 @@
         <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C166" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D166">
         <v>53.546900000000001</v>
@@ -5427,10 +5427,10 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
+        <v>572</v>
+      </c>
+      <c r="C167" t="s">
         <v>573</v>
-      </c>
-      <c r="C167" t="s">
-        <v>574</v>
       </c>
       <c r="D167">
         <v>49.692799999999998</v>
@@ -5444,10 +5444,10 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
+        <v>574</v>
+      </c>
+      <c r="C168" t="s">
         <v>575</v>
-      </c>
-      <c r="C168" t="s">
-        <v>576</v>
       </c>
       <c r="D168">
         <v>52.773699999999998</v>
@@ -5461,10 +5461,10 @@
         <v>164</v>
       </c>
       <c r="B169" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C169" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D169">
         <v>53.568100000000001</v>
@@ -5478,10 +5478,10 @@
         <v>165</v>
       </c>
       <c r="B170" t="s">
+        <v>577</v>
+      </c>
+      <c r="C170" t="s">
         <v>578</v>
-      </c>
-      <c r="C170" t="s">
-        <v>579</v>
       </c>
       <c r="D170">
         <v>48.473100000000002</v>
@@ -5495,10 +5495,10 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
+        <v>579</v>
+      </c>
+      <c r="C171" t="s">
         <v>580</v>
-      </c>
-      <c r="C171" t="s">
-        <v>581</v>
       </c>
       <c r="D171">
         <v>55.286299999999997</v>
@@ -5512,10 +5512,10 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
+        <v>581</v>
+      </c>
+      <c r="C172" t="s">
         <v>582</v>
-      </c>
-      <c r="C172" t="s">
-        <v>583</v>
       </c>
       <c r="D172">
         <v>55.7575</v>
@@ -5529,10 +5529,10 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
+        <v>583</v>
+      </c>
+      <c r="C173" t="s">
         <v>584</v>
-      </c>
-      <c r="C173" t="s">
-        <v>585</v>
       </c>
       <c r="D173">
         <v>55.107599999999998</v>
@@ -5546,10 +5546,10 @@
         <v>169</v>
       </c>
       <c r="B174" t="s">
+        <v>585</v>
+      </c>
+      <c r="C174" t="s">
         <v>586</v>
-      </c>
-      <c r="C174" t="s">
-        <v>587</v>
       </c>
       <c r="D174">
         <v>55.172199999999997</v>
@@ -5563,10 +5563,10 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C175" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D175">
         <v>44.6631</v>
@@ -5580,10 +5580,10 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
+        <v>588</v>
+      </c>
+      <c r="C176" t="s">
         <v>589</v>
-      </c>
-      <c r="C176" t="s">
-        <v>590</v>
       </c>
       <c r="D176">
         <v>63.746699999999997</v>
@@ -5597,10 +5597,10 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C177" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D177">
         <v>45.496099999999998</v>
@@ -5614,10 +5614,10 @@
         <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C178" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D178">
         <v>43.653599999999997</v>
@@ -5631,10 +5631,10 @@
         <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C179" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D179">
         <v>49.867100000000001</v>
@@ -5648,10 +5648,10 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
+        <v>593</v>
+      </c>
+      <c r="C180" t="s">
         <v>594</v>
-      </c>
-      <c r="C180" t="s">
-        <v>595</v>
       </c>
       <c r="D180">
         <v>51.791699999999999</v>
@@ -5665,10 +5665,10 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C181" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D181">
         <v>43.944400000000002</v>
@@ -5682,10 +5682,10 @@
         <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C182" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D182">
         <v>46.097799999999999</v>
@@ -5699,10 +5699,10 @@
         <v>178</v>
       </c>
       <c r="B183" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C183" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D183">
         <v>49.244700000000002</v>
@@ -5716,10 +5716,10 @@
         <v>179</v>
       </c>
       <c r="B184" t="s">
+        <v>597</v>
+      </c>
+      <c r="C184" t="s">
         <v>598</v>
-      </c>
-      <c r="C184" t="s">
-        <v>599</v>
       </c>
       <c r="D184">
         <v>51.210299999999997</v>
@@ -5733,10 +5733,10 @@
         <v>180</v>
       </c>
       <c r="B185" t="s">
+        <v>599</v>
+      </c>
+      <c r="C185" t="s">
         <v>600</v>
-      </c>
-      <c r="C185" t="s">
-        <v>601</v>
       </c>
       <c r="D185">
         <v>54.769199999999998</v>
@@ -5750,10 +5750,10 @@
         <v>181</v>
       </c>
       <c r="B186" t="s">
+        <v>601</v>
+      </c>
+      <c r="C186" t="s">
         <v>602</v>
-      </c>
-      <c r="C186" t="s">
-        <v>603</v>
       </c>
       <c r="D186">
         <v>51.707099999999997</v>
@@ -5767,10 +5767,10 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C187" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D187">
         <v>49.4373</v>
@@ -5781,13 +5781,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B188" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C188" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D188">
         <v>44.225299999999997</v>
@@ -5801,10 +5801,10 @@
         <v>183</v>
       </c>
       <c r="B189" t="s">
+        <v>605</v>
+      </c>
+      <c r="C189" t="s">
         <v>606</v>
-      </c>
-      <c r="C189" t="s">
-        <v>607</v>
       </c>
       <c r="D189">
         <v>49.1995</v>
@@ -5818,10 +5818,10 @@
         <v>184</v>
       </c>
       <c r="B190" t="s">
+        <v>607</v>
+      </c>
+      <c r="C190" t="s">
         <v>608</v>
-      </c>
-      <c r="C190" t="s">
-        <v>609</v>
       </c>
       <c r="D190">
         <v>52.268999999999998</v>
@@ -5835,10 +5835,10 @@
         <v>185</v>
       </c>
       <c r="B191" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C191" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D191">
         <v>49.904000000000003</v>
@@ -5852,10 +5852,10 @@
         <v>186</v>
       </c>
       <c r="B192" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C192" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D192">
         <v>43.2166</v>
@@ -5869,10 +5869,10 @@
         <v>187</v>
       </c>
       <c r="B193" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C193" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D193">
         <v>51.040500000000002</v>
@@ -5886,10 +5886,10 @@
         <v>188</v>
       </c>
       <c r="B194" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C194" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D194">
         <v>50.971899999999998</v>
@@ -5903,10 +5903,10 @@
         <v>188</v>
       </c>
       <c r="B195" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C195" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D195">
         <v>49.895800000000001</v>
@@ -5920,10 +5920,10 @@
         <v>189</v>
       </c>
       <c r="B196" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C196" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D196">
         <v>44.230899999999998</v>
@@ -5937,10 +5937,10 @@
         <v>190</v>
       </c>
       <c r="B197" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C197" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D197">
         <v>48.433100000000003</v>
@@ -5954,10 +5954,10 @@
         <v>191</v>
       </c>
       <c r="B198" t="s">
+        <v>616</v>
+      </c>
+      <c r="C198" t="s">
         <v>617</v>
-      </c>
-      <c r="C198" t="s">
-        <v>618</v>
       </c>
       <c r="D198">
         <v>47.638300000000001</v>
@@ -5971,10 +5971,10 @@
         <v>192</v>
       </c>
       <c r="B199" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C199" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D199">
         <v>45.619599999999998</v>
@@ -5988,10 +5988,10 @@
         <v>193</v>
       </c>
       <c r="B200" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C200" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D200">
         <v>44.634599999999999</v>
@@ -6005,10 +6005,10 @@
         <v>194</v>
       </c>
       <c r="B201" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C201" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D201">
         <v>52.130400000000002</v>
@@ -6022,10 +6022,10 @@
         <v>195</v>
       </c>
       <c r="B202" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C202" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D202">
         <v>52.1355</v>
@@ -6039,10 +6039,10 @@
         <v>196</v>
       </c>
       <c r="B203" t="s">
+        <v>622</v>
+      </c>
+      <c r="C203" t="s">
         <v>623</v>
-      </c>
-      <c r="C203" t="s">
-        <v>624</v>
       </c>
       <c r="D203">
         <v>46.520299999999999</v>
@@ -6056,10 +6056,10 @@
         <v>197</v>
       </c>
       <c r="B204" t="s">
+        <v>624</v>
+      </c>
+      <c r="C204" t="s">
         <v>625</v>
-      </c>
-      <c r="C204" t="s">
-        <v>626</v>
       </c>
       <c r="D204">
         <v>49.310699999999997</v>
@@ -6073,10 +6073,10 @@
         <v>198</v>
       </c>
       <c r="B205" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C205" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D205">
         <v>43.7943</v>
@@ -6090,10 +6090,10 @@
         <v>199</v>
       </c>
       <c r="B206" t="s">
+        <v>627</v>
+      </c>
+      <c r="C206" t="s">
         <v>628</v>
-      </c>
-      <c r="C206" t="s">
-        <v>629</v>
       </c>
       <c r="D206">
         <v>43.467300000000002</v>
@@ -6107,10 +6107,10 @@
         <v>200</v>
       </c>
       <c r="B207" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C207" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D207">
         <v>49.277500000000003</v>
@@ -6124,10 +6124,10 @@
         <v>201</v>
       </c>
       <c r="B208" t="s">
+        <v>630</v>
+      </c>
+      <c r="C208" t="s">
         <v>631</v>
-      </c>
-      <c r="C208" t="s">
-        <v>632</v>
       </c>
       <c r="D208">
         <v>49.6646</v>
@@ -6141,10 +6141,10 @@
         <v>202</v>
       </c>
       <c r="B209" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C209" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D209">
         <v>51.0642</v>
@@ -6158,10 +6158,10 @@
         <v>203</v>
       </c>
       <c r="B210" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C210" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D210">
         <v>49.282699999999998</v>
@@ -6172,13 +6172,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>634</v>
+      </c>
+      <c r="B211" t="s">
         <v>635</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>636</v>
-      </c>
-      <c r="C211" t="s">
-        <v>637</v>
       </c>
       <c r="D211">
         <v>52.203499999999998</v>
@@ -6192,10 +6192,10 @@
         <v>204</v>
       </c>
       <c r="B212" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C212" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D212">
         <v>49.808399999999999</v>
@@ -6209,10 +6209,10 @@
         <v>205</v>
       </c>
       <c r="B213" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C213" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D213">
         <v>42.241199999999999</v>
@@ -6226,10 +6226,10 @@
         <v>206</v>
       </c>
       <c r="B214" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C214" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D214">
         <v>49.808799999999998</v>
@@ -6243,10 +6243,10 @@
         <v>207</v>
       </c>
       <c r="B215" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C215" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D215">
         <v>44.217100000000002</v>
@@ -6260,10 +6260,10 @@
         <v>208</v>
       </c>
       <c r="B216" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C216" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D216">
         <v>50.927</v>
@@ -6277,10 +6277,10 @@
         <v>209</v>
       </c>
       <c r="B217" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C217" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D217">
         <v>49.808500000000002</v>
@@ -6294,10 +6294,10 @@
         <v>210</v>
       </c>
       <c r="B218" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C218" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D218">
         <v>45.193800000000003</v>
@@ -6311,10 +6311,10 @@
         <v>211</v>
       </c>
       <c r="B219" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C219" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D219">
         <v>45.956099999999999</v>
@@ -6328,10 +6328,10 @@
         <v>212</v>
       </c>
       <c r="B220" t="s">
+        <v>645</v>
+      </c>
+      <c r="C220" t="s">
         <v>646</v>
-      </c>
-      <c r="C220" t="s">
-        <v>647</v>
       </c>
       <c r="D220">
         <v>49.533700000000003</v>
@@ -6345,10 +6345,10 @@
         <v>213</v>
       </c>
       <c r="B221" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C221" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D221">
         <v>51.057099999999998</v>
@@ -6362,10 +6362,10 @@
         <v>214</v>
       </c>
       <c r="B222" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C222" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D222">
         <v>49.892499999999998</v>
@@ -6379,10 +6379,10 @@
         <v>215</v>
       </c>
       <c r="B223" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C223" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D223">
         <v>45.397599999999997</v>
@@ -6396,10 +6396,10 @@
         <v>216</v>
       </c>
       <c r="B224" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C224" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D224">
         <v>45.486699999999999</v>
@@ -6410,13 +6410,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>651</v>
+      </c>
+      <c r="B225" t="s">
+        <v>284</v>
+      </c>
+      <c r="C225" t="s">
         <v>652</v>
-      </c>
-      <c r="B225" t="s">
-        <v>285</v>
-      </c>
-      <c r="C225" t="s">
-        <v>653</v>
       </c>
       <c r="D225">
         <v>53.525399999999998</v>
@@ -6430,10 +6430,10 @@
         <v>217</v>
       </c>
       <c r="B226" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C226" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D226">
         <v>50.6736</v>
@@ -6447,10 +6447,10 @@
         <v>218</v>
       </c>
       <c r="B227" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C227" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D227">
         <v>43.657699999999998</v>
@@ -6464,10 +6464,10 @@
         <v>219</v>
       </c>
       <c r="B228" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C228" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D228">
         <v>45.504600000000003</v>
@@ -6481,10 +6481,10 @@
         <v>220</v>
       </c>
       <c r="B229" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C229" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D229">
         <v>44.361600000000003</v>
@@ -6498,10 +6498,10 @@
         <v>221</v>
       </c>
       <c r="B230" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C230" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D230">
         <v>49.140799999999999</v>
@@ -6515,10 +6515,10 @@
         <v>222</v>
       </c>
       <c r="B231" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C231" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D231">
         <v>43.805</v>
@@ -6532,10 +6532,10 @@
         <v>223</v>
       </c>
       <c r="B232" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C232" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D232">
         <v>49.2742</v>
@@ -6549,10 +6549,10 @@
         <v>224</v>
       </c>
       <c r="B233" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C233" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D233">
         <v>53.825400000000002</v>
@@ -6566,10 +6566,10 @@
         <v>225</v>
       </c>
       <c r="B234" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C234" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D234">
         <v>53.523200000000003</v>
@@ -6583,10 +6583,10 @@
         <v>226</v>
       </c>
       <c r="B235" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C235" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D235">
         <v>49.260599999999997</v>
@@ -6600,10 +6600,10 @@
         <v>227</v>
       </c>
       <c r="B236" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C236" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D236">
         <v>51.077599999999997</v>
@@ -6617,10 +6617,10 @@
         <v>228</v>
       </c>
       <c r="B237" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C237" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D237">
         <v>45.944600000000001</v>
@@ -6634,10 +6634,10 @@
         <v>229</v>
       </c>
       <c r="B238" t="s">
+        <v>665</v>
+      </c>
+      <c r="C238" t="s">
         <v>666</v>
-      </c>
-      <c r="C238" t="s">
-        <v>667</v>
       </c>
       <c r="D238">
         <v>43.532499999999999</v>
@@ -6651,10 +6651,10 @@
         <v>230</v>
       </c>
       <c r="B239" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C239" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D239">
         <v>43.729300000000002</v>
@@ -6665,13 +6665,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>668</v>
+      </c>
+      <c r="B240" t="s">
+        <v>294</v>
+      </c>
+      <c r="C240" t="s">
         <v>669</v>
-      </c>
-      <c r="B240" t="s">
-        <v>295</v>
-      </c>
-      <c r="C240" t="s">
-        <v>670</v>
       </c>
       <c r="D240">
         <v>44.637099999999997</v>
@@ -6685,10 +6685,10 @@
         <v>231</v>
       </c>
       <c r="B241" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C241" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D241">
         <v>49.674700000000001</v>
@@ -6702,10 +6702,10 @@
         <v>232</v>
       </c>
       <c r="B242" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C242" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D242">
         <v>49.8078</v>
@@ -6719,10 +6719,10 @@
         <v>233</v>
       </c>
       <c r="B243" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C243" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D243">
         <v>45.946899999999999</v>
@@ -6736,10 +6736,10 @@
         <v>234</v>
       </c>
       <c r="B244" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C244" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D244">
         <v>43.089599999999997</v>
@@ -6753,10 +6753,10 @@
         <v>235</v>
       </c>
       <c r="B245" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C245" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D245">
         <v>53.9129</v>
@@ -6770,10 +6770,10 @@
         <v>236</v>
       </c>
       <c r="B246" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C246" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D246">
         <v>45.4236</v>
@@ -6787,10 +6787,10 @@
         <v>237</v>
       </c>
       <c r="B247" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C247" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D247">
         <v>46.2607</v>
@@ -6804,10 +6804,10 @@
         <v>238</v>
       </c>
       <c r="B248" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C248" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D248">
         <v>50.416699999999999</v>
@@ -6821,10 +6821,10 @@
         <v>239</v>
       </c>
       <c r="B249" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C249" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D249">
         <v>52.133200000000002</v>
@@ -6835,13 +6835,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>728</v>
+      </c>
+      <c r="B250" t="s">
         <v>729</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>730</v>
-      </c>
-      <c r="C250" t="s">
-        <v>731</v>
       </c>
       <c r="D250">
         <v>43.546999999999997</v>
@@ -6852,13 +6852,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>731</v>
+      </c>
+      <c r="B251" t="s">
         <v>732</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>733</v>
-      </c>
-      <c r="C251" t="s">
-        <v>734</v>
       </c>
       <c r="D251">
         <v>43.784500000000001</v>
@@ -6869,13 +6869,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B252" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C252" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D252">
         <v>43.6629</v>
@@ -6889,10 +6889,10 @@
         <v>240</v>
       </c>
       <c r="B253" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C253" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D253">
         <v>48.4634</v>
@@ -6906,10 +6906,10 @@
         <v>241</v>
       </c>
       <c r="B254" t="s">
+        <v>681</v>
+      </c>
+      <c r="C254" t="s">
         <v>682</v>
-      </c>
-      <c r="C254" t="s">
-        <v>683</v>
       </c>
       <c r="D254">
         <v>43.472299999999997</v>
@@ -6923,10 +6923,10 @@
         <v>242</v>
       </c>
       <c r="B255" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C255" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D255">
         <v>42.307200000000002</v>
@@ -6940,10 +6940,10 @@
         <v>243</v>
       </c>
       <c r="B256" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C256" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D256">
         <v>49.893500000000003</v>
@@ -6957,10 +6957,10 @@
         <v>244</v>
       </c>
       <c r="B257" t="s">
+        <v>685</v>
+      </c>
+      <c r="C257" t="s">
         <v>686</v>
-      </c>
-      <c r="C257" t="s">
-        <v>687</v>
       </c>
       <c r="D257">
         <v>49.025700000000001</v>
@@ -6974,10 +6974,10 @@
         <v>245</v>
       </c>
       <c r="B258" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C258" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D258">
         <v>46.778500000000001</v>
@@ -6991,10 +6991,10 @@
         <v>246</v>
       </c>
       <c r="B259" t="s">
+        <v>688</v>
+      </c>
+      <c r="C259" t="s">
         <v>689</v>
-      </c>
-      <c r="C259" t="s">
-        <v>690</v>
       </c>
       <c r="D259">
         <v>44.275300000000001</v>
@@ -7008,10 +7008,10 @@
         <v>247</v>
       </c>
       <c r="B260" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C260" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D260">
         <v>45.536000000000001</v>
@@ -7025,10 +7025,10 @@
         <v>248</v>
       </c>
       <c r="B261" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C261" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D261">
         <v>49.686</v>
@@ -7042,10 +7042,10 @@
         <v>249</v>
       </c>
       <c r="B262" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C262" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D262">
         <v>46.101300000000002</v>
@@ -7059,10 +7059,10 @@
         <v>250</v>
       </c>
       <c r="B263" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C263" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D263">
         <v>45.504800000000003</v>
@@ -7076,10 +7076,10 @@
         <v>251</v>
       </c>
       <c r="B264" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C264" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D264">
         <v>49.890900000000002</v>
@@ -7093,10 +7093,10 @@
         <v>252</v>
       </c>
       <c r="B265" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C265" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D265">
         <v>45.377600000000001</v>
@@ -7110,10 +7110,10 @@
         <v>253</v>
       </c>
       <c r="B266" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C266" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D266">
         <v>46.474899999999998</v>
@@ -7124,13 +7124,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>696</v>
+      </c>
+      <c r="B267" t="s">
+        <v>295</v>
+      </c>
+      <c r="C267" t="s">
         <v>697</v>
-      </c>
-      <c r="B267" t="s">
-        <v>296</v>
-      </c>
-      <c r="C267" t="s">
-        <v>698</v>
       </c>
       <c r="D267">
         <v>43.6447</v>
@@ -7144,10 +7144,10 @@
         <v>254</v>
       </c>
       <c r="B268" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C268" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D268">
         <v>48.232399999999998</v>
@@ -7161,10 +7161,10 @@
         <v>255</v>
       </c>
       <c r="B269" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C269" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D269">
         <v>45.471299999999999</v>
@@ -7178,10 +7178,10 @@
         <v>256</v>
       </c>
       <c r="B270" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C270" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D270">
         <v>48.427300000000002</v>
@@ -7192,13 +7192,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>701</v>
+      </c>
+      <c r="B271" t="s">
+        <v>386</v>
+      </c>
+      <c r="C271" t="s">
         <v>702</v>
-      </c>
-      <c r="B271" t="s">
-        <v>387</v>
-      </c>
-      <c r="C271" t="s">
-        <v>703</v>
       </c>
       <c r="D271">
         <v>45.514699999999998</v>
@@ -7212,10 +7212,10 @@
         <v>257</v>
       </c>
       <c r="B272" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C272" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D272">
         <v>48.454000000000001</v>
@@ -7229,10 +7229,10 @@
         <v>258</v>
       </c>
       <c r="B273" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C273" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D273">
         <v>46.342399999999998</v>
@@ -7246,10 +7246,10 @@
         <v>259</v>
       </c>
       <c r="B274" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C274" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D274">
         <v>49.282600000000002</v>
@@ -7263,10 +7263,10 @@
         <v>260</v>
       </c>
       <c r="B275" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C275" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D275">
         <v>49.273699999999998</v>
@@ -7280,10 +7280,10 @@
         <v>261</v>
       </c>
       <c r="B276" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C276" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D276">
         <v>49.1586</v>
@@ -7297,10 +7297,10 @@
         <v>262</v>
       </c>
       <c r="B277" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C277" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D277">
         <v>45.511000000000003</v>
@@ -7314,10 +7314,10 @@
         <v>263</v>
       </c>
       <c r="B278" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C278" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D278">
         <v>52.147300000000001</v>
@@ -7328,13 +7328,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>264</v>
+        <v>734</v>
       </c>
       <c r="B279" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C279" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D279">
         <v>43.009599999999999</v>
@@ -7345,13 +7345,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B280" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C280" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D280">
         <v>43.4741</v>
@@ -7362,13 +7362,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B281" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C281" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D281">
         <v>49.882199999999997</v>
@@ -7379,13 +7379,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B282" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C282" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D282">
         <v>43.773499999999999</v>
@@ -7396,13 +7396,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B283" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C283" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D283">
         <v>45.949199999999998</v>
@@ -7413,13 +7413,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B284" t="s">
+        <v>715</v>
+      </c>
+      <c r="C284" t="s">
         <v>716</v>
-      </c>
-      <c r="C284" t="s">
-        <v>717</v>
       </c>
       <c r="D284">
         <v>64.06</v>
@@ -7430,13 +7430,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B285" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C285" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D285">
         <v>60.741100000000003</v>
@@ -7447,13 +7447,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>718</v>
+      </c>
+      <c r="B286" t="s">
+        <v>386</v>
+      </c>
+      <c r="C286" t="s">
         <v>719</v>
-      </c>
-      <c r="B286" t="s">
-        <v>387</v>
-      </c>
-      <c r="C286" t="s">
-        <v>720</v>
       </c>
       <c r="D286">
         <v>45.523299999999999</v>
@@ -7464,13 +7464,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
+        <v>720</v>
+      </c>
+      <c r="B287" t="s">
+        <v>386</v>
+      </c>
+      <c r="C287" t="s">
         <v>721</v>
-      </c>
-      <c r="B287" t="s">
-        <v>387</v>
-      </c>
-      <c r="C287" t="s">
-        <v>722</v>
       </c>
       <c r="D287">
         <v>45.495699999999999</v>
@@ -7481,13 +7481,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
+        <v>722</v>
+      </c>
+      <c r="B288" t="s">
         <v>723</v>
       </c>
-      <c r="B288" t="s">
+      <c r="C288" t="s">
         <v>724</v>
-      </c>
-      <c r="C288" t="s">
-        <v>725</v>
       </c>
       <c r="D288">
         <v>46.813499999999998</v>
@@ -7498,13 +7498,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B289" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C289" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D289">
         <v>49.890900000000002</v>
